--- a/src/test/manual/Swag Labs-Test Scenarios.xlsx
+++ b/src/test/manual/Swag Labs-Test Scenarios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="3765" tabRatio="670" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="3765" tabRatio="670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="439">
   <si>
     <t>Project Name</t>
   </si>
@@ -5593,7 +5593,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5821,8 +5821,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="72"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5851,6 +5859,12 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -5971,7 +5985,7 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -6158,6 +6172,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6450,7 +6467,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6595,7 +6612,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -9242,8 +9259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
@@ -10011,8 +10028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
@@ -10092,7 +10109,7 @@
       <c r="I2" s="47">
         <v>0</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="65" t="s">
         <v>437</v>
       </c>
       <c r="K2" s="32"/>
@@ -10123,7 +10140,7 @@
       <c r="I3" s="47">
         <v>1</v>
       </c>
-      <c r="J3" s="58" t="s">
+      <c r="J3" s="65" t="s">
         <v>437</v>
       </c>
       <c r="K3" s="32"/>
@@ -10154,7 +10171,7 @@
       <c r="I4" s="50">
         <v>0</v>
       </c>
-      <c r="J4" s="58" t="s">
+      <c r="J4" s="65" t="s">
         <v>437</v>
       </c>
       <c r="K4" s="32"/>
@@ -10185,7 +10202,7 @@
       <c r="I5" s="50">
         <v>2</v>
       </c>
-      <c r="J5" s="58" t="s">
+      <c r="J5" s="65" t="s">
         <v>437</v>
       </c>
       <c r="K5" s="32"/>
@@ -10528,8 +10545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
@@ -10609,7 +10626,9 @@
       <c r="I2" s="47">
         <v>1</v>
       </c>
-      <c r="J2" s="32"/>
+      <c r="J2" s="65" t="s">
+        <v>437</v>
+      </c>
       <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" s="33" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
@@ -10638,7 +10657,9 @@
       <c r="I3" s="47">
         <v>1</v>
       </c>
-      <c r="J3" s="32"/>
+      <c r="J3" s="65" t="s">
+        <v>437</v>
+      </c>
       <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" s="33" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10667,7 +10688,9 @@
       <c r="I4" s="47">
         <v>1</v>
       </c>
-      <c r="J4" s="32"/>
+      <c r="J4" s="65" t="s">
+        <v>437</v>
+      </c>
       <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:11" s="33" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10696,7 +10719,9 @@
       <c r="I5" s="47">
         <v>1</v>
       </c>
-      <c r="J5" s="32"/>
+      <c r="J5" s="65" t="s">
+        <v>437</v>
+      </c>
       <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/src/test/manual/Swag Labs-Test Scenarios.xlsx
+++ b/src/test/manual/Swag Labs-Test Scenarios.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\shelf1\Swag Labs\automation\Swag Labs\SwagLabs\src\test\manual\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="3765" tabRatio="670" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="3765" tabRatio="670" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
@@ -27,8 +22,9 @@
     <sheet name="Heder,Footer" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -36,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="441">
   <si>
     <t>Project Name</t>
   </si>
@@ -5587,13 +5583,19 @@
   </si>
   <si>
     <t>Validate the Logout functionality in all the supported environments</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>1. Home (All Products) page should be opened.                     2. Menu bar should be closed.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="32" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5829,8 +5831,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="72"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5865,6 +5875,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9393"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -5985,7 +6001,7 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -6164,6 +6180,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -6173,7 +6192,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6187,6 +6206,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9393"/>
+      <color rgb="FFEEA4BB"/>
       <color rgb="FFD1D1D1"/>
     </mruColors>
   </colors>
@@ -6244,7 +6265,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -6279,7 +6300,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -6456,21 +6477,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="B10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77" style="1" customWidth="1"/>
@@ -6480,25 +6501,25 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="63"/>
+      <c r="C2" s="64"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
@@ -6509,7 +6530,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
@@ -6520,43 +6541,43 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="63"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="26" t="s">
         <v>3</v>
       </c>
@@ -6571,7 +6592,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
@@ -6586,7 +6607,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -6601,7 +6622,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -6616,7 +6637,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -6631,7 +6652,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="16.5" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -6646,7 +6667,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -6661,7 +6682,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -6676,7 +6697,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -6691,7 +6712,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75">
       <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
@@ -6706,7 +6727,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
@@ -6721,7 +6742,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="16.5" customHeight="1">
       <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
@@ -6736,7 +6757,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75">
       <c r="A22" s="12" t="s">
         <v>367</v>
       </c>
@@ -6751,147 +6772,147 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
       <c r="D23" s="21"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
       <c r="C24" s="20"/>
       <c r="D24" s="21"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75">
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
       <c r="C25" s="20"/>
       <c r="D25" s="21"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20"/>
       <c r="D26" s="21"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="20"/>
       <c r="D27" s="21"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75">
       <c r="A28" s="18"/>
       <c r="B28" s="19"/>
       <c r="C28" s="20"/>
       <c r="D28" s="21"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75">
       <c r="A29" s="18"/>
       <c r="B29" s="19"/>
       <c r="C29" s="20"/>
       <c r="D29" s="21"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75">
       <c r="A30" s="18"/>
       <c r="B30" s="19"/>
       <c r="C30" s="20"/>
       <c r="D30" s="21"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75">
       <c r="A31" s="18"/>
       <c r="B31" s="19"/>
       <c r="C31" s="20"/>
       <c r="D31" s="21"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75">
       <c r="A32" s="18"/>
       <c r="B32" s="19"/>
       <c r="C32" s="20"/>
       <c r="D32" s="21"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15.75">
       <c r="A33" s="18"/>
       <c r="B33" s="19"/>
       <c r="C33" s="20"/>
       <c r="D33" s="21"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15.75">
       <c r="A34" s="18"/>
       <c r="B34" s="19"/>
       <c r="C34" s="20"/>
       <c r="D34" s="21"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15.75">
       <c r="A35" s="18"/>
       <c r="B35" s="19"/>
       <c r="C35" s="20"/>
       <c r="D35" s="21"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15.75">
       <c r="A36" s="18"/>
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
       <c r="D36" s="21"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.75">
       <c r="A37" s="18"/>
       <c r="B37" s="19"/>
       <c r="C37" s="20"/>
       <c r="D37" s="21"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.75">
       <c r="A38" s="18"/>
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
       <c r="D38" s="21"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15.75">
       <c r="A39" s="18"/>
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
       <c r="D39" s="21"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15.75">
       <c r="A40" s="18"/>
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="21"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15.75">
       <c r="A41" s="18"/>
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="21"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -6910,14 +6931,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
+  <sheetFormatPr defaultRowHeight="90.75"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="34" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" style="34" customWidth="1"/>
@@ -6933,7 +6954,7 @@
     <col min="12" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -6968,7 +6989,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>271</v>
       </c>
@@ -6997,7 +7018,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1">
       <c r="A3" s="32" t="s">
         <v>272</v>
       </c>
@@ -7026,7 +7047,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1">
       <c r="A4" s="32" t="s">
         <v>273</v>
       </c>
@@ -7055,7 +7076,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="157.5" customHeight="1">
       <c r="A5" s="32" t="s">
         <v>274</v>
       </c>
@@ -7084,7 +7105,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1">
       <c r="A6" s="32" t="s">
         <v>275</v>
       </c>
@@ -7113,7 +7134,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="117" customHeight="1">
       <c r="A7" s="32" t="s">
         <v>276</v>
       </c>
@@ -7142,7 +7163,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="107.25" customHeight="1">
       <c r="A8" s="32" t="s">
         <v>277</v>
       </c>
@@ -7171,7 +7192,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="127.5" customHeight="1">
       <c r="A9" s="32" t="s">
         <v>278</v>
       </c>
@@ -7200,7 +7221,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="124.5" customHeight="1">
       <c r="A10" s="32" t="s">
         <v>279</v>
       </c>
@@ -7229,7 +7250,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1">
       <c r="A11" s="32" t="s">
         <v>280</v>
       </c>
@@ -7258,7 +7279,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1">
       <c r="A12" s="32" t="s">
         <v>296</v>
       </c>
@@ -7287,7 +7308,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="213.75" customHeight="1">
       <c r="A13" s="32" t="s">
         <v>301</v>
       </c>
@@ -7316,7 +7337,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1">
       <c r="A14" s="32" t="s">
         <v>309</v>
       </c>
@@ -7345,7 +7366,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="160.5" customHeight="1">
       <c r="A15" s="32" t="s">
         <v>310</v>
       </c>
@@ -7374,7 +7395,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1">
       <c r="A16" s="32" t="s">
         <v>322</v>
       </c>
@@ -7403,7 +7424,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="153.75" customHeight="1">
       <c r="A17" s="32" t="s">
         <v>323</v>
       </c>
@@ -7432,7 +7453,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="155.25" customHeight="1">
       <c r="A18" s="32" t="s">
         <v>324</v>
       </c>
@@ -7461,7 +7482,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A19" s="32"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -7474,7 +7495,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -7487,7 +7508,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -7500,7 +7521,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -7513,7 +7534,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -7526,7 +7547,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -7539,7 +7560,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -7552,7 +7573,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -7565,7 +7586,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -7578,7 +7599,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -7591,7 +7612,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -7611,14 +7632,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
+  <sheetFormatPr defaultRowHeight="90.75"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="34" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" style="34" customWidth="1"/>
@@ -7634,7 +7655,7 @@
     <col min="12" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -7669,7 +7690,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="135" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>328</v>
       </c>
@@ -7698,7 +7719,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="135" customHeight="1">
       <c r="A3" s="32" t="s">
         <v>329</v>
       </c>
@@ -7727,7 +7748,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1">
       <c r="A4" s="32" t="s">
         <v>330</v>
       </c>
@@ -7756,7 +7777,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="157.5" customHeight="1">
       <c r="A5" s="32" t="s">
         <v>331</v>
       </c>
@@ -7785,7 +7806,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="132.75" customHeight="1">
       <c r="A6" s="32" t="s">
         <v>332</v>
       </c>
@@ -7814,7 +7835,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="150" customHeight="1">
       <c r="A7" s="32" t="s">
         <v>333</v>
       </c>
@@ -7843,7 +7864,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="162.75" customHeight="1">
       <c r="A8" s="32" t="s">
         <v>334</v>
       </c>
@@ -7872,7 +7893,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="153" customHeight="1">
       <c r="A9" s="32" t="s">
         <v>335</v>
       </c>
@@ -7901,7 +7922,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="156.75" customHeight="1">
       <c r="A10" s="32" t="s">
         <v>336</v>
       </c>
@@ -7930,7 +7951,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="159.75" customHeight="1">
       <c r="A11" s="32" t="s">
         <v>337</v>
       </c>
@@ -7959,7 +7980,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -7972,7 +7993,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="213.75" customHeight="1">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="44"/>
@@ -7985,7 +8006,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="44"/>
@@ -7998,7 +8019,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="160.5" customHeight="1">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="44"/>
@@ -8011,7 +8032,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="44"/>
@@ -8024,7 +8045,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="153.75" customHeight="1">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="44"/>
@@ -8037,7 +8058,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="155.25" customHeight="1">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="44"/>
@@ -8050,7 +8071,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A19" s="32"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -8063,7 +8084,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -8076,7 +8097,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -8089,7 +8110,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -8102,7 +8123,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -8115,7 +8136,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -8128,7 +8149,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -8141,7 +8162,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -8154,7 +8175,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -8167,7 +8188,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -8180,7 +8201,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -8200,14 +8221,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
+  <sheetFormatPr defaultRowHeight="90.75"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="34" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" style="34" customWidth="1"/>
@@ -8223,7 +8244,7 @@
     <col min="12" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -8258,7 +8279,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="153" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>373</v>
       </c>
@@ -8287,7 +8308,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="177" customHeight="1">
       <c r="A3" s="32" t="s">
         <v>379</v>
       </c>
@@ -8314,7 +8335,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
       <c r="C4" s="44"/>
@@ -8327,7 +8348,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="157.5" customHeight="1">
       <c r="A5" s="32"/>
       <c r="B5" s="32"/>
       <c r="C5" s="44"/>
@@ -8340,7 +8361,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="44"/>
@@ -8353,7 +8374,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="117" customHeight="1">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="44"/>
@@ -8366,7 +8387,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="107.25" customHeight="1">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="44"/>
@@ -8379,7 +8400,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="127.5" customHeight="1">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="44"/>
@@ -8392,7 +8413,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="124.5" customHeight="1">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="44"/>
@@ -8405,7 +8426,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="44"/>
@@ -8418,7 +8439,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -8431,7 +8452,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="213.75" customHeight="1">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="44"/>
@@ -8444,7 +8465,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="44"/>
@@ -8457,7 +8478,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="160.5" customHeight="1">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="44"/>
@@ -8470,7 +8491,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="44"/>
@@ -8483,7 +8504,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="153.75" customHeight="1">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="44"/>
@@ -8496,7 +8517,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="155.25" customHeight="1">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="44"/>
@@ -8509,7 +8530,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A19" s="32"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -8522,7 +8543,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -8535,7 +8556,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -8548,7 +8569,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -8561,7 +8582,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -8574,7 +8595,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -8587,7 +8608,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -8600,7 +8621,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -8613,7 +8634,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -8626,7 +8647,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -8639,7 +8660,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -8658,14 +8679,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
+  <sheetFormatPr defaultRowHeight="90.75"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="34" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" style="34" customWidth="1"/>
@@ -8681,7 +8702,7 @@
     <col min="12" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -8716,7 +8737,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>224</v>
       </c>
@@ -8745,7 +8766,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A3" s="32" t="s">
         <v>225</v>
       </c>
@@ -8774,7 +8795,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A4" s="32" t="s">
         <v>226</v>
       </c>
@@ -8803,7 +8824,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A5" s="32" t="s">
         <v>227</v>
       </c>
@@ -8832,7 +8853,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A6" s="32" t="s">
         <v>228</v>
       </c>
@@ -8859,7 +8880,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1">
       <c r="A7" s="32" t="s">
         <v>229</v>
       </c>
@@ -8888,7 +8909,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A8" s="32" t="s">
         <v>246</v>
       </c>
@@ -8915,7 +8936,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="105.75" customHeight="1">
       <c r="A9" s="32" t="s">
         <v>247</v>
       </c>
@@ -8942,7 +8963,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A10" s="32" t="s">
         <v>248</v>
       </c>
@@ -8969,7 +8990,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1">
       <c r="A11" s="32" t="s">
         <v>401</v>
       </c>
@@ -8996,7 +9017,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1">
       <c r="A12" s="32" t="s">
         <v>402</v>
       </c>
@@ -9023,7 +9044,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -9036,7 +9057,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -9049,7 +9070,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="150.75" customHeight="1">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -9062,7 +9083,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -9075,7 +9096,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A17" s="42"/>
       <c r="B17" s="42"/>
       <c r="C17" s="32"/>
@@ -9088,7 +9109,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -9101,7 +9122,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -9114,7 +9135,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -9127,7 +9148,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -9140,7 +9161,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -9153,7 +9174,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -9166,7 +9187,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -9179,7 +9200,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -9192,7 +9213,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -9205,7 +9226,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -9218,7 +9239,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -9231,7 +9252,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -9256,14 +9277,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
+  <sheetFormatPr defaultRowHeight="90.75"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="34" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" style="34" customWidth="1"/>
@@ -9279,7 +9300,7 @@
     <col min="12" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -9314,7 +9335,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A2" s="42" t="s">
         <v>40</v>
       </c>
@@ -9345,7 +9366,7 @@
       </c>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A3" s="42" t="s">
         <v>46</v>
       </c>
@@ -9376,7 +9397,7 @@
       </c>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A4" s="42" t="s">
         <v>48</v>
       </c>
@@ -9407,7 +9428,7 @@
       </c>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A5" s="42" t="s">
         <v>50</v>
       </c>
@@ -9438,7 +9459,7 @@
       </c>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A6" s="32" t="s">
         <v>55</v>
       </c>
@@ -9469,7 +9490,7 @@
       </c>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A7" s="32" t="s">
         <v>59</v>
       </c>
@@ -9500,7 +9521,7 @@
       </c>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A8" s="32" t="s">
         <v>61</v>
       </c>
@@ -9531,7 +9552,7 @@
       </c>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="105.75" customHeight="1">
       <c r="A9" s="32" t="s">
         <v>64</v>
       </c>
@@ -9562,7 +9583,7 @@
       </c>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="101.25" customHeight="1">
       <c r="A10" s="32" t="s">
         <v>72</v>
       </c>
@@ -9593,7 +9614,7 @@
       </c>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1">
       <c r="A11" s="32" t="s">
         <v>73</v>
       </c>
@@ -9624,7 +9645,7 @@
       </c>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="112.5" customHeight="1">
       <c r="A12" s="32" t="s">
         <v>76</v>
       </c>
@@ -9655,7 +9676,7 @@
       </c>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="175.5" customHeight="1">
       <c r="A13" s="32" t="s">
         <v>80</v>
       </c>
@@ -9686,7 +9707,7 @@
       </c>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A14" s="32" t="s">
         <v>83</v>
       </c>
@@ -9717,7 +9738,7 @@
       </c>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="150.75" customHeight="1">
       <c r="A15" s="32" t="s">
         <v>89</v>
       </c>
@@ -9748,7 +9769,7 @@
       </c>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1">
       <c r="A16" s="32" t="s">
         <v>90</v>
       </c>
@@ -9779,7 +9800,7 @@
       </c>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A17" s="32" t="s">
         <v>420</v>
       </c>
@@ -9810,7 +9831,7 @@
       </c>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A18" s="32" t="s">
         <v>421</v>
       </c>
@@ -9841,7 +9862,7 @@
       </c>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="168" customHeight="1">
       <c r="A19" s="32" t="s">
         <v>431</v>
       </c>
@@ -9872,7 +9893,7 @@
       </c>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A20" s="32" t="s">
         <v>432</v>
       </c>
@@ -9901,7 +9922,7 @@
       <c r="J20" s="58"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -9914,7 +9935,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -9927,7 +9948,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -9940,7 +9961,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -9953,7 +9974,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -9966,7 +9987,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -9979,7 +10000,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -9992,7 +10013,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -10005,7 +10026,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -10025,14 +10046,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
+  <sheetFormatPr defaultRowHeight="90.75"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="34" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" style="34" customWidth="1"/>
@@ -10048,7 +10069,7 @@
     <col min="12" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -10083,7 +10104,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="120" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>100</v>
       </c>
@@ -10109,12 +10130,12 @@
       <c r="I2" s="47">
         <v>0</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="62" t="s">
         <v>437</v>
       </c>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="138" customHeight="1">
       <c r="A3" s="32" t="s">
         <v>101</v>
       </c>
@@ -10140,12 +10161,12 @@
       <c r="I3" s="47">
         <v>1</v>
       </c>
-      <c r="J3" s="65" t="s">
+      <c r="J3" s="62" t="s">
         <v>437</v>
       </c>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="136.5" customHeight="1">
       <c r="A4" s="32" t="s">
         <v>102</v>
       </c>
@@ -10171,12 +10192,12 @@
       <c r="I4" s="50">
         <v>0</v>
       </c>
-      <c r="J4" s="65" t="s">
+      <c r="J4" s="62" t="s">
         <v>437</v>
       </c>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="156" customHeight="1">
       <c r="A5" s="32" t="s">
         <v>103</v>
       </c>
@@ -10202,12 +10223,12 @@
       <c r="I5" s="50">
         <v>2</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="62" t="s">
         <v>437</v>
       </c>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A6" s="32" t="s">
         <v>104</v>
       </c>
@@ -10236,7 +10257,7 @@
       <c r="J6" s="58"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -10249,7 +10270,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -10262,7 +10283,7 @@
       <c r="J8" s="58"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -10275,7 +10296,7 @@
       <c r="J9" s="58"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -10288,7 +10309,7 @@
       <c r="J10" s="58"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -10301,7 +10322,7 @@
       <c r="J11" s="58"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -10314,7 +10335,7 @@
       <c r="J12" s="58"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -10327,7 +10348,7 @@
       <c r="J13" s="58"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -10340,7 +10361,7 @@
       <c r="J14" s="58"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -10353,7 +10374,7 @@
       <c r="J15" s="58"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -10366,7 +10387,7 @@
       <c r="J16" s="59"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -10379,7 +10400,7 @@
       <c r="J17" s="58"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -10392,7 +10413,7 @@
       <c r="J18" s="58"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -10405,7 +10426,7 @@
       <c r="J19" s="58"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -10418,7 +10439,7 @@
       <c r="J20" s="58"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -10431,7 +10452,7 @@
       <c r="J21" s="60"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -10444,7 +10465,7 @@
       <c r="J22" s="60"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -10457,7 +10478,7 @@
       <c r="J23" s="60"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -10470,7 +10491,7 @@
       <c r="J24" s="60"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -10483,7 +10504,7 @@
       <c r="J25" s="60"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -10496,7 +10517,7 @@
       <c r="J26" s="60"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -10509,7 +10530,7 @@
       <c r="J27" s="60"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -10522,7 +10543,7 @@
       <c r="J28" s="60"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -10542,14 +10563,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
+  <sheetFormatPr defaultRowHeight="90.75"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="34" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" style="34" customWidth="1"/>
@@ -10565,7 +10586,7 @@
     <col min="12" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -10600,7 +10621,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="96.75" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>119</v>
       </c>
@@ -10626,12 +10647,12 @@
       <c r="I2" s="47">
         <v>1</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="62" t="s">
         <v>437</v>
       </c>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="99" customHeight="1">
       <c r="A3" s="32" t="s">
         <v>120</v>
       </c>
@@ -10657,12 +10678,12 @@
       <c r="I3" s="47">
         <v>1</v>
       </c>
-      <c r="J3" s="65" t="s">
+      <c r="J3" s="62" t="s">
         <v>437</v>
       </c>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="92.25" customHeight="1">
       <c r="A4" s="32" t="s">
         <v>121</v>
       </c>
@@ -10688,12 +10709,12 @@
       <c r="I4" s="47">
         <v>1</v>
       </c>
-      <c r="J4" s="65" t="s">
+      <c r="J4" s="62" t="s">
         <v>437</v>
       </c>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="111.75" customHeight="1">
       <c r="A5" s="32" t="s">
         <v>122</v>
       </c>
@@ -10719,12 +10740,12 @@
       <c r="I5" s="47">
         <v>1</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="62" t="s">
         <v>437</v>
       </c>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="44"/>
@@ -10737,7 +10758,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -10750,7 +10771,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -10763,7 +10784,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -10776,7 +10797,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -10789,7 +10810,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -10802,7 +10823,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -10815,7 +10836,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -10828,7 +10849,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -10841,7 +10862,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -10854,7 +10875,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -10867,7 +10888,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -10880,7 +10901,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -10893,7 +10914,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -10906,7 +10927,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -10919,7 +10940,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -10932,7 +10953,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -10945,7 +10966,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -10958,7 +10979,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -10971,7 +10992,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -10984,7 +11005,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -10997,7 +11018,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -11010,7 +11031,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -11023,7 +11044,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -11042,14 +11063,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
+  <sheetFormatPr defaultRowHeight="90.75"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="34" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" style="34" customWidth="1"/>
@@ -11065,7 +11086,7 @@
     <col min="12" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -11100,7 +11121,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="96.75" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>135</v>
       </c>
@@ -11120,16 +11141,18 @@
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>141</v>
+        <v>440</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
         <v>0</v>
       </c>
-      <c r="J2" s="32"/>
+      <c r="J2" s="66" t="s">
+        <v>439</v>
+      </c>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="99" customHeight="1">
       <c r="A3" s="32" t="s">
         <v>136</v>
       </c>
@@ -11158,7 +11181,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="92.25" customHeight="1">
       <c r="A4" s="32" t="s">
         <v>137</v>
       </c>
@@ -11187,7 +11210,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="115.5" customHeight="1">
       <c r="A5" s="32" t="s">
         <v>139</v>
       </c>
@@ -11216,7 +11239,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="139.5" customHeight="1">
       <c r="A6" s="32" t="s">
         <v>138</v>
       </c>
@@ -11245,7 +11268,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -11258,7 +11281,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -11271,7 +11294,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -11284,7 +11307,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -11297,7 +11320,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -11310,7 +11333,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -11323,7 +11346,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -11336,7 +11359,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -11349,7 +11372,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -11362,7 +11385,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -11375,7 +11398,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -11388,7 +11411,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -11401,7 +11424,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -11414,7 +11437,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -11427,7 +11450,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -11440,7 +11463,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -11453,7 +11476,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -11466,7 +11489,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -11479,7 +11502,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -11492,7 +11515,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -11505,7 +11528,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -11518,7 +11541,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -11531,7 +11554,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -11551,14 +11574,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
+  <sheetFormatPr defaultRowHeight="90.75"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="34" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" style="34" customWidth="1"/>
@@ -11574,7 +11597,7 @@
     <col min="12" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -11609,7 +11632,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="96.75" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>155</v>
       </c>
@@ -11638,7 +11661,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="99" customHeight="1">
       <c r="A3" s="32" t="s">
         <v>156</v>
       </c>
@@ -11667,7 +11690,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="92.25" customHeight="1">
       <c r="A4" s="32" t="s">
         <v>157</v>
       </c>
@@ -11696,7 +11719,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="115.5" customHeight="1">
       <c r="A5" s="32" t="s">
         <v>158</v>
       </c>
@@ -11725,7 +11748,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A6" s="32" t="s">
         <v>159</v>
       </c>
@@ -11754,7 +11777,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="44"/>
@@ -11767,7 +11790,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -11780,7 +11803,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -11793,7 +11816,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -11806,7 +11829,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -11819,7 +11842,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -11832,7 +11855,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -11845,7 +11868,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -11858,7 +11881,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -11871,7 +11894,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -11884,7 +11907,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -11897,7 +11920,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -11910,7 +11933,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -11923,7 +11946,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -11936,7 +11959,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -11949,7 +11972,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -11962,7 +11985,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -11975,7 +11998,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -11988,7 +12011,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -12001,7 +12024,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -12014,7 +12037,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -12027,7 +12050,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -12040,7 +12063,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -12060,14 +12083,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
+  <sheetFormatPr defaultRowHeight="90.75"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="34" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" style="34" customWidth="1"/>
@@ -12083,7 +12106,7 @@
     <col min="12" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -12118,7 +12141,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>176</v>
       </c>
@@ -12147,7 +12170,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1">
       <c r="A3" s="32" t="s">
         <v>177</v>
       </c>
@@ -12176,7 +12199,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1">
       <c r="A4" s="32" t="s">
         <v>178</v>
       </c>
@@ -12205,7 +12228,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="142.5" customHeight="1">
       <c r="A5" s="32" t="s">
         <v>179</v>
       </c>
@@ -12234,7 +12257,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1">
       <c r="A6" s="32" t="s">
         <v>180</v>
       </c>
@@ -12263,7 +12286,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="44"/>
@@ -12276,7 +12299,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -12289,7 +12312,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -12302,7 +12325,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -12315,7 +12338,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -12328,7 +12351,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -12341,7 +12364,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -12354,7 +12377,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -12367,7 +12390,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -12380,7 +12403,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -12393,7 +12416,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -12406,7 +12429,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -12419,7 +12442,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -12432,7 +12455,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -12445,7 +12468,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -12458,7 +12481,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -12471,7 +12494,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -12484,7 +12507,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -12497,7 +12520,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -12510,7 +12533,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -12523,7 +12546,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -12536,7 +12559,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -12549,7 +12572,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -12569,12 +12592,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
+  <sheetFormatPr defaultRowHeight="90.75"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="34" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" style="34" customWidth="1"/>
@@ -12590,7 +12613,7 @@
     <col min="12" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -12625,7 +12648,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>198</v>
       </c>
@@ -12654,7 +12677,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1">
       <c r="A3" s="32" t="s">
         <v>199</v>
       </c>
@@ -12683,7 +12706,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1">
       <c r="A4" s="32" t="s">
         <v>200</v>
       </c>
@@ -12712,7 +12735,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="142.5" customHeight="1">
       <c r="A5" s="32" t="s">
         <v>201</v>
       </c>
@@ -12741,7 +12764,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1">
       <c r="A6" s="32" t="s">
         <v>202</v>
       </c>
@@ -12770,7 +12793,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A7" s="32" t="s">
         <v>215</v>
       </c>
@@ -12799,7 +12822,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -12812,7 +12835,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -12825,7 +12848,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -12838,7 +12861,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -12851,7 +12874,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -12864,7 +12887,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -12877,7 +12900,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -12890,7 +12913,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -12903,7 +12926,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -12916,7 +12939,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -12929,7 +12952,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -12942,7 +12965,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -12955,7 +12978,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -12968,7 +12991,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -12981,7 +13004,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -12994,7 +13017,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -13007,7 +13030,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -13020,7 +13043,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -13033,7 +13056,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -13046,7 +13069,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -13059,7 +13082,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -13072,7 +13095,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -13092,14 +13115,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
+  <sheetFormatPr defaultRowHeight="90.75"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="34" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" style="34" customWidth="1"/>
@@ -13115,7 +13138,7 @@
     <col min="12" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -13150,7 +13173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>224</v>
       </c>
@@ -13179,7 +13202,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1">
       <c r="A3" s="32" t="s">
         <v>225</v>
       </c>
@@ -13208,7 +13231,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1">
       <c r="A4" s="32" t="s">
         <v>226</v>
       </c>
@@ -13237,7 +13260,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="142.5" customHeight="1">
       <c r="A5" s="32" t="s">
         <v>227</v>
       </c>
@@ -13266,7 +13289,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1">
       <c r="A6" s="32" t="s">
         <v>228</v>
       </c>
@@ -13295,7 +13318,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A7" s="32" t="s">
         <v>229</v>
       </c>
@@ -13324,7 +13347,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A8" s="32" t="s">
         <v>246</v>
       </c>
@@ -13353,7 +13376,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="127.5" customHeight="1">
       <c r="A9" s="32" t="s">
         <v>247</v>
       </c>
@@ -13382,7 +13405,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A10" s="32" t="s">
         <v>248</v>
       </c>
@@ -13411,7 +13434,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -13424,7 +13447,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -13437,7 +13460,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -13450,7 +13473,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -13463,7 +13486,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -13476,7 +13499,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -13489,7 +13512,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -13502,7 +13525,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -13515,7 +13538,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -13528,7 +13551,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -13541,7 +13564,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -13554,7 +13577,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -13567,7 +13590,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -13580,7 +13603,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -13593,7 +13616,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -13606,7 +13629,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -13619,7 +13642,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -13632,7 +13655,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -13645,7 +13668,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>

--- a/src/test/manual/Swag Labs-Test Scenarios.xlsx
+++ b/src/test/manual/Swag Labs-Test Scenarios.xlsx
@@ -11066,8 +11066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75"/>

--- a/src/test/manual/Swag Labs-Test Scenarios.xlsx
+++ b/src/test/manual/Swag Labs-Test Scenarios.xlsx
@@ -1,29 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\shelf1\Swag Labs\automation\Swag Labs\SwagLabs\src\test\manual\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="3765" tabRatio="670" activeTab="4"/>
+    <workbookView activeTab="4" tabRatio="670" windowHeight="3765" windowWidth="10215" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
-    <sheet name="Login" sheetId="2" r:id="rId2"/>
-    <sheet name="Logout" sheetId="3" r:id="rId3"/>
-    <sheet name="Filter" sheetId="4" r:id="rId4"/>
-    <sheet name="All Items" sheetId="5" r:id="rId5"/>
-    <sheet name="Product Display" sheetId="6" r:id="rId6"/>
-    <sheet name="Add to Cart" sheetId="7" r:id="rId7"/>
-    <sheet name="Your Cart" sheetId="8" r:id="rId8"/>
-    <sheet name="Home" sheetId="9" r:id="rId9"/>
-    <sheet name="Checkout" sheetId="10" r:id="rId10"/>
-    <sheet name="Overview" sheetId="12" r:id="rId11"/>
-    <sheet name="Compleate" sheetId="11" r:id="rId12"/>
-    <sheet name="Heder,Footer" sheetId="13" r:id="rId13"/>
+    <sheet name="Test Scenarios" r:id="rId1" sheetId="1"/>
+    <sheet name="Login" r:id="rId2" sheetId="2"/>
+    <sheet name="Logout" r:id="rId3" sheetId="3"/>
+    <sheet name="Filter" r:id="rId4" sheetId="4"/>
+    <sheet name="All Items" r:id="rId5" sheetId="5"/>
+    <sheet name="Product Display" r:id="rId6" sheetId="6"/>
+    <sheet name="Add to Cart" r:id="rId7" sheetId="7"/>
+    <sheet name="Your Cart" r:id="rId8" sheetId="8"/>
+    <sheet name="Home" r:id="rId9" sheetId="9"/>
+    <sheet name="Checkout" r:id="rId10" sheetId="10"/>
+    <sheet name="Overview" r:id="rId11" sheetId="12"/>
+    <sheet name="Compleate" r:id="rId12" sheetId="11"/>
+    <sheet name="Heder,Footer" r:id="rId13" sheetId="13"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+  <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="441">
   <si>
     <t>Project Name</t>
   </si>
@@ -5594,8 +5598,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5839,8 +5844,52 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="72"/>
+      <color indexed="18"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="72"/>
+      <color indexed="18"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="72.0"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="72.0"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="72.0"/>
+      <color indexed="16"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5881,6 +5930,41 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -5996,214 +6080,240 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="22" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="25" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="75">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="4" numFmtId="14" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="4" numFmtId="14" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="2" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="19" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="20" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="20" numFmtId="0" quotePrefix="1" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="21" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="4" fontId="26" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="5" fontId="27" numFmtId="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="28" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="28" numFmtId="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="29" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="6" fontId="31" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="7" fontId="32" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="8" fontId="33" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="34" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="35" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="36" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="9" fontId="37" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="11" fontId="38" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="13" fontId="39" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="3" builtinId="27"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="27" name="Bad" xfId="3"/>
+    <cellStyle builtinId="26" name="Good" xfId="2"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FFFF9393"/>
@@ -6227,10 +6337,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -6265,7 +6375,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -6300,7 +6410,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -6394,21 +6504,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -6425,7 +6535,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -6477,49 +6587,49 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="B10" workbookViewId="0" zoomScale="175" zoomScaleNormal="175">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="77.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="24.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="64"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
@@ -6530,7 +6640,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
@@ -6541,43 +6651,43 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="64"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>3</v>
       </c>
@@ -6592,7 +6702,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75">
+    <row ht="15.75" r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
@@ -6607,7 +6717,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75">
+    <row ht="15.75" r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -6622,7 +6732,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75">
+    <row ht="15.75" r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -6637,7 +6747,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75">
+    <row ht="15.75" r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -6652,7 +6762,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -6667,7 +6777,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75">
+    <row ht="15.75" r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -6682,7 +6792,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75">
+    <row ht="15.75" r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -6697,7 +6807,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75">
+    <row ht="15.75" r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -6712,7 +6822,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75">
+    <row ht="15.75" r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
@@ -6727,7 +6837,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75">
+    <row ht="15.75" r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
@@ -6742,7 +6852,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
@@ -6757,7 +6867,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75">
+    <row ht="15.75" r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>367</v>
       </c>
@@ -6772,147 +6882,147 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75">
+    <row ht="15.75" r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
       <c r="D23" s="21"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75">
+    <row ht="15.75" r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
       <c r="C24" s="20"/>
       <c r="D24" s="21"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75">
+    <row ht="15.75" r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
       <c r="C25" s="20"/>
       <c r="D25" s="21"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75">
+    <row ht="15.75" r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20"/>
       <c r="D26" s="21"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75">
+    <row ht="15.75" r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="20"/>
       <c r="D27" s="21"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75">
+    <row ht="15.75" r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="19"/>
       <c r="C28" s="20"/>
       <c r="D28" s="21"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75">
+    <row ht="15.75" r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="19"/>
       <c r="C29" s="20"/>
       <c r="D29" s="21"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75">
+    <row ht="15.75" r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="19"/>
       <c r="C30" s="20"/>
       <c r="D30" s="21"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75">
+    <row ht="15.75" r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="19"/>
       <c r="C31" s="20"/>
       <c r="D31" s="21"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75">
+    <row ht="15.75" r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="19"/>
       <c r="C32" s="20"/>
       <c r="D32" s="21"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75">
+    <row ht="15.75" r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="19"/>
       <c r="C33" s="20"/>
       <c r="D33" s="21"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75">
+    <row ht="15.75" r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="19"/>
       <c r="C34" s="20"/>
       <c r="D34" s="21"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75">
+    <row ht="15.75" r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="19"/>
       <c r="C35" s="20"/>
       <c r="D35" s="21"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75">
+    <row ht="15.75" r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
       <c r="D36" s="21"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75">
+    <row ht="15.75" r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="19"/>
       <c r="C37" s="20"/>
       <c r="D37" s="21"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75">
+    <row ht="15.75" r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
       <c r="D38" s="21"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75">
+    <row ht="15.75" r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
       <c r="D39" s="21"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75">
+    <row ht="15.75" r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="21"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75">
+    <row ht="15.75" r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="21"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -6925,36 +7035,36 @@
     <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="90.75"/>
+  <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="41" style="34" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="33.7109375" style="34" customWidth="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="34" customWidth="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="33.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -6989,7 +7099,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="116.25" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>271</v>
       </c>
@@ -7018,7 +7128,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="117.75" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>272</v>
       </c>
@@ -7047,7 +7157,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>273</v>
       </c>
@@ -7076,7 +7186,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="157.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="157.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>274</v>
       </c>
@@ -7105,7 +7215,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>275</v>
       </c>
@@ -7134,7 +7244,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="117" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="117" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>276</v>
       </c>
@@ -7163,7 +7273,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="107.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="107.25" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>277</v>
       </c>
@@ -7192,7 +7302,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="127.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="127.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>278</v>
       </c>
@@ -7221,7 +7331,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="124.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="124.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>279</v>
       </c>
@@ -7250,7 +7360,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>280</v>
       </c>
@@ -7279,7 +7389,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>296</v>
       </c>
@@ -7308,7 +7418,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="213.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="213.75" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>301</v>
       </c>
@@ -7337,7 +7447,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="151.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>309</v>
       </c>
@@ -7366,7 +7476,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="160.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="160.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>310</v>
       </c>
@@ -7395,7 +7505,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="151.5" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>322</v>
       </c>
@@ -7424,7 +7534,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="153.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="153.75" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>323</v>
       </c>
@@ -7453,7 +7563,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="155.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="155.25" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>324</v>
       </c>
@@ -7482,7 +7592,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -7495,7 +7605,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -7508,7 +7618,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -7521,7 +7631,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -7534,7 +7644,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -7547,7 +7657,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -7560,7 +7670,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -7573,7 +7683,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -7586,7 +7696,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -7599,7 +7709,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -7612,7 +7722,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -7626,36 +7736,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="90.75"/>
+  <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="41" style="34" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="33.7109375" style="34" customWidth="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="34" customWidth="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="33.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -7690,7 +7800,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="135" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="135" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>328</v>
       </c>
@@ -7719,7 +7829,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="135" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="135" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>329</v>
       </c>
@@ -7748,7 +7858,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>330</v>
       </c>
@@ -7777,7 +7887,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="157.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="157.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>331</v>
       </c>
@@ -7806,7 +7916,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="132.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="132.75" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>332</v>
       </c>
@@ -7835,7 +7945,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="150" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="150" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>333</v>
       </c>
@@ -7864,7 +7974,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="162.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="162.75" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>334</v>
       </c>
@@ -7893,7 +8003,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="153" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="153" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>335</v>
       </c>
@@ -7922,7 +8032,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="156.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="156.75" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>336</v>
       </c>
@@ -7951,7 +8061,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="159.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="159.75" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>337</v>
       </c>
@@ -7980,7 +8090,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -7993,7 +8103,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="213.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="213.75" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="44"/>
@@ -8006,7 +8116,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="151.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="44"/>
@@ -8019,7 +8129,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="160.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="160.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="44"/>
@@ -8032,7 +8142,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="151.5" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="44"/>
@@ -8045,7 +8155,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="153.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="153.75" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="44"/>
@@ -8058,7 +8168,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="155.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="155.25" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="44"/>
@@ -8071,7 +8181,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -8084,7 +8194,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -8097,7 +8207,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -8110,7 +8220,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -8123,7 +8233,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -8136,7 +8246,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -8149,7 +8259,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -8162,7 +8272,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -8175,7 +8285,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -8188,7 +8298,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -8201,7 +8311,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -8215,36 +8325,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="90.75"/>
+  <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="41" style="34" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="33.42578125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="34" customWidth="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="33.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -8279,7 +8389,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="153" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="153" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>373</v>
       </c>
@@ -8308,7 +8418,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="177" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="177" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>379</v>
       </c>
@@ -8335,7 +8445,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
       <c r="C4" s="44"/>
@@ -8348,7 +8458,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="157.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="157.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
       <c r="B5" s="32"/>
       <c r="C5" s="44"/>
@@ -8361,7 +8471,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="44"/>
@@ -8374,7 +8484,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="117" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="117" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="44"/>
@@ -8387,7 +8497,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="107.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="107.25" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="44"/>
@@ -8400,7 +8510,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="127.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="127.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="44"/>
@@ -8413,7 +8523,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="124.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="124.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="44"/>
@@ -8426,7 +8536,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="44"/>
@@ -8439,7 +8549,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -8452,7 +8562,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="213.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="213.75" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="44"/>
@@ -8465,7 +8575,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="151.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="44"/>
@@ -8478,7 +8588,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="160.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="160.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="44"/>
@@ -8491,7 +8601,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="151.5" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="44"/>
@@ -8504,7 +8614,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="153.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="153.75" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="44"/>
@@ -8517,7 +8627,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="155.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="155.25" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="44"/>
@@ -8530,7 +8640,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -8543,7 +8653,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -8556,7 +8666,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -8569,7 +8679,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -8582,7 +8692,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -8595,7 +8705,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -8608,7 +8718,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -8621,7 +8731,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -8634,7 +8744,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -8647,7 +8757,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -8660,7 +8770,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -8674,35 +8784,35 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="90.75"/>
+  <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="32.140625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1"/>
-    <col min="10" max="10" width="19" style="34" customWidth="1"/>
-    <col min="11" max="11" width="36.140625" style="34" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="40.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="32.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="36.140625" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -8737,7 +8847,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>224</v>
       </c>
@@ -8766,7 +8876,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>225</v>
       </c>
@@ -8795,7 +8905,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>226</v>
       </c>
@@ -8824,7 +8934,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>227</v>
       </c>
@@ -8853,7 +8963,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>228</v>
       </c>
@@ -8880,7 +8990,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="116.25" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>229</v>
       </c>
@@ -8909,7 +9019,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>246</v>
       </c>
@@ -8936,7 +9046,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="105.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="105.75" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>247</v>
       </c>
@@ -8963,7 +9073,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>248</v>
       </c>
@@ -8990,7 +9100,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>401</v>
       </c>
@@ -9017,7 +9127,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>402</v>
       </c>
@@ -9044,7 +9154,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -9057,7 +9167,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -9070,7 +9180,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="150.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="150.75" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -9083,7 +9193,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -9096,7 +9206,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
       <c r="B17" s="42"/>
       <c r="C17" s="32"/>
@@ -9109,7 +9219,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -9122,7 +9232,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -9135,7 +9245,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -9148,7 +9258,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -9161,7 +9271,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -9174,7 +9284,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -9187,7 +9297,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -9200,7 +9310,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -9213,7 +9323,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -9226,7 +9336,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -9239,7 +9349,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -9252,7 +9362,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -9267,40 +9377,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E9" location="Filter!A1" display="Filter!A1"/>
-    <hyperlink ref="E8" location="'Your Cart'!A1" display="'Your Cart'!A1"/>
-    <hyperlink ref="E6" location="Logout!A1" display="Logout!A1"/>
+    <hyperlink display="Filter!A1" location="Filter!A1" ref="E9"/>
+    <hyperlink display="'Your Cart'!A1" location="'Your Cart'!A1" ref="E8"/>
+    <hyperlink display="Logout!A1" location="Logout!A1" ref="E6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B19" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="90.75"/>
+  <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="32.140625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1"/>
-    <col min="10" max="10" width="19" style="34" customWidth="1"/>
-    <col min="11" max="11" width="55.42578125" style="34" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="40.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="32.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="55.42578125" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -9335,7 +9445,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>40</v>
       </c>
@@ -9366,7 +9476,7 @@
       </c>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>46</v>
       </c>
@@ -9397,7 +9507,7 @@
       </c>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>48</v>
       </c>
@@ -9428,7 +9538,7 @@
       </c>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>50</v>
       </c>
@@ -9459,7 +9569,7 @@
       </c>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>55</v>
       </c>
@@ -9490,7 +9600,7 @@
       </c>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>59</v>
       </c>
@@ -9521,7 +9631,7 @@
       </c>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>61</v>
       </c>
@@ -9552,7 +9662,7 @@
       </c>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="105.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="105.75" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>64</v>
       </c>
@@ -9583,7 +9693,7 @@
       </c>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="101.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="101.25" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>72</v>
       </c>
@@ -9614,7 +9724,7 @@
       </c>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>73</v>
       </c>
@@ -9645,7 +9755,7 @@
       </c>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="112.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="112.5" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>76</v>
       </c>
@@ -9676,7 +9786,7 @@
       </c>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="175.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="175.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>80</v>
       </c>
@@ -9707,7 +9817,7 @@
       </c>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>83</v>
       </c>
@@ -9738,7 +9848,7 @@
       </c>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="150.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="150.75" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>89</v>
       </c>
@@ -9769,7 +9879,7 @@
       </c>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>90</v>
       </c>
@@ -9800,7 +9910,7 @@
       </c>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>420</v>
       </c>
@@ -9831,7 +9941,7 @@
       </c>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>421</v>
       </c>
@@ -9862,7 +9972,7 @@
       </c>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="168" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="168" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>431</v>
       </c>
@@ -9893,7 +10003,7 @@
       </c>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>432</v>
       </c>
@@ -9922,7 +10032,7 @@
       <c r="J20" s="58"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -9935,7 +10045,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -9948,7 +10058,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -9961,7 +10071,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -9974,7 +10084,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -9987,7 +10097,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -10000,7 +10110,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -10013,7 +10123,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -10026,7 +10136,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -10040,36 +10150,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="90.75"/>
+  <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="61" customWidth="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="40.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="34.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="61" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -10104,7 +10214,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="120" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="120" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>100</v>
       </c>
@@ -10135,7 +10245,7 @@
       </c>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="138" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="138" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>101</v>
       </c>
@@ -10166,7 +10276,7 @@
       </c>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="136.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="136.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>102</v>
       </c>
@@ -10197,7 +10307,7 @@
       </c>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="156" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="156" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>103</v>
       </c>
@@ -10228,7 +10338,7 @@
       </c>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>104</v>
       </c>
@@ -10257,7 +10367,7 @@
       <c r="J6" s="58"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -10270,7 +10380,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -10283,7 +10393,7 @@
       <c r="J8" s="58"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -10296,7 +10406,7 @@
       <c r="J9" s="58"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -10309,7 +10419,7 @@
       <c r="J10" s="58"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -10322,7 +10432,7 @@
       <c r="J11" s="58"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -10335,7 +10445,7 @@
       <c r="J12" s="58"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -10348,7 +10458,7 @@
       <c r="J13" s="58"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -10361,7 +10471,7 @@
       <c r="J14" s="58"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -10374,7 +10484,7 @@
       <c r="J15" s="58"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -10387,7 +10497,7 @@
       <c r="J16" s="59"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -10400,7 +10510,7 @@
       <c r="J17" s="58"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -10413,7 +10523,7 @@
       <c r="J18" s="58"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -10426,7 +10536,7 @@
       <c r="J19" s="58"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -10439,7 +10549,7 @@
       <c r="J20" s="58"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -10452,7 +10562,7 @@
       <c r="J21" s="60"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -10465,7 +10575,7 @@
       <c r="J22" s="60"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -10478,7 +10588,7 @@
       <c r="J23" s="60"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -10491,7 +10601,7 @@
       <c r="J24" s="60"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -10504,7 +10614,7 @@
       <c r="J25" s="60"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -10517,7 +10627,7 @@
       <c r="J26" s="60"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -10530,7 +10640,7 @@
       <c r="J27" s="60"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -10543,7 +10653,7 @@
       <c r="J28" s="60"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -10557,36 +10667,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="90.75"/>
+  <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" style="34" customWidth="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="34" customWidth="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="40.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="32.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -10621,7 +10731,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="96.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="96.75" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>119</v>
       </c>
@@ -10652,7 +10762,7 @@
       </c>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="99" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="99" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>120</v>
       </c>
@@ -10683,7 +10793,7 @@
       </c>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="92.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="92.25" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>121</v>
       </c>
@@ -10714,7 +10824,7 @@
       </c>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="111.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="111.75" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>122</v>
       </c>
@@ -10745,7 +10855,7 @@
       </c>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="44"/>
@@ -10758,7 +10868,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -10771,7 +10881,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -10784,7 +10894,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -10797,7 +10907,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -10810,7 +10920,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -10823,7 +10933,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -10836,7 +10946,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -10849,7 +10959,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -10862,7 +10972,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -10875,7 +10985,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -10888,7 +10998,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -10901,7 +11011,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -10914,7 +11024,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -10927,7 +11037,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -10940,7 +11050,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -10953,7 +11063,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -10966,7 +11076,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -10979,7 +11089,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -10992,7 +11102,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -11005,7 +11115,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -11018,7 +11128,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -11031,7 +11141,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -11044,7 +11154,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -11058,35 +11168,35 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="40" zoomScaleNormal="40">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="90.75"/>
+  <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="34" customWidth="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="40.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="33.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -11121,7 +11231,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="96.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="96.75" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>135</v>
       </c>
@@ -11143,16 +11253,16 @@
       <c r="G2" s="35" t="s">
         <v>440</v>
       </c>
-      <c r="H2" s="32"/>
+      <c r="H2" s="67"/>
       <c r="I2" s="47">
         <v>0</v>
       </c>
-      <c r="J2" s="66" t="s">
+      <c r="J2" s="63" t="s">
         <v>439</v>
       </c>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="99" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="99" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>136</v>
       </c>
@@ -11178,10 +11288,12 @@
       <c r="I3" s="47">
         <v>0</v>
       </c>
-      <c r="J3" s="32"/>
+      <c r="J3" s="74" t="s">
+        <v>436</v>
+      </c>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="92.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="92.25" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>137</v>
       </c>
@@ -11210,7 +11322,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="115.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="115.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>139</v>
       </c>
@@ -11239,7 +11351,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="139.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="139.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>138</v>
       </c>
@@ -11268,11 +11380,11 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A7" s="32"/>
+    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="64"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
-      <c r="D7" s="41"/>
+      <c r="D7" s="65"/>
       <c r="E7" s="35"/>
       <c r="F7" s="40"/>
       <c r="G7" s="35"/>
@@ -11281,7 +11393,516 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="26.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="96.75" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="47">
+        <v>0</v>
+      </c>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="99" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="32"/>
+      <c r="I3" s="47">
+        <v>0</v>
+      </c>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="92.25" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="32"/>
+      <c r="I4" s="47">
+        <v>1</v>
+      </c>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="115.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5" s="32"/>
+      <c r="I5" s="47">
+        <v>0</v>
+      </c>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="103.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" s="32"/>
+      <c r="I6" s="47">
+        <v>1</v>
+      </c>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -11294,7 +11915,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -11307,7 +11928,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -11320,7 +11941,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -11333,7 +11954,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -11346,7 +11967,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -11359,7 +11980,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -11372,7 +11993,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -11385,7 +12006,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -11398,7 +12019,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -11411,7 +12032,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -11424,7 +12045,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -11437,7 +12058,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -11450,7 +12071,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -11463,7 +12084,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -11476,7 +12097,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -11489,7 +12110,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -11502,7 +12123,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -11515,7 +12136,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -11528,7 +12149,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -11541,7 +12162,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -11554,7 +12175,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -11568,36 +12189,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="90.75"/>
+  <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="41" style="34" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" style="34" customWidth="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="34" customWidth="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="30.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -11632,27 +12253,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="96.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="116.25" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="46" t="s">
-        <v>163</v>
+      <c r="G2" s="35" t="s">
+        <v>185</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -11661,27 +12282,27 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="99" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="117.75" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -11690,27 +12311,27 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="92.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -11719,56 +12340,56 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="115.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="142.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
@@ -11777,7 +12398,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="44"/>
@@ -11790,7 +12411,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -11803,7 +12424,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -11816,7 +12437,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -11829,7 +12450,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -11842,7 +12463,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -11855,7 +12476,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -11868,7 +12489,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -11881,7 +12502,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -11894,7 +12515,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -11907,7 +12528,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -11920,7 +12541,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -11933,7 +12554,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -11946,7 +12567,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -11959,7 +12580,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -11972,7 +12593,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -11985,7 +12606,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -11998,7 +12619,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -12011,7 +12632,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -12024,7 +12645,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -12037,7 +12658,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -12050,7 +12671,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -12063,7 +12684,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -12077,36 +12698,34 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="90.75"/>
+  <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="41" style="34" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="30.5703125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="34" customWidth="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="32.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -12141,27 +12760,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="116.25" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>182</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -12170,56 +12789,56 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="117.75" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>182</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -12228,91 +12847,107 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="142.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="142.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="35"/>
+    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>223</v>
+      </c>
       <c r="H7" s="32"/>
-      <c r="I7" s="47"/>
+      <c r="I7" s="47">
+        <v>2</v>
+      </c>
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
       <c r="D8" s="41"/>
       <c r="E8" s="35"/>
-      <c r="F8" s="40"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="35"/>
       <c r="H8" s="32"/>
       <c r="I8" s="47"/>
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -12325,7 +12960,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -12338,7 +12973,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -12351,7 +12986,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -12364,7 +12999,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -12377,7 +13012,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -12390,7 +13025,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -12403,7 +13038,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -12416,7 +13051,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -12429,7 +13064,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -12442,7 +13077,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -12455,7 +13090,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -12468,7 +13103,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -12481,7 +13116,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -12494,7 +13129,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -12507,7 +13142,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -12520,7 +13155,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -12533,7 +13168,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -12546,7 +13181,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -12559,7 +13194,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -12572,7 +13207,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -12586,34 +13221,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="40" zoomScaleNormal="40">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="90.75"/>
+  <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="41" style="34" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="32.42578125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="34" customWidth="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="31.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -12648,27 +13285,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="116.25" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -12677,56 +13314,56 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="117.75" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>207</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -12735,85 +13372,85 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="142.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="142.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="47">
@@ -12822,46 +13459,94 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="35"/>
+    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>123</v>
+      </c>
       <c r="H8" s="32"/>
-      <c r="I8" s="47"/>
+      <c r="I8" s="47">
+        <v>3</v>
+      </c>
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="35"/>
+    <row customFormat="1" customHeight="1" ht="127.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>185</v>
+      </c>
       <c r="H9" s="32"/>
-      <c r="I9" s="47"/>
+      <c r="I9" s="47">
+        <v>3</v>
+      </c>
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="41"/>
+    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>206</v>
+      </c>
       <c r="H10" s="32"/>
-      <c r="I10" s="47"/>
+      <c r="I10" s="47">
+        <v>1</v>
+      </c>
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -12874,7 +13559,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -12887,7 +13572,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -12900,7 +13585,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -12913,7 +13598,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -12926,7 +13611,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -12939,7 +13624,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -12952,7 +13637,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -12965,7 +13650,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -12978,7 +13663,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -12991,7 +13676,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -13004,7 +13689,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -13017,7 +13702,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -13030,7 +13715,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -13043,7 +13728,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -13056,7 +13741,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -13069,7 +13754,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -13082,7 +13767,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -13095,7 +13780,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -13109,580 +13794,7 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
-  <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="90.75"/>
-  <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="41" style="34" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="34" customWidth="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="34"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A1" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1">
-      <c r="A2" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="47">
-        <v>0</v>
-      </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-    </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1">
-      <c r="A3" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>234</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="47">
-        <v>1</v>
-      </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-    </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1">
-      <c r="A4" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="47">
-        <v>1</v>
-      </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-    </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="142.5" customHeight="1">
-      <c r="A5" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="47">
-        <v>2</v>
-      </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-    </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1">
-      <c r="A6" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="47">
-        <v>2</v>
-      </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-    </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A7" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="47">
-        <v>2</v>
-      </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-    </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A8" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="47">
-        <v>3</v>
-      </c>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-    </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="127.5" customHeight="1">
-      <c r="A9" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>251</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="47">
-        <v>3</v>
-      </c>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-    </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A10" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="47">
-        <v>1</v>
-      </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-    </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-    </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-    </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-    </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-    </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-    </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-    </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-    </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-    </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-    </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-    </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-    </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-    </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-    </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-    </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-    </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-    </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-    </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-    </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/manual/Swag Labs-Test Scenarios.xlsx
+++ b/src/test/manual/Swag Labs-Test Scenarios.xlsx
@@ -1,34 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\shelf1\Swag Labs\automation\Swag Labs\SwagLabs\src\test\manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="4" tabRatio="670" windowHeight="3765" windowWidth="10215" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="3765" tabRatio="670" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Scenarios" r:id="rId1" sheetId="1"/>
-    <sheet name="Login" r:id="rId2" sheetId="2"/>
-    <sheet name="Logout" r:id="rId3" sheetId="3"/>
-    <sheet name="Filter" r:id="rId4" sheetId="4"/>
-    <sheet name="All Items" r:id="rId5" sheetId="5"/>
-    <sheet name="Product Display" r:id="rId6" sheetId="6"/>
-    <sheet name="Add to Cart" r:id="rId7" sheetId="7"/>
-    <sheet name="Your Cart" r:id="rId8" sheetId="8"/>
-    <sheet name="Home" r:id="rId9" sheetId="9"/>
-    <sheet name="Checkout" r:id="rId10" sheetId="10"/>
-    <sheet name="Overview" r:id="rId11" sheetId="12"/>
-    <sheet name="Compleate" r:id="rId12" sheetId="11"/>
-    <sheet name="Heder,Footer" r:id="rId13" sheetId="13"/>
+    <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Logout" sheetId="3" r:id="rId3"/>
+    <sheet name="Filter" sheetId="4" r:id="rId4"/>
+    <sheet name="All Items" sheetId="5" r:id="rId5"/>
+    <sheet name="Product Display" sheetId="6" r:id="rId6"/>
+    <sheet name="Add to Cart" sheetId="7" r:id="rId7"/>
+    <sheet name="Your Cart" sheetId="8" r:id="rId8"/>
+    <sheet name="Home" sheetId="9" r:id="rId9"/>
+    <sheet name="Checkout" sheetId="10" r:id="rId10"/>
+    <sheet name="Overview" sheetId="12" r:id="rId11"/>
+    <sheet name="Compleate" sheetId="11" r:id="rId12"/>
+    <sheet name="Heder,Footer" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="443">
   <si>
     <t>Project Name</t>
   </si>
@@ -5589,17 +5589,23 @@
     <t>Validate the Logout functionality in all the supported environments</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>1. Home (All Products) page should be opened.                     2. Menu bar should be closed.</t>
+    <t>Test Case passed successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product page has successfully opened
+~Menu bar should be closed, "All Item" button shouldn't be clickable: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home (All Products) page should be opened.                     </t>
+  </si>
+  <si>
+    <t>Menu bar should be closed.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5837,59 +5843,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="72"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="18"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="72"/>
       <color indexed="18"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="72"/>
-      <color indexed="18"/>
-      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="72"/>
       <color indexed="58"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="72"/>
       <color indexed="58"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="72"/>
       <color indexed="58"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
-      <sz val="72.0"/>
-      <color indexed="16"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="72.0"/>
-      <color indexed="16"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="72.0"/>
-      <color indexed="16"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5926,14 +5947,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9393"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="57"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="57"/>
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -5941,32 +5961,8 @@
         <fgColor indexed="42"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -6078,242 +6074,288 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="22" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="25" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="76">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="4" numFmtId="14" xfId="0">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="4" numFmtId="14" xfId="0">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="7" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="8" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="2" fontId="8" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="8" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="12" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="12" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="9" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="9" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="11" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="17" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="18" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="19" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="20" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="20" numFmtId="0" quotePrefix="1" xfId="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="21" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="4" fontId="26" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="5" fontId="27" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="28" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="28" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="29" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="6" fontId="31" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="7" fontId="32" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="8" fontId="33" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="34" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="35" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="36" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="9" fontId="37" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="11" fontId="38" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="13" fontId="39" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle builtinId="27" name="Bad" xfId="3"/>
-    <cellStyle builtinId="26" name="Good" xfId="2"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
       <color rgb="FFFF9393"/>
@@ -6337,10 +6379,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -6375,7 +6417,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -6410,7 +6452,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -6504,21 +6546,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -6535,7 +6577,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -6587,28 +6629,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0" zoomScale="175" zoomScaleNormal="175">
+    <sheetView topLeftCell="B10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="77.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="23.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="24.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="77" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6622,10 +6664,10 @@
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="74"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
@@ -6655,10 +6697,10 @@
       <c r="A5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="70"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
@@ -6702,7 +6744,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row ht="15.75" r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
@@ -6717,7 +6759,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row ht="15.75" r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -6732,7 +6774,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row ht="15.75" r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -6747,7 +6789,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row ht="15.75" r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -6762,7 +6804,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row customHeight="1" ht="16.5" r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -6777,7 +6819,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row ht="15.75" r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -6792,7 +6834,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row ht="15.75" r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -6807,7 +6849,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row ht="15.75" r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -6822,7 +6864,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row ht="15.75" r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
@@ -6837,7 +6879,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row ht="15.75" r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
@@ -6852,7 +6894,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row customHeight="1" ht="16.5" r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
@@ -6867,7 +6909,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row ht="15.75" r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>367</v>
       </c>
@@ -6882,133 +6924,133 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row ht="15.75" r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
       <c r="D23" s="21"/>
       <c r="E23" s="2"/>
     </row>
-    <row ht="15.75" r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
       <c r="C24" s="20"/>
       <c r="D24" s="21"/>
       <c r="E24" s="2"/>
     </row>
-    <row ht="15.75" r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
       <c r="C25" s="20"/>
       <c r="D25" s="21"/>
       <c r="E25" s="2"/>
     </row>
-    <row ht="15.75" r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20"/>
       <c r="D26" s="21"/>
       <c r="E26" s="2"/>
     </row>
-    <row ht="15.75" r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="20"/>
       <c r="D27" s="21"/>
       <c r="E27" s="2"/>
     </row>
-    <row ht="15.75" r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="19"/>
       <c r="C28" s="20"/>
       <c r="D28" s="21"/>
       <c r="E28" s="2"/>
     </row>
-    <row ht="15.75" r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="19"/>
       <c r="C29" s="20"/>
       <c r="D29" s="21"/>
       <c r="E29" s="2"/>
     </row>
-    <row ht="15.75" r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="19"/>
       <c r="C30" s="20"/>
       <c r="D30" s="21"/>
       <c r="E30" s="2"/>
     </row>
-    <row ht="15.75" r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="19"/>
       <c r="C31" s="20"/>
       <c r="D31" s="21"/>
       <c r="E31" s="2"/>
     </row>
-    <row ht="15.75" r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="19"/>
       <c r="C32" s="20"/>
       <c r="D32" s="21"/>
       <c r="E32" s="2"/>
     </row>
-    <row ht="15.75" r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="19"/>
       <c r="C33" s="20"/>
       <c r="D33" s="21"/>
       <c r="E33" s="2"/>
     </row>
-    <row ht="15.75" r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="19"/>
       <c r="C34" s="20"/>
       <c r="D34" s="21"/>
       <c r="E34" s="2"/>
     </row>
-    <row ht="15.75" r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="19"/>
       <c r="C35" s="20"/>
       <c r="D35" s="21"/>
       <c r="E35" s="2"/>
     </row>
-    <row ht="15.75" r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
       <c r="D36" s="21"/>
       <c r="E36" s="2"/>
     </row>
-    <row ht="15.75" r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="19"/>
       <c r="C37" s="20"/>
       <c r="D37" s="21"/>
       <c r="E37" s="2"/>
     </row>
-    <row ht="15.75" r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
       <c r="D38" s="21"/>
       <c r="E38" s="2"/>
     </row>
-    <row ht="15.75" r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
       <c r="D39" s="21"/>
       <c r="E39" s="2"/>
     </row>
-    <row ht="15.75" r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="21"/>
       <c r="E40" s="2"/>
     </row>
-    <row ht="15.75" r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
@@ -7035,36 +7077,36 @@
     <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="34" width="33.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
-    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="33.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -7099,7 +7141,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="116.25" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>271</v>
       </c>
@@ -7128,7 +7170,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="117.75" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>272</v>
       </c>
@@ -7157,7 +7199,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>273</v>
       </c>
@@ -7186,7 +7228,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="157.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>274</v>
       </c>
@@ -7215,7 +7257,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>275</v>
       </c>
@@ -7244,7 +7286,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="117" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>276</v>
       </c>
@@ -7273,7 +7315,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="107.25" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>277</v>
       </c>
@@ -7302,7 +7344,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="127.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>278</v>
       </c>
@@ -7331,7 +7373,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="124.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>279</v>
       </c>
@@ -7360,7 +7402,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>280</v>
       </c>
@@ -7389,7 +7431,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>296</v>
       </c>
@@ -7418,7 +7460,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="213.75" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>301</v>
       </c>
@@ -7447,7 +7489,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="151.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>309</v>
       </c>
@@ -7476,7 +7518,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="160.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>310</v>
       </c>
@@ -7505,7 +7547,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="151.5" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>322</v>
       </c>
@@ -7534,7 +7576,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="153.75" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>323</v>
       </c>
@@ -7563,7 +7605,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="155.25" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>324</v>
       </c>
@@ -7592,7 +7634,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -7605,7 +7647,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -7618,7 +7660,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -7631,7 +7673,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -7644,7 +7686,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -7657,7 +7699,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -7670,7 +7712,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -7683,7 +7725,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -7696,7 +7738,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -7709,7 +7751,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -7722,7 +7764,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -7736,36 +7778,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="34" width="33.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
-    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="33.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -7800,7 +7842,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="135" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>328</v>
       </c>
@@ -7829,7 +7871,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="135" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>329</v>
       </c>
@@ -7858,7 +7900,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>330</v>
       </c>
@@ -7887,7 +7929,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="157.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>331</v>
       </c>
@@ -7916,7 +7958,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="132.75" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>332</v>
       </c>
@@ -7945,7 +7987,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="150" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>333</v>
       </c>
@@ -7974,7 +8016,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="162.75" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>334</v>
       </c>
@@ -8003,7 +8045,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="153" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>335</v>
       </c>
@@ -8032,7 +8074,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="156.75" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>336</v>
       </c>
@@ -8061,7 +8103,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="159.75" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>337</v>
       </c>
@@ -8090,7 +8132,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -8103,7 +8145,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="213.75" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="44"/>
@@ -8116,7 +8158,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="151.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="44"/>
@@ -8129,7 +8171,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="160.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="44"/>
@@ -8142,7 +8184,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="151.5" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="44"/>
@@ -8155,7 +8197,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="153.75" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="44"/>
@@ -8168,7 +8210,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="155.25" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="44"/>
@@ -8181,7 +8223,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -8194,7 +8236,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -8207,7 +8249,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -8220,7 +8262,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -8233,7 +8275,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -8246,7 +8288,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -8259,7 +8301,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -8272,7 +8314,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -8285,7 +8327,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -8298,7 +8340,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -8311,7 +8353,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -8325,36 +8367,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="34" width="33.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
-    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="33.42578125" style="34" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -8389,7 +8431,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="153" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>373</v>
       </c>
@@ -8418,7 +8460,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="177" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>379</v>
       </c>
@@ -8445,7 +8487,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
       <c r="C4" s="44"/>
@@ -8458,7 +8500,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="157.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
       <c r="B5" s="32"/>
       <c r="C5" s="44"/>
@@ -8471,7 +8513,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="44"/>
@@ -8484,7 +8526,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="117" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="44"/>
@@ -8497,7 +8539,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="107.25" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="44"/>
@@ -8510,7 +8552,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="127.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="44"/>
@@ -8523,7 +8565,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="124.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="44"/>
@@ -8536,7 +8578,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="44"/>
@@ -8549,7 +8591,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -8562,7 +8604,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="213.75" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="44"/>
@@ -8575,7 +8617,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="151.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="44"/>
@@ -8588,7 +8630,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="160.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="44"/>
@@ -8601,7 +8643,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="151.5" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="44"/>
@@ -8614,7 +8656,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="153.75" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="44"/>
@@ -8627,7 +8669,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="155.25" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="44"/>
@@ -8640,7 +8682,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -8653,7 +8695,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -8666,7 +8708,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -8679,7 +8721,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -8692,7 +8734,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -8705,7 +8747,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -8718,7 +8760,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -8731,7 +8773,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -8744,7 +8786,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -8757,7 +8799,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -8770,7 +8812,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -8784,35 +8826,35 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="34" width="40.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="34" width="32.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="34" width="19.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="34" width="36.140625" collapsed="true"/>
-    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="40.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="32.140625" style="34" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19" style="34" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="36.140625" style="34" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -8847,7 +8889,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>224</v>
       </c>
@@ -8876,7 +8918,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>225</v>
       </c>
@@ -8905,7 +8947,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>226</v>
       </c>
@@ -8934,7 +8976,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>227</v>
       </c>
@@ -8963,7 +9005,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>228</v>
       </c>
@@ -8990,7 +9032,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="116.25" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>229</v>
       </c>
@@ -9019,7 +9061,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>246</v>
       </c>
@@ -9046,7 +9088,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="105.75" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>247</v>
       </c>
@@ -9073,7 +9115,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>248</v>
       </c>
@@ -9100,7 +9142,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>401</v>
       </c>
@@ -9127,7 +9169,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>402</v>
       </c>
@@ -9154,7 +9196,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -9167,7 +9209,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -9180,7 +9222,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="150.75" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -9193,7 +9235,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -9206,7 +9248,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
       <c r="B17" s="42"/>
       <c r="C17" s="32"/>
@@ -9219,7 +9261,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -9232,7 +9274,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -9245,7 +9287,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -9258,7 +9300,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -9271,7 +9313,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -9284,7 +9326,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -9297,7 +9339,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -9310,7 +9352,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -9323,7 +9365,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -9336,7 +9378,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -9349,7 +9391,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -9362,7 +9404,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -9377,40 +9419,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="Filter!A1" location="Filter!A1" ref="E9"/>
-    <hyperlink display="'Your Cart'!A1" location="'Your Cart'!A1" ref="E8"/>
-    <hyperlink display="Logout!A1" location="Logout!A1" ref="E6"/>
+    <hyperlink ref="E9" location="Filter!A1" display="Filter!A1"/>
+    <hyperlink ref="E8" location="'Your Cart'!A1" display="'Your Cart'!A1"/>
+    <hyperlink ref="E6" location="Logout!A1" display="Logout!A1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView topLeftCell="B19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="34" width="40.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="34" width="32.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="34" width="19.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="34" width="55.42578125" collapsed="true"/>
-    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="40.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="32.140625" style="34" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19" style="34" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="55.42578125" style="34" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -9445,7 +9487,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>40</v>
       </c>
@@ -9476,7 +9518,7 @@
       </c>
       <c r="K2" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>46</v>
       </c>
@@ -9507,7 +9549,7 @@
       </c>
       <c r="K3" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>48</v>
       </c>
@@ -9538,7 +9580,7 @@
       </c>
       <c r="K4" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>50</v>
       </c>
@@ -9569,7 +9611,7 @@
       </c>
       <c r="K5" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>55</v>
       </c>
@@ -9600,7 +9642,7 @@
       </c>
       <c r="K6" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>59</v>
       </c>
@@ -9631,7 +9673,7 @@
       </c>
       <c r="K7" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>61</v>
       </c>
@@ -9662,7 +9704,7 @@
       </c>
       <c r="K8" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="105.75" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>64</v>
       </c>
@@ -9693,7 +9735,7 @@
       </c>
       <c r="K9" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="101.25" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>72</v>
       </c>
@@ -9724,7 +9766,7 @@
       </c>
       <c r="K10" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>73</v>
       </c>
@@ -9755,7 +9797,7 @@
       </c>
       <c r="K11" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="112.5" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>76</v>
       </c>
@@ -9786,7 +9828,7 @@
       </c>
       <c r="K12" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="175.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>80</v>
       </c>
@@ -9817,7 +9859,7 @@
       </c>
       <c r="K13" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>83</v>
       </c>
@@ -9848,7 +9890,7 @@
       </c>
       <c r="K14" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="150.75" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>89</v>
       </c>
@@ -9879,7 +9921,7 @@
       </c>
       <c r="K15" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>90</v>
       </c>
@@ -9910,7 +9952,7 @@
       </c>
       <c r="K16" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>420</v>
       </c>
@@ -9941,7 +9983,7 @@
       </c>
       <c r="K17" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>421</v>
       </c>
@@ -9972,7 +10014,7 @@
       </c>
       <c r="K18" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="168" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>431</v>
       </c>
@@ -10003,7 +10045,7 @@
       </c>
       <c r="K19" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>432</v>
       </c>
@@ -10032,7 +10074,7 @@
       <c r="J20" s="58"/>
       <c r="K20" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -10045,7 +10087,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -10058,7 +10100,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -10071,7 +10113,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -10084,7 +10126,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -10097,7 +10139,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -10110,7 +10152,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -10123,7 +10165,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -10136,7 +10178,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -10150,36 +10192,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="34" width="40.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="34" width="34.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="61" width="19.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
-    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="40.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.5703125" style="61" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -10214,7 +10256,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="120" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>100</v>
       </c>
@@ -10245,7 +10287,7 @@
       </c>
       <c r="K2" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="138" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>101</v>
       </c>
@@ -10276,7 +10318,7 @@
       </c>
       <c r="K3" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="136.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>102</v>
       </c>
@@ -10307,7 +10349,7 @@
       </c>
       <c r="K4" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="156" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>103</v>
       </c>
@@ -10338,7 +10380,7 @@
       </c>
       <c r="K5" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>104</v>
       </c>
@@ -10367,7 +10409,7 @@
       <c r="J6" s="58"/>
       <c r="K6" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -10380,7 +10422,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -10393,7 +10435,7 @@
       <c r="J8" s="58"/>
       <c r="K8" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -10406,7 +10448,7 @@
       <c r="J9" s="58"/>
       <c r="K9" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -10419,7 +10461,7 @@
       <c r="J10" s="58"/>
       <c r="K10" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -10432,7 +10474,7 @@
       <c r="J11" s="58"/>
       <c r="K11" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -10445,7 +10487,7 @@
       <c r="J12" s="58"/>
       <c r="K12" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -10458,7 +10500,7 @@
       <c r="J13" s="58"/>
       <c r="K13" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -10471,7 +10513,7 @@
       <c r="J14" s="58"/>
       <c r="K14" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -10484,7 +10526,7 @@
       <c r="J15" s="58"/>
       <c r="K15" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -10497,7 +10539,7 @@
       <c r="J16" s="59"/>
       <c r="K16" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -10510,7 +10552,7 @@
       <c r="J17" s="58"/>
       <c r="K17" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -10523,7 +10565,7 @@
       <c r="J18" s="58"/>
       <c r="K18" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -10536,7 +10578,7 @@
       <c r="J19" s="58"/>
       <c r="K19" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -10549,7 +10591,7 @@
       <c r="J20" s="58"/>
       <c r="K20" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -10562,7 +10604,7 @@
       <c r="J21" s="60"/>
       <c r="K21" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -10575,7 +10617,7 @@
       <c r="J22" s="60"/>
       <c r="K22" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -10588,7 +10630,7 @@
       <c r="J23" s="60"/>
       <c r="K23" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -10601,7 +10643,7 @@
       <c r="J24" s="60"/>
       <c r="K24" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -10614,7 +10656,7 @@
       <c r="J25" s="60"/>
       <c r="K25" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -10627,7 +10669,7 @@
       <c r="J26" s="60"/>
       <c r="K26" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -10640,7 +10682,7 @@
       <c r="J27" s="60"/>
       <c r="K27" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -10653,7 +10695,7 @@
       <c r="J28" s="60"/>
       <c r="K28" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -10667,36 +10709,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="34" width="40.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="34" width="32.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
-    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="40.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="32.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -10731,7 +10773,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="96.75" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>119</v>
       </c>
@@ -10762,7 +10804,7 @@
       </c>
       <c r="K2" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="99" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>120</v>
       </c>
@@ -10793,7 +10835,7 @@
       </c>
       <c r="K3" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="92.25" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>121</v>
       </c>
@@ -10824,7 +10866,7 @@
       </c>
       <c r="K4" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="111.75" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>122</v>
       </c>
@@ -10855,7 +10897,7 @@
       </c>
       <c r="K5" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="44"/>
@@ -10868,7 +10910,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -10881,7 +10923,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -10894,7 +10936,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -10907,7 +10949,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -10920,7 +10962,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -10933,7 +10975,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -10946,7 +10988,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -10959,7 +11001,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -10972,7 +11014,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -10985,7 +11027,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -10998,7 +11040,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -11011,7 +11053,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -11024,7 +11066,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -11037,7 +11079,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -11050,7 +11092,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -11063,7 +11105,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -11076,7 +11118,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -11089,7 +11131,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -11102,7 +11144,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -11115,7 +11157,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -11128,7 +11170,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -11141,7 +11183,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -11154,7 +11196,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -11168,35 +11210,35 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="40" zoomScaleNormal="40">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="34" width="40.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="34" width="33.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
-    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="40.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="33.28515625" style="34" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -11231,7 +11273,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="96.75" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>135</v>
       </c>
@@ -11251,18 +11293,20 @@
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>440</v>
-      </c>
-      <c r="H2" s="67"/>
+        <v>441</v>
+      </c>
+      <c r="H2" s="66"/>
       <c r="I2" s="47">
         <v>0</v>
       </c>
-      <c r="J2" s="63" t="s">
-        <v>439</v>
-      </c>
-      <c r="K2" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="99" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="69" t="s">
+        <v>436</v>
+      </c>
+      <c r="K2" s="70" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>136</v>
       </c>
@@ -11285,15 +11329,17 @@
         <v>141</v>
       </c>
       <c r="H3" s="32"/>
-      <c r="I3" s="47">
+      <c r="I3" s="68">
         <v>0</v>
       </c>
-      <c r="J3" s="74" t="s">
-        <v>436</v>
-      </c>
-      <c r="K3" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="92.25" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" s="71" t="s">
+        <v>437</v>
+      </c>
+      <c r="K3" s="72" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>137</v>
       </c>
@@ -11322,7 +11368,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="115.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>139</v>
       </c>
@@ -11351,7 +11397,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="139.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>138</v>
       </c>
@@ -11380,22 +11426,26 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="63"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
-      <c r="D7" s="65"/>
+      <c r="D7" s="64"/>
       <c r="E7" s="35"/>
       <c r="F7" s="40"/>
-      <c r="G7" s="35"/>
+      <c r="G7" s="35" t="s">
+        <v>442</v>
+      </c>
       <c r="H7" s="32"/>
-      <c r="I7" s="47"/>
+      <c r="I7" s="47">
+        <v>1</v>
+      </c>
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
-      <c r="B8" s="66"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="32"/>
       <c r="D8" s="41"/>
       <c r="E8" s="35"/>
@@ -11406,7 +11456,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -11419,7 +11469,516 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+    </row>
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+    </row>
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+    </row>
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+    </row>
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+    </row>
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+    </row>
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+    </row>
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+    </row>
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+    </row>
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+    </row>
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+    </row>
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+    </row>
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+    </row>
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+    </row>
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+    </row>
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+    </row>
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+    </row>
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+    </row>
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+    </row>
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="47">
+        <v>0</v>
+      </c>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+    </row>
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="32"/>
+      <c r="I3" s="47">
+        <v>0</v>
+      </c>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+    </row>
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="32"/>
+      <c r="I4" s="47">
+        <v>1</v>
+      </c>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+    </row>
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5" s="32"/>
+      <c r="I5" s="47">
+        <v>0</v>
+      </c>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+    </row>
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" s="32"/>
+      <c r="I6" s="47">
+        <v>1</v>
+      </c>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+    </row>
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+    </row>
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+    </row>
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+    </row>
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -11432,7 +11991,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -11445,7 +12004,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -11458,7 +12017,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -11471,7 +12030,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -11484,7 +12043,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -11497,7 +12056,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -11510,7 +12069,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -11523,7 +12082,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -11536,7 +12095,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -11549,7 +12108,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -11562,7 +12121,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -11575,7 +12134,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -11588,7 +12147,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -11601,7 +12160,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -11614,7 +12173,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -11627,7 +12186,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -11640,7 +12199,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -11653,7 +12212,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -11666,7 +12225,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -11680,36 +12239,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="34" width="26.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
-    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -11744,27 +12303,27 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="96.75" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="46" t="s">
-        <v>163</v>
+      <c r="G2" s="35" t="s">
+        <v>185</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -11773,27 +12332,27 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="99" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -11802,27 +12361,27 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="92.25" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -11831,56 +12390,56 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="115.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
@@ -11889,7 +12448,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="44"/>
@@ -11902,7 +12461,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -11915,7 +12474,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -11928,7 +12487,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -11941,7 +12500,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -11954,7 +12513,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -11967,7 +12526,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -11980,7 +12539,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -11993,7 +12552,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -12006,7 +12565,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -12019,7 +12578,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -12032,7 +12591,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -12045,7 +12604,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -12058,7 +12617,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -12071,7 +12630,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -12084,7 +12643,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -12097,7 +12656,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -12110,7 +12669,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -12123,7 +12682,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -12136,7 +12695,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -12149,7 +12708,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -12162,7 +12721,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -12175,7 +12734,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -12189,36 +12748,34 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="34" width="30.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
-    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="32.42578125" style="34" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -12253,27 +12810,27 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="116.25" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>182</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -12282,56 +12839,56 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="117.75" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>182</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -12340,91 +12897,107 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="142.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="35"/>
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>223</v>
+      </c>
       <c r="H7" s="32"/>
-      <c r="I7" s="47"/>
+      <c r="I7" s="47">
+        <v>2</v>
+      </c>
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
       <c r="D8" s="41"/>
       <c r="E8" s="35"/>
-      <c r="F8" s="40"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="35"/>
       <c r="H8" s="32"/>
       <c r="I8" s="47"/>
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -12437,7 +13010,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -12450,7 +13023,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -12463,7 +13036,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -12476,7 +13049,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -12489,7 +13062,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -12502,7 +13075,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -12515,7 +13088,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -12528,7 +13101,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -12541,7 +13114,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -12554,7 +13127,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -12567,7 +13140,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -12580,7 +13153,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -12593,7 +13166,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -12606,7 +13179,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -12619,7 +13192,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -12632,7 +13205,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -12645,7 +13218,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -12658,7 +13231,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -12671,7 +13244,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -12684,7 +13257,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -12698,34 +13271,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="34" width="32.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
-    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="31.28515625" style="34" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -12760,27 +13335,27 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="116.25" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -12789,56 +13364,56 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="117.75" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>207</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -12847,85 +13422,85 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="142.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="47">
@@ -12934,46 +13509,94 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="35"/>
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>123</v>
+      </c>
       <c r="H8" s="32"/>
-      <c r="I8" s="47"/>
+      <c r="I8" s="47">
+        <v>3</v>
+      </c>
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="35"/>
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>185</v>
+      </c>
       <c r="H9" s="32"/>
-      <c r="I9" s="47"/>
+      <c r="I9" s="47">
+        <v>3</v>
+      </c>
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="41"/>
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>206</v>
+      </c>
       <c r="H10" s="32"/>
-      <c r="I10" s="47"/>
+      <c r="I10" s="47">
+        <v>1</v>
+      </c>
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -12986,7 +13609,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -12999,7 +13622,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -13012,7 +13635,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -13025,7 +13648,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -13038,7 +13661,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -13051,7 +13674,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -13064,7 +13687,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -13077,7 +13700,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -13090,7 +13713,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -13103,7 +13726,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -13116,7 +13739,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -13129,7 +13752,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -13142,7 +13765,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -13155,7 +13778,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -13168,7 +13791,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -13181,7 +13804,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -13194,7 +13817,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -13207,7 +13830,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -13221,580 +13844,7 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="40" zoomScaleNormal="40">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="34" width="31.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
-    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="116.25" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="47">
-        <v>0</v>
-      </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="117.75" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>234</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="47">
-        <v>1</v>
-      </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="47">
-        <v>1</v>
-      </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="142.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="47">
-        <v>2</v>
-      </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="47">
-        <v>2</v>
-      </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="47">
-        <v>2</v>
-      </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="47">
-        <v>3</v>
-      </c>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="127.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>251</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="47">
-        <v>3</v>
-      </c>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="47">
-        <v>1</v>
-      </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/manual/Swag Labs-Test Scenarios.xlsx
+++ b/src/test/manual/Swag Labs-Test Scenarios.xlsx
@@ -1,34 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\shelf1\Swag Labs\automation\Swag Labs\SwagLabs\src\test\manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="3765" tabRatio="670" activeTab="4"/>
+    <workbookView activeTab="4" tabRatio="670" windowHeight="3765" windowWidth="10215" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
-    <sheet name="Login" sheetId="2" r:id="rId2"/>
-    <sheet name="Logout" sheetId="3" r:id="rId3"/>
-    <sheet name="Filter" sheetId="4" r:id="rId4"/>
-    <sheet name="All Items" sheetId="5" r:id="rId5"/>
-    <sheet name="Product Display" sheetId="6" r:id="rId6"/>
-    <sheet name="Add to Cart" sheetId="7" r:id="rId7"/>
-    <sheet name="Your Cart" sheetId="8" r:id="rId8"/>
-    <sheet name="Home" sheetId="9" r:id="rId9"/>
-    <sheet name="Checkout" sheetId="10" r:id="rId10"/>
-    <sheet name="Overview" sheetId="12" r:id="rId11"/>
-    <sheet name="Compleate" sheetId="11" r:id="rId12"/>
-    <sheet name="Heder,Footer" sheetId="13" r:id="rId13"/>
+    <sheet name="Test Scenarios" r:id="rId1" sheetId="1"/>
+    <sheet name="Login" r:id="rId2" sheetId="2"/>
+    <sheet name="Logout" r:id="rId3" sheetId="3"/>
+    <sheet name="Filter" r:id="rId4" sheetId="4"/>
+    <sheet name="All Items" r:id="rId5" sheetId="5"/>
+    <sheet name="Product Display" r:id="rId6" sheetId="6"/>
+    <sheet name="Add to Cart" r:id="rId7" sheetId="7"/>
+    <sheet name="Your Cart" r:id="rId8" sheetId="8"/>
+    <sheet name="Home" r:id="rId9" sheetId="9"/>
+    <sheet name="Checkout" r:id="rId10" sheetId="10"/>
+    <sheet name="Overview" r:id="rId11" sheetId="12"/>
+    <sheet name="Compleate" r:id="rId12" sheetId="11"/>
+    <sheet name="Heder,Footer" r:id="rId13" sheetId="13"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="448">
   <si>
     <t>Project Name</t>
   </si>
@@ -1884,9 +1884,6 @@
     </r>
   </si>
   <si>
-    <t>First Name - John                                   Last Name - Piterson                    Zip/Postal code - 0020</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Validate </t>
     </r>
@@ -5590,23 +5587,148 @@
   </si>
   <si>
     <t>Test Case passed successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home (All Products) page should be opened.                     </t>
+  </si>
+  <si>
+    <t>Menu bar should be closed.</t>
+  </si>
+  <si>
+    <t>First Name - John                                   Last Name - Peterson                    Zip/Postal code - 0020</t>
+  </si>
+  <si>
+    <t>TC_AI_06</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validate </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">menu bar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">closure clicking it from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>product</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validate </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">menu bar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">closure clicking it from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>checkout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t>TC_AI_07</t>
+  </si>
+  <si>
+    <t>~The products page did not opened.</t>
   </si>
   <si>
     <t xml:space="preserve">Product page has successfully opened
 ~Menu bar should be closed, "All Item" button shouldn't be clickable: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home (All Products) page should be opened.                     </t>
-  </si>
-  <si>
-    <t>Menu bar should be closed.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="41" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="60" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5845,30 +5967,6 @@
     <font>
       <b/>
       <sz val="72"/>
-      <color indexed="18"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="72"/>
-      <color indexed="18"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="72"/>
-      <color indexed="58"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="72"/>
       <color indexed="58"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -5883,7 +5981,7 @@
     </font>
     <font>
       <sz val="72"/>
-      <color indexed="16"/>
+      <color indexed="58"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -5909,8 +6007,130 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="72.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="72.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="72.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="72.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="72.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="72.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="72.0"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="72.0"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5947,9 +6167,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="57"/>
+        <fgColor indexed="42"/>
       </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -5957,12 +6247,15 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="79">
     <border>
       <left/>
       <right/>
@@ -6117,245 +6410,843 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="22" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="25" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="95">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="4" numFmtId="14" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="4" numFmtId="14" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="2" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="19" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="20" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="20" numFmtId="0" quotePrefix="1" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="21" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="4" fontId="26" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="5" fontId="27" numFmtId="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="28" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="28" numFmtId="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="29" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="6" fontId="31" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="32" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="33" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="17" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="7" fontId="34" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="35" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="8" fontId="36" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="37" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="9" fontId="38" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="39" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="10" fontId="40" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="13" fillId="0" fontId="41" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="14" fillId="11" fontId="42" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="14" fillId="0" fontId="43" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="13" fontId="44" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="22" fillId="0" fontId="45" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="15" fontId="46" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="30" fillId="0" fontId="47" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="17" fontId="48" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="38" fillId="0" fontId="49" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="19" fontId="50" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="46" fillId="0" fontId="51" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="21" fontId="52" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="54" fillId="0" fontId="53" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="23" fontId="54" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="62" fillId="0" fontId="55" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="25" fontId="56" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="70" fillId="0" fontId="57" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="27" borderId="78" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="78" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="3" builtinId="27"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="27" name="Bad" xfId="3"/>
+    <cellStyle builtinId="26" name="Good" xfId="2"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FFFF9393"/>
@@ -6379,10 +7270,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -6417,7 +7308,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -6452,7 +7343,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -6546,21 +7437,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -6577,7 +7468,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -6629,28 +7520,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="B10" workbookViewId="0" zoomScale="175" zoomScaleNormal="175">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="77" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="77.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="24.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6664,10 +7555,10 @@
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="74"/>
+      <c r="C2" s="77"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
@@ -6697,10 +7588,10 @@
       <c r="A5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="74"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
@@ -6744,7 +7635,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
@@ -6759,7 +7650,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -6774,7 +7665,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -6789,7 +7680,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -6800,16 +7691,16 @@
         <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="16.5" r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -6819,7 +7710,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -6834,12 +7725,12 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -6849,7 +7740,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -6860,11 +7751,11 @@
         <v>1</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
@@ -6879,12 +7770,12 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C20" s="6">
         <v>1</v>
@@ -6894,12 +7785,12 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="16.5" r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C21" s="9">
         <v>1</v>
@@ -6909,9 +7800,9 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -6924,133 +7815,133 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
       <c r="D23" s="21"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
       <c r="C24" s="20"/>
       <c r="D24" s="21"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
       <c r="C25" s="20"/>
       <c r="D25" s="21"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20"/>
       <c r="D26" s="21"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="20"/>
       <c r="D27" s="21"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="19"/>
       <c r="C28" s="20"/>
       <c r="D28" s="21"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="19"/>
       <c r="C29" s="20"/>
       <c r="D29" s="21"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="19"/>
       <c r="C30" s="20"/>
       <c r="D30" s="21"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="19"/>
       <c r="C31" s="20"/>
       <c r="D31" s="21"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="19"/>
       <c r="C32" s="20"/>
       <c r="D32" s="21"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="19"/>
       <c r="C33" s="20"/>
       <c r="D33" s="21"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="19"/>
       <c r="C34" s="20"/>
       <c r="D34" s="21"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="19"/>
       <c r="C35" s="20"/>
       <c r="D35" s="21"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
       <c r="D36" s="21"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="19"/>
       <c r="C37" s="20"/>
       <c r="D37" s="21"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
       <c r="D38" s="21"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
       <c r="D39" s="21"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="21"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
@@ -7077,36 +7968,36 @@
     <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="33.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -7141,27 +8032,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="116.25" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -7170,27 +8061,27 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="117.75" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C3" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>260</v>
-      </c>
       <c r="E3" s="35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -7199,27 +8090,27 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C4" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>262</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>263</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -7228,27 +8119,27 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="157.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C5" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="F5" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="D5" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>267</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>266</v>
-      </c>
       <c r="G5" s="35" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
@@ -7257,27 +8148,27 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C6" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="E6" s="35" t="s">
         <v>268</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>269</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
@@ -7286,27 +8177,27 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="117" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C7" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>283</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>282</v>
-      </c>
       <c r="G7" s="35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="47">
@@ -7315,27 +8206,27 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="107.25" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C8" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="E8" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="D8" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="E8" s="35" t="s">
+      <c r="F8" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="F8" s="37" t="s">
-        <v>286</v>
-      </c>
       <c r="G8" s="35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="47">
@@ -7344,27 +8235,27 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="127.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C9" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="D9" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="E9" s="35" t="s">
+      <c r="F9" s="37" t="s">
         <v>288</v>
       </c>
-      <c r="F9" s="37" t="s">
-        <v>289</v>
-      </c>
       <c r="G9" s="35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="47">
@@ -7373,27 +8264,27 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="124.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E10" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="F10" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="F10" s="37" t="s">
-        <v>291</v>
-      </c>
       <c r="G10" s="35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="47">
@@ -7402,27 +8293,27 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C11" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="D11" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="E11" s="35" t="s">
+      <c r="F11" s="37" t="s">
         <v>294</v>
       </c>
-      <c r="F11" s="37" t="s">
-        <v>295</v>
-      </c>
       <c r="G11" s="35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="47">
@@ -7431,27 +8322,27 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C12" s="42" t="s">
         <v>296</v>
       </c>
-      <c r="B12" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="C12" s="42" t="s">
+      <c r="D12" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="E12" s="35" t="s">
         <v>297</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>298</v>
       </c>
       <c r="F12" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="47">
@@ -7460,27 +8351,27 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="213.75" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="47">
@@ -7489,27 +8380,27 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="151.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="47">
@@ -7518,27 +8409,27 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="160.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="E15" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>316</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>311</v>
-      </c>
       <c r="F15" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="G15" s="35" t="s">
         <v>313</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>314</v>
       </c>
       <c r="H15" s="32"/>
       <c r="I15" s="47">
@@ -7547,27 +8438,27 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="151.5" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="47">
@@ -7576,27 +8467,27 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="153.75" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H17" s="32"/>
       <c r="I17" s="47">
@@ -7605,27 +8496,27 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="155.25" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H18" s="32"/>
       <c r="I18" s="47">
@@ -7634,7 +8525,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -7647,7 +8538,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -7660,7 +8551,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -7673,7 +8564,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -7686,7 +8577,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -7699,7 +8590,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -7712,7 +8603,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -7725,7 +8616,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -7738,7 +8629,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -7751,7 +8642,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -7764,7 +8655,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -7778,36 +8669,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="33.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -7842,27 +8733,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="135" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -7871,27 +8762,27 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="135" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C3" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="E3" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="E3" s="35" t="s">
+      <c r="F3" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="G3" s="35" t="s">
         <v>341</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>266</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>342</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -7900,27 +8791,27 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -7929,27 +8820,27 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="157.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C5" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>350</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>349</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>351</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
@@ -7958,27 +8849,27 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="132.75" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C6" s="44" t="s">
+        <v>352</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="E6" s="35" t="s">
         <v>353</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>349</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>354</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
@@ -7987,27 +8878,27 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="150" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C7" s="44" t="s">
+        <v>355</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="E7" s="35" t="s">
         <v>356</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>349</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>357</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="47">
@@ -8016,27 +8907,27 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="162.75" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C8" s="44" t="s">
+        <v>358</v>
+      </c>
+      <c r="D8" s="41" t="s">
         <v>359</v>
       </c>
-      <c r="D8" s="41" t="s">
-        <v>360</v>
-      </c>
       <c r="E8" s="35" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F8" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="47">
@@ -8045,27 +8936,27 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="153" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F9" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="47">
@@ -8074,27 +8965,27 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="156.75" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F10" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="47">
@@ -8103,27 +8994,27 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="159.75" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C11" s="44" t="s">
+        <v>367</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="E11" s="35" t="s">
         <v>368</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>369</v>
       </c>
       <c r="F11" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="47">
@@ -8132,7 +9023,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -8145,7 +9036,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="213.75" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="44"/>
@@ -8158,7 +9049,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="151.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="44"/>
@@ -8171,7 +9062,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="160.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="44"/>
@@ -8184,7 +9075,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="151.5" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="44"/>
@@ -8197,7 +9088,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="153.75" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="44"/>
@@ -8210,7 +9101,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="155.25" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="44"/>
@@ -8223,7 +9114,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -8236,7 +9127,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -8249,7 +9140,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -8262,7 +9153,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -8275,7 +9166,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -8288,7 +9179,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -8301,7 +9192,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -8314,7 +9205,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -8327,7 +9218,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -8340,7 +9231,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -8353,7 +9244,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -8367,36 +9258,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.42578125" style="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="33.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -8431,27 +9322,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="153" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>373</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>374</v>
-      </c>
       <c r="C2" s="44" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -8460,25 +9351,25 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="177" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B3" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>377</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="E3" s="35" t="s">
         <v>374</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>378</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>377</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>375</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="35" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -8487,7 +9378,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
       <c r="C4" s="44"/>
@@ -8500,7 +9391,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="157.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
       <c r="B5" s="32"/>
       <c r="C5" s="44"/>
@@ -8513,7 +9404,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="44"/>
@@ -8526,7 +9417,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="117" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="44"/>
@@ -8539,7 +9430,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="107.25" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="44"/>
@@ -8552,7 +9443,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="127.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="44"/>
@@ -8565,7 +9456,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="124.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="44"/>
@@ -8578,7 +9469,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="44"/>
@@ -8591,7 +9482,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -8604,7 +9495,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="213.75" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="44"/>
@@ -8617,7 +9508,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="151.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="44"/>
@@ -8630,7 +9521,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="160.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="44"/>
@@ -8643,7 +9534,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="151.5" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="44"/>
@@ -8656,7 +9547,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="153.75" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="44"/>
@@ -8669,7 +9560,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="155.25" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="44"/>
@@ -8682,7 +9573,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -8695,7 +9586,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -8708,7 +9599,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -8721,7 +9612,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -8734,7 +9625,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -8747,7 +9638,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -8760,7 +9651,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -8773,7 +9664,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -8786,7 +9677,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -8799,7 +9690,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -8812,7 +9703,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -8826,35 +9717,35 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="40.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="32.140625" style="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19" style="34" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="36.140625" style="34" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="40.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="32.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="36.140625" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -8889,27 +9780,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -8918,27 +9809,27 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -8947,27 +9838,27 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -8976,27 +9867,27 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
@@ -9005,21 +9896,21 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
@@ -9032,27 +9923,27 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="116.25" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="47">
@@ -9061,21 +9952,21 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F8" s="37" t="s">
         <v>58</v>
@@ -9088,21 +9979,21 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="105.75" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B9" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>380</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>381</v>
-      </c>
       <c r="D9" s="41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F9" s="37" t="s">
         <v>58</v>
@@ -9115,88 +10006,88 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F10" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="47"/>
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F11" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="47"/>
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F12" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="47"/>
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -9209,7 +10100,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -9222,7 +10113,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="150.75" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -9235,7 +10126,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -9248,7 +10139,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
       <c r="B17" s="42"/>
       <c r="C17" s="32"/>
@@ -9261,7 +10152,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -9274,7 +10165,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -9287,7 +10178,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -9300,7 +10191,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -9313,7 +10204,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -9326,7 +10217,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -9339,7 +10230,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -9352,7 +10243,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -9365,7 +10256,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -9378,7 +10269,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -9391,7 +10282,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -9404,7 +10295,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -9419,40 +10310,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E9" location="Filter!A1" display="Filter!A1"/>
-    <hyperlink ref="E8" location="'Your Cart'!A1" display="'Your Cart'!A1"/>
-    <hyperlink ref="E6" location="Logout!A1" display="Logout!A1"/>
+    <hyperlink display="Filter!A1" location="Filter!A1" ref="E9"/>
+    <hyperlink display="'Your Cart'!A1" location="'Your Cart'!A1" ref="E8"/>
+    <hyperlink display="Logout!A1" location="Logout!A1" ref="E6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B19" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="40.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="32.140625" style="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19" style="34" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="55.42578125" style="34" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="40.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="32.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="55.42578125" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -9487,7 +10378,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>40</v>
       </c>
@@ -9514,11 +10405,11 @@
         <v>0</v>
       </c>
       <c r="J2" s="56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>46</v>
       </c>
@@ -9538,18 +10429,18 @@
         <v>51</v>
       </c>
       <c r="G3" s="54" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
         <v>0</v>
       </c>
       <c r="J3" s="56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>48</v>
       </c>
@@ -9569,18 +10460,18 @@
         <v>49</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
         <v>0</v>
       </c>
       <c r="J4" s="56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>50</v>
       </c>
@@ -9600,18 +10491,18 @@
         <v>52</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
         <v>0</v>
       </c>
       <c r="J5" s="56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>55</v>
       </c>
@@ -9631,18 +10522,18 @@
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
         <v>0</v>
       </c>
       <c r="J6" s="56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>59</v>
       </c>
@@ -9662,18 +10553,18 @@
         <v>70</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="47">
         <v>0</v>
       </c>
       <c r="J7" s="56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>61</v>
       </c>
@@ -9690,21 +10581,21 @@
         <v>69</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="47">
         <v>0</v>
       </c>
       <c r="J8" s="56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="105.75" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>64</v>
       </c>
@@ -9712,30 +10603,30 @@
         <v>41</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>77</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="47">
         <v>0</v>
       </c>
       <c r="J9" s="56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="101.25" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>72</v>
       </c>
@@ -9743,30 +10634,30 @@
         <v>41</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>77</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="47">
         <v>0</v>
       </c>
       <c r="J10" s="56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>73</v>
       </c>
@@ -9774,7 +10665,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>77</v>
@@ -9783,21 +10674,21 @@
         <v>43</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="47">
         <v>0</v>
       </c>
       <c r="J11" s="56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="112.5" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>76</v>
       </c>
@@ -9805,7 +10696,7 @@
         <v>41</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D12" s="35" t="s">
         <v>77</v>
@@ -9814,21 +10705,21 @@
         <v>43</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H12" s="55"/>
       <c r="I12" s="47">
         <v>0</v>
       </c>
       <c r="J12" s="56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="175.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>80</v>
       </c>
@@ -9855,11 +10746,11 @@
         <v>2</v>
       </c>
       <c r="J13" s="56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>83</v>
       </c>
@@ -9886,11 +10777,11 @@
         <v>2</v>
       </c>
       <c r="J14" s="56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="150.75" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>89</v>
       </c>
@@ -9904,24 +10795,24 @@
         <v>77</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F15" s="37" t="s">
         <v>44</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H15" s="32"/>
       <c r="I15" s="47">
         <v>1</v>
       </c>
       <c r="J15" s="56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>90</v>
       </c>
@@ -9929,7 +10820,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D16" s="41" t="s">
         <v>77</v>
@@ -9941,20 +10832,20 @@
         <v>44</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="47">
         <v>1</v>
       </c>
       <c r="J16" s="57" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B17" s="42" t="s">
         <v>41</v>
@@ -9979,13 +10870,13 @@
         <v>1</v>
       </c>
       <c r="J17" s="56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B18" s="42" t="s">
         <v>41</v>
@@ -10010,13 +10901,13 @@
         <v>1</v>
       </c>
       <c r="J18" s="56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="168" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B19" s="42" t="s">
         <v>41</v>
@@ -10041,13 +10932,13 @@
         <v>1</v>
       </c>
       <c r="J19" s="56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B20" s="42" t="s">
         <v>41</v>
@@ -10074,7 +10965,7 @@
       <c r="J20" s="58"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -10087,7 +10978,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -10100,7 +10991,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -10113,7 +11004,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -10126,7 +11017,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -10139,7 +11030,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -10152,7 +11043,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -10165,7 +11056,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -10178,7 +11069,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -10192,36 +11083,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="40.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.5703125" style="61" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="40.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="34.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="61" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -10256,7 +11147,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="120" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>100</v>
       </c>
@@ -10283,11 +11174,11 @@
         <v>0</v>
       </c>
       <c r="J2" s="62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="138" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>101</v>
       </c>
@@ -10314,11 +11205,11 @@
         <v>1</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="136.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>102</v>
       </c>
@@ -10345,11 +11236,11 @@
         <v>0</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="156" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>103</v>
       </c>
@@ -10376,11 +11267,11 @@
         <v>2</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>104</v>
       </c>
@@ -10388,7 +11279,7 @@
         <v>99</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>110</v>
@@ -10409,7 +11300,7 @@
       <c r="J6" s="58"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -10422,7 +11313,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -10435,7 +11326,7 @@
       <c r="J8" s="58"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -10448,7 +11339,7 @@
       <c r="J9" s="58"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -10461,7 +11352,7 @@
       <c r="J10" s="58"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -10474,7 +11365,7 @@
       <c r="J11" s="58"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -10487,7 +11378,7 @@
       <c r="J12" s="58"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -10500,7 +11391,7 @@
       <c r="J13" s="58"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -10513,7 +11404,7 @@
       <c r="J14" s="58"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -10526,7 +11417,7 @@
       <c r="J15" s="58"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -10539,7 +11430,7 @@
       <c r="J16" s="59"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -10552,7 +11443,7 @@
       <c r="J17" s="58"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -10565,7 +11456,7 @@
       <c r="J18" s="58"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -10578,7 +11469,7 @@
       <c r="J19" s="58"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -10591,7 +11482,7 @@
       <c r="J20" s="58"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -10604,7 +11495,7 @@
       <c r="J21" s="60"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -10617,7 +11508,7 @@
       <c r="J22" s="60"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -10630,7 +11521,7 @@
       <c r="J23" s="60"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -10643,7 +11534,7 @@
       <c r="J24" s="60"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -10656,7 +11547,7 @@
       <c r="J25" s="60"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -10669,7 +11560,7 @@
       <c r="J26" s="60"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -10682,7 +11573,7 @@
       <c r="J27" s="60"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -10695,7 +11586,7 @@
       <c r="J28" s="60"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -10709,36 +11600,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="40.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="32.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="40.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="32.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -10773,7 +11664,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="96.75" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>119</v>
       </c>
@@ -10800,11 +11691,11 @@
         <v>1</v>
       </c>
       <c r="J2" s="62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="99" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>120</v>
       </c>
@@ -10831,11 +11722,11 @@
         <v>1</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="92.25" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>121</v>
       </c>
@@ -10862,11 +11753,11 @@
         <v>1</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="111.75" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>122</v>
       </c>
@@ -10893,11 +11784,11 @@
         <v>1</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="44"/>
@@ -10910,7 +11801,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -10923,7 +11814,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -10936,7 +11827,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -10949,7 +11840,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -10962,7 +11853,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -10975,7 +11866,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -10988,7 +11879,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -11001,7 +11892,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -11014,7 +11905,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -11027,7 +11918,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -11040,7 +11931,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -11053,7 +11944,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -11066,7 +11957,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -11079,7 +11970,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -11092,7 +11983,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -11105,7 +11996,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -11118,7 +12009,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -11131,7 +12022,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -11144,7 +12035,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -11157,7 +12048,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -11170,7 +12061,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -11183,7 +12074,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -11196,7 +12087,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -11210,35 +12101,35 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="40.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.28515625" style="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="40.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="33.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -11273,7 +12164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="96.75" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>135</v>
       </c>
@@ -11287,26 +12178,26 @@
         <v>111</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>441</v>
-      </c>
-      <c r="H2" s="66"/>
+        <v>439</v>
+      </c>
+      <c r="H2" s="63"/>
       <c r="I2" s="47">
         <v>0</v>
       </c>
-      <c r="J2" s="69" t="s">
+      <c r="J2" s="85" t="s">
         <v>436</v>
       </c>
-      <c r="K2" s="70" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="86" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="99" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>136</v>
       </c>
@@ -11320,7 +12211,7 @@
         <v>111</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
@@ -11329,17 +12220,17 @@
         <v>141</v>
       </c>
       <c r="H3" s="32"/>
-      <c r="I3" s="68">
+      <c r="I3" s="65">
         <v>0</v>
       </c>
-      <c r="J3" s="71" t="s">
-        <v>437</v>
-      </c>
-      <c r="K3" s="72" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="87" t="s">
+        <v>436</v>
+      </c>
+      <c r="K3" s="88" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="92.25" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>137</v>
       </c>
@@ -11353,7 +12244,7 @@
         <v>111</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
@@ -11365,10 +12256,14 @@
       <c r="I4" s="47">
         <v>0</v>
       </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-    </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="83" t="s">
+        <v>436</v>
+      </c>
+      <c r="K4" s="84" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="115.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>139</v>
       </c>
@@ -11382,10 +12277,10 @@
         <v>111</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>146</v>
+        <v>441</v>
       </c>
       <c r="G5" s="35" t="s">
         <v>141</v>
@@ -11394,10 +12289,14 @@
       <c r="I5" s="47">
         <v>0</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-    </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="81" t="s">
+        <v>436</v>
+      </c>
+      <c r="K5" s="82" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="139.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>138</v>
       </c>
@@ -11405,16 +12304,16 @@
         <v>140</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>111</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>146</v>
+        <v>441</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>141</v>
@@ -11423,40 +12322,80 @@
       <c r="I6" s="47">
         <v>0</v>
       </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-    </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="40"/>
+      <c r="J6" s="79" t="s">
+        <v>436</v>
+      </c>
+      <c r="K6" s="80" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>443</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>58</v>
+      </c>
       <c r="G7" s="35" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="47">
         <v>1</v>
       </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-    </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="35"/>
+      <c r="J7" s="93" t="s">
+        <v>435</v>
+      </c>
+      <c r="K7" s="94" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>445</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>444</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>440</v>
+      </c>
       <c r="H8" s="32"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-    </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="47">
+        <v>1</v>
+      </c>
+      <c r="J8" s="89" t="s">
+        <v>436</v>
+      </c>
+      <c r="K8" s="90" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -11469,10 +12408,10 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
-      <c r="C10" s="67"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="41"/>
       <c r="E10" s="41"/>
       <c r="F10" s="43"/>
@@ -11482,7 +12421,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -11495,7 +12434,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -11508,7 +12447,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -11521,7 +12460,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -11534,7 +12473,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -11547,7 +12486,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -11560,7 +12499,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -11573,7 +12512,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -11586,7 +12525,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -11599,7 +12538,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -11612,7 +12551,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -11625,7 +12564,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -11638,7 +12577,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -11651,7 +12590,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -11664,7 +12603,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -11677,7 +12616,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -11690,7 +12629,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -11703,7 +12642,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -11716,7 +12655,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -11730,36 +12669,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="26.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -11794,27 +12733,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="96.75" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -11823,27 +12762,27 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="99" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="35" t="s">
         <v>160</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>161</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -11852,27 +12791,27 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="92.25" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -11881,27 +12820,27 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="115.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
@@ -11910,27 +12849,27 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>160</v>
-      </c>
       <c r="E6" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
@@ -11939,7 +12878,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="44"/>
@@ -11952,7 +12891,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -11965,7 +12904,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -11978,7 +12917,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -11991,7 +12930,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -12004,7 +12943,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -12017,7 +12956,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -12030,7 +12969,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -12043,7 +12982,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -12056,7 +12995,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -12069,7 +13008,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -12082,7 +13021,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -12095,7 +13034,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -12108,7 +13047,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -12121,7 +13060,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -12134,7 +13073,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -12147,7 +13086,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -12160,7 +13099,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -12173,7 +13112,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -12186,7 +13125,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -12199,7 +13138,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -12212,7 +13151,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -12225,7 +13164,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -12239,36 +13178,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="30.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -12303,27 +13242,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="116.25" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>182</v>
-      </c>
       <c r="E2" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -12332,27 +13271,27 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="117.75" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>182</v>
-      </c>
       <c r="E3" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -12361,27 +13300,27 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>182</v>
-      </c>
       <c r="E4" s="35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -12390,27 +13329,27 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="142.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>182</v>
-      </c>
       <c r="E5" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
@@ -12419,27 +13358,27 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="C6" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>182</v>
-      </c>
       <c r="E6" s="35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
@@ -12448,7 +13387,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="44"/>
@@ -12461,7 +13400,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -12474,7 +13413,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -12487,7 +13426,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -12500,7 +13439,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -12513,7 +13452,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -12526,7 +13465,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -12539,7 +13478,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -12552,7 +13491,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -12565,7 +13504,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -12578,7 +13517,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -12591,7 +13530,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -12604,7 +13543,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -12617,7 +13556,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -12630,7 +13569,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -12643,7 +13582,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -12656,7 +13595,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -12669,7 +13608,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -12682,7 +13621,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -12695,7 +13634,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -12708,7 +13647,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -12721,7 +13660,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -12734,7 +13673,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -12748,34 +13687,34 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="32.42578125" style="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="32.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -12810,27 +13749,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="116.25" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="D2" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="35" t="s">
         <v>204</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>205</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -12839,27 +13778,27 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="117.75" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D3" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="35" t="s">
         <v>207</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>208</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -12868,27 +13807,27 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>217</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>218</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -12897,27 +13836,27 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="142.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D5" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>209</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>210</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
@@ -12926,27 +13865,27 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>203</v>
-      </c>
       <c r="C6" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="35" t="s">
         <v>213</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>214</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
@@ -12955,27 +13894,27 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C7" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="E7" s="35" t="s">
         <v>221</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>222</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="47">
@@ -12984,7 +13923,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -12997,7 +13936,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -13010,7 +13949,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -13023,7 +13962,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -13036,7 +13975,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -13049,7 +13988,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -13062,7 +14001,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -13075,7 +14014,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -13088,7 +14027,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -13101,7 +14040,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -13114,7 +14053,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -13127,7 +14066,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -13140,7 +14079,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -13153,7 +14092,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -13166,7 +14105,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -13179,7 +14118,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -13192,7 +14131,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -13205,7 +14144,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -13218,7 +14157,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -13231,7 +14170,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -13244,7 +14183,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -13257,7 +14196,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -13271,36 +14210,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="40" zoomScaleNormal="40">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="31.28515625" style="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="31.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -13335,18 +14274,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="116.25" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>230</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>231</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>43</v>
@@ -13355,7 +14294,7 @@
         <v>44</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -13364,27 +14303,27 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="117.75" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -13393,27 +14332,27 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -13422,27 +14361,27 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="142.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
@@ -13451,27 +14390,27 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
@@ -13480,27 +14419,27 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>230</v>
-      </c>
       <c r="C7" s="44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="47">
@@ -13509,15 +14448,15 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>111</v>
@@ -13538,27 +14477,27 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="127.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F9" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="47">
@@ -13567,27 +14506,27 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F10" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="47">
@@ -13596,7 +14535,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -13609,7 +14548,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -13622,7 +14561,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -13635,7 +14574,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -13648,7 +14587,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -13661,7 +14600,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -13674,7 +14613,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -13687,7 +14626,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -13700,7 +14639,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -13713,7 +14652,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -13726,7 +14665,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -13739,7 +14678,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -13752,7 +14691,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -13765,7 +14704,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -13778,7 +14717,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -13791,7 +14730,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -13804,7 +14743,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -13817,7 +14756,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -13830,7 +14769,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -13844,7 +14783,7 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/manual/Swag Labs-Test Scenarios.xlsx
+++ b/src/test/manual/Swag Labs-Test Scenarios.xlsx
@@ -1,34 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\shelf1\Swag Labs\automation\Swag Labs\SwagLabs\src\test\manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="4" tabRatio="670" windowHeight="3765" windowWidth="10215" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="3765" tabRatio="670" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Scenarios" r:id="rId1" sheetId="1"/>
-    <sheet name="Login" r:id="rId2" sheetId="2"/>
-    <sheet name="Logout" r:id="rId3" sheetId="3"/>
-    <sheet name="Filter" r:id="rId4" sheetId="4"/>
-    <sheet name="All Items" r:id="rId5" sheetId="5"/>
-    <sheet name="Product Display" r:id="rId6" sheetId="6"/>
-    <sheet name="Add to Cart" r:id="rId7" sheetId="7"/>
-    <sheet name="Your Cart" r:id="rId8" sheetId="8"/>
-    <sheet name="Home" r:id="rId9" sheetId="9"/>
-    <sheet name="Checkout" r:id="rId10" sheetId="10"/>
-    <sheet name="Overview" r:id="rId11" sheetId="12"/>
-    <sheet name="Compleate" r:id="rId12" sheetId="11"/>
-    <sheet name="Heder,Footer" r:id="rId13" sheetId="13"/>
+    <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Logout" sheetId="3" r:id="rId3"/>
+    <sheet name="Filter" sheetId="4" r:id="rId4"/>
+    <sheet name="All Items" sheetId="5" r:id="rId5"/>
+    <sheet name="Product Display" sheetId="6" r:id="rId6"/>
+    <sheet name="Add to Cart" sheetId="7" r:id="rId7"/>
+    <sheet name="Your Cart" sheetId="8" r:id="rId8"/>
+    <sheet name="Home" sheetId="9" r:id="rId9"/>
+    <sheet name="Checkout" sheetId="10" r:id="rId10"/>
+    <sheet name="Overview" sheetId="12" r:id="rId11"/>
+    <sheet name="Compleate" sheetId="11" r:id="rId12"/>
+    <sheet name="Heder,Footer" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="461">
   <si>
     <t>Project Name</t>
   </si>
@@ -831,12 +831,6 @@
     <t>1. Copy option in the Right click menu should be disabled                                                                             2. Password text should not be copied</t>
   </si>
   <si>
-    <t>Validate Logging into the Application, closing the Browser without loggingout and opening the application in the Browser again</t>
-  </si>
-  <si>
-    <t>Loggedin Sesion should be still maintained and User should not get logged out</t>
-  </si>
-  <si>
     <t>TC_LF_14</t>
   </si>
   <si>
@@ -5714,21 +5708,65 @@
   </si>
   <si>
     <t>TC_AI_07</t>
-  </si>
-  <si>
-    <t>~The products page did not opened.</t>
   </si>
   <si>
     <t xml:space="preserve">Product page has successfully opened
 ~Menu bar should be closed, "All Item" button shouldn't be clickable: </t>
+  </si>
+  <si>
+    <t>Opened page title is: Products</t>
+  </si>
+  <si>
+    <t>The "All Item" button from menu bar is clickable: false</t>
+  </si>
+  <si>
+    <t>The "All Item" button from menu bar is clickable: true</t>
+  </si>
+  <si>
+    <t>Products are sorted by ascending order : true</t>
+  </si>
+  <si>
+    <t>Products are sorted by descending order : true</t>
+  </si>
+  <si>
+    <t>Actions done before has preserved : true</t>
+  </si>
+  <si>
+    <t>Login page opened: true</t>
+  </si>
+  <si>
+    <t>User has logged in : true</t>
+  </si>
+  <si>
+    <t>Validate Logging into the Application, closing the Browser without logging out and opening the application in the Browser again</t>
+  </si>
+  <si>
+    <t>Logged in Sesion should be still maintained and User should not get logged out</t>
+  </si>
+  <si>
+    <t>Logged in: false</t>
+  </si>
+  <si>
+    <t>~User should not be able to login.</t>
+  </si>
+  <si>
+    <t>Logged in: true</t>
+  </si>
+  <si>
+    <t>Password copied: true</t>
+  </si>
+  <si>
+    <t>Password doted: true</t>
+  </si>
+  <si>
+    <t>Placeholder exist: true</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="60" x14ac:knownFonts="1">
+  <fonts count="128" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5906,31 +5944,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="13.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="72"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="72"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -5958,22 +5972,6 @@
     </font>
     <font>
       <sz val="72"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="72"/>
-      <color indexed="58"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="72"/>
       <color indexed="16"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -5983,154 +5981,499 @@
       <sz val="72"/>
       <color indexed="58"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="12"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="72"/>
       <color indexed="58"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="12"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="72"/>
       <color indexed="58"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="12"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="72"/>
       <color indexed="58"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="12"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="72"/>
       <color indexed="58"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="12"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
-      <sz val="72.0"/>
-      <color indexed="58"/>
     </font>
     <font>
+      <sz val="72"/>
+      <color indexed="58"/>
       <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="12"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
-      <sz val="72.0"/>
-      <color indexed="58"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="12"/>
     </font>
     <font>
+      <sz val="72"/>
+      <color indexed="16"/>
       <name val="Calibri"/>
-      <sz val="72.0"/>
-      <color indexed="58"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="12"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
-      <sz val="72.0"/>
-      <color indexed="58"/>
     </font>
     <font>
+      <sz val="72"/>
+      <color indexed="58"/>
       <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="12"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
-      <sz val="72.0"/>
-      <color indexed="58"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="12"/>
     </font>
     <font>
+      <sz val="72"/>
+      <color indexed="58"/>
       <name val="Calibri"/>
-      <sz val="72.0"/>
-      <color indexed="58"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="12"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
-      <sz val="72.0"/>
-      <color indexed="16"/>
     </font>
     <font>
+      <sz val="72"/>
+      <color indexed="58"/>
       <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="12"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
-      <sz val="72.0"/>
-      <color indexed="16"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
-      <sz val="14.0"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="16"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6161,8 +6504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
@@ -6191,7 +6533,9 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid"/>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -6199,7 +6543,9 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid"/>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -6207,7 +6553,9 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid"/>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -6215,7 +6563,9 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid"/>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -6223,7 +6573,14 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid"/>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -6231,7 +6588,9 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid"/>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -6239,23 +6598,77 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid"/>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid"/>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="79">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -6456,42 +6869,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="8"/>
       </left>
@@ -6501,7 +6878,10 @@
       <top style="medium">
         <color indexed="8"/>
       </top>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -6516,54 +6896,7 @@
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
-    </border>
-    <border>
-      <left style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -6578,54 +6911,7 @@
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
-    </border>
-    <border>
-      <left style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -6640,54 +6926,7 @@
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
-    </border>
-    <border>
-      <left style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -6702,54 +6941,7 @@
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
-    </border>
-    <border>
-      <left style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -6764,54 +6956,7 @@
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
-    </border>
-    <border>
-      <left style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -6826,54 +6971,7 @@
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
-    </border>
-    <border>
-      <left style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -6888,54 +6986,7 @@
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
-    </border>
-    <border>
-      <left style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -6950,303 +7001,793 @@
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="22" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="25" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="163">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="4" numFmtId="14" xfId="0">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="4" numFmtId="14" xfId="0">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="7" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="8" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="2" fontId="8" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="8" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="12" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="12" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="9" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="9" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="11" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="17" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="18" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="19" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="20" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="20" numFmtId="0" quotePrefix="1" xfId="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="21" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="4" fontId="26" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="5" fontId="27" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="28" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="28" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="29" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="6" fontId="31" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="32" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="33" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="17" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="7" fontId="34" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="35" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="8" fontId="36" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="37" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="9" fontId="38" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="39" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="10" fontId="40" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="13" fillId="0" fontId="41" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="14" fillId="11" fontId="42" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="14" fillId="0" fontId="43" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="26" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="27" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="28" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="29" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="30" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="31" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="32" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="33" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="34" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="36" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="37" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="38" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="13" fontId="44" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="22" fillId="0" fontId="45" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="15" fontId="46" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="30" fillId="0" fontId="47" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="17" fontId="48" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="38" fillId="0" fontId="49" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="19" fontId="50" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="46" fillId="0" fontId="51" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="21" fontId="52" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="54" fillId="0" fontId="53" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="23" fontId="54" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="62" fillId="0" fontId="55" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="25" fontId="56" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="70" fillId="0" fontId="57" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="27" borderId="78" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="78" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle builtinId="27" name="Bad" xfId="3"/>
-    <cellStyle builtinId="26" name="Good" xfId="2"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
       <color rgb="FFFF9393"/>
@@ -7270,10 +7811,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -7308,7 +7849,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -7343,7 +7884,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -7437,21 +7978,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -7468,7 +8009,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -7520,28 +8061,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0" zoomScale="175" zoomScaleNormal="175">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="B10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="77.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="23.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="24.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="77" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -7555,10 +8096,10 @@
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="77"/>
+      <c r="C2" s="161"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
@@ -7588,10 +8129,10 @@
       <c r="A5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="77"/>
+      <c r="C5" s="161"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
@@ -7635,7 +8176,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row ht="15.75" r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
@@ -7650,7 +8191,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row ht="15.75" r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -7665,7 +8206,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row ht="15.75" r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -7680,7 +8221,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row ht="15.75" r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -7695,12 +8236,12 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row customHeight="1" ht="16.5" r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -7710,7 +8251,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row ht="15.75" r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -7725,12 +8266,12 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row ht="15.75" r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -7740,7 +8281,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row ht="15.75" r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -7751,11 +8292,11 @@
         <v>1</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row ht="15.75" r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
@@ -7770,12 +8311,12 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row ht="15.75" r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C20" s="6">
         <v>1</v>
@@ -7785,12 +8326,12 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row customHeight="1" ht="16.5" r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C21" s="9">
         <v>1</v>
@@ -7800,9 +8341,9 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row ht="15.75" r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -7815,133 +8356,133 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row ht="15.75" r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
       <c r="D23" s="21"/>
       <c r="E23" s="2"/>
     </row>
-    <row ht="15.75" r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
       <c r="C24" s="20"/>
       <c r="D24" s="21"/>
       <c r="E24" s="2"/>
     </row>
-    <row ht="15.75" r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
       <c r="C25" s="20"/>
       <c r="D25" s="21"/>
       <c r="E25" s="2"/>
     </row>
-    <row ht="15.75" r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20"/>
       <c r="D26" s="21"/>
       <c r="E26" s="2"/>
     </row>
-    <row ht="15.75" r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="20"/>
       <c r="D27" s="21"/>
       <c r="E27" s="2"/>
     </row>
-    <row ht="15.75" r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="19"/>
       <c r="C28" s="20"/>
       <c r="D28" s="21"/>
       <c r="E28" s="2"/>
     </row>
-    <row ht="15.75" r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="19"/>
       <c r="C29" s="20"/>
       <c r="D29" s="21"/>
       <c r="E29" s="2"/>
     </row>
-    <row ht="15.75" r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="19"/>
       <c r="C30" s="20"/>
       <c r="D30" s="21"/>
       <c r="E30" s="2"/>
     </row>
-    <row ht="15.75" r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="19"/>
       <c r="C31" s="20"/>
       <c r="D31" s="21"/>
       <c r="E31" s="2"/>
     </row>
-    <row ht="15.75" r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="19"/>
       <c r="C32" s="20"/>
       <c r="D32" s="21"/>
       <c r="E32" s="2"/>
     </row>
-    <row ht="15.75" r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="19"/>
       <c r="C33" s="20"/>
       <c r="D33" s="21"/>
       <c r="E33" s="2"/>
     </row>
-    <row ht="15.75" r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="19"/>
       <c r="C34" s="20"/>
       <c r="D34" s="21"/>
       <c r="E34" s="2"/>
     </row>
-    <row ht="15.75" r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="19"/>
       <c r="C35" s="20"/>
       <c r="D35" s="21"/>
       <c r="E35" s="2"/>
     </row>
-    <row ht="15.75" r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
       <c r="D36" s="21"/>
       <c r="E36" s="2"/>
     </row>
-    <row ht="15.75" r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="19"/>
       <c r="C37" s="20"/>
       <c r="D37" s="21"/>
       <c r="E37" s="2"/>
     </row>
-    <row ht="15.75" r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
       <c r="D38" s="21"/>
       <c r="E38" s="2"/>
     </row>
-    <row ht="15.75" r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
       <c r="D39" s="21"/>
       <c r="E39" s="2"/>
     </row>
-    <row ht="15.75" r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="21"/>
       <c r="E40" s="2"/>
     </row>
-    <row ht="15.75" r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
@@ -7968,36 +8509,36 @@
     <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="34" width="33.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
-    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="33.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -8032,27 +8573,27 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="116.25" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -8061,27 +8602,27 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="117.75" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -8090,27 +8631,27 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -8119,27 +8660,27 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="157.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C5" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="D5" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>266</v>
-      </c>
       <c r="F5" s="37" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
@@ -8148,27 +8689,27 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
@@ -8177,27 +8718,27 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="117" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C7" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="E7" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>282</v>
-      </c>
       <c r="F7" s="37" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="47">
@@ -8206,27 +8747,27 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="107.25" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C8" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="F8" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="D8" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>285</v>
-      </c>
       <c r="G8" s="35" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="47">
@@ -8235,27 +8776,27 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="127.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C9" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="F9" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="D9" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>288</v>
-      </c>
       <c r="G9" s="35" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="47">
@@ -8264,27 +8805,27 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="124.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="47">
@@ -8293,27 +8834,27 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C11" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="F11" s="37" t="s">
         <v>292</v>
       </c>
-      <c r="D11" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>294</v>
-      </c>
       <c r="G11" s="35" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="47">
@@ -8322,27 +8863,27 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="E12" s="35" t="s">
         <v>295</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>296</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>297</v>
       </c>
       <c r="F12" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="47">
@@ -8351,27 +8892,27 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="213.75" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E13" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="G13" s="35" t="s">
         <v>304</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>265</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>306</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="47">
@@ -8380,27 +8921,27 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="151.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C14" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="G14" s="35" t="s">
         <v>311</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>313</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="47">
@@ -8409,27 +8950,27 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="160.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E15" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="F15" s="37" t="s">
         <v>310</v>
       </c>
-      <c r="F15" s="37" t="s">
-        <v>312</v>
-      </c>
       <c r="G15" s="35" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H15" s="32"/>
       <c r="I15" s="47">
@@ -8438,27 +8979,27 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="151.5" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="47">
@@ -8467,27 +9008,27 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="153.75" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" s="44" t="s">
         <v>322</v>
       </c>
-      <c r="B17" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>324</v>
-      </c>
       <c r="D17" s="41" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H17" s="32"/>
       <c r="I17" s="47">
@@ -8496,27 +9037,27 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="155.25" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="C18" s="44" t="s">
         <v>323</v>
       </c>
-      <c r="B18" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>325</v>
-      </c>
       <c r="D18" s="41" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H18" s="32"/>
       <c r="I18" s="47">
@@ -8525,7 +9066,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -8538,7 +9079,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -8551,7 +9092,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -8564,7 +9105,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -8577,7 +9118,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -8590,7 +9131,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -8603,7 +9144,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -8616,7 +9157,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -8629,7 +9170,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -8642,7 +9183,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -8655,7 +9196,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -8669,36 +9210,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="34" width="33.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
-    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="33.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -8733,27 +9274,27 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="135" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C2" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="E2" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>340</v>
-      </c>
       <c r="F2" s="37" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -8762,27 +9303,27 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="135" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C3" s="44" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="G3" s="35" t="s">
         <v>339</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>343</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>340</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>265</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>341</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -8791,27 +9332,27 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -8820,27 +9361,27 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="157.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D5" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>348</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>350</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
@@ -8849,27 +9390,27 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="132.75" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
@@ -8878,27 +9419,27 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="150" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="47">
@@ -8907,27 +9448,27 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="162.75" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F8" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="47">
@@ -8936,27 +9477,27 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="153" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F9" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="47">
@@ -8965,27 +9506,27 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="156.75" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F10" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="47">
@@ -8994,27 +9535,27 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="159.75" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F11" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="47">
@@ -9023,7 +9564,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -9036,7 +9577,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="213.75" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="44"/>
@@ -9049,7 +9590,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="151.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="44"/>
@@ -9062,7 +9603,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="160.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="44"/>
@@ -9075,7 +9616,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="151.5" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="44"/>
@@ -9088,7 +9629,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="153.75" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="44"/>
@@ -9101,7 +9642,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="155.25" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="44"/>
@@ -9114,7 +9655,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -9127,7 +9668,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -9140,7 +9681,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -9153,7 +9694,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -9166,7 +9707,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -9179,7 +9720,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -9192,7 +9733,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -9205,7 +9746,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -9218,7 +9759,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -9231,7 +9772,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -9244,7 +9785,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -9258,36 +9799,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="34" width="33.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
-    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="33.42578125" style="34" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -9322,27 +9863,27 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="153" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -9351,25 +9892,25 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="177" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="35" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -9378,7 +9919,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
       <c r="C4" s="44"/>
@@ -9391,7 +9932,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="157.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
       <c r="B5" s="32"/>
       <c r="C5" s="44"/>
@@ -9404,7 +9945,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="44"/>
@@ -9417,7 +9958,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="117" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="44"/>
@@ -9430,7 +9971,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="107.25" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="44"/>
@@ -9443,7 +9984,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="127.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="44"/>
@@ -9456,7 +9997,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="124.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="44"/>
@@ -9469,7 +10010,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="44"/>
@@ -9482,7 +10023,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -9495,7 +10036,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="213.75" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="44"/>
@@ -9508,7 +10049,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="151.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="44"/>
@@ -9521,7 +10062,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="160.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="44"/>
@@ -9534,7 +10075,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="151.5" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="44"/>
@@ -9547,7 +10088,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="153.75" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="44"/>
@@ -9560,7 +10101,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="155.25" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="44"/>
@@ -9573,7 +10114,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -9586,7 +10127,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -9599,7 +10140,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -9612,7 +10153,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -9625,7 +10166,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -9638,7 +10179,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -9651,7 +10192,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -9664,7 +10205,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -9677,7 +10218,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -9690,7 +10231,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -9703,7 +10244,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -9717,35 +10258,35 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="34" width="40.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="34" width="32.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="34" width="19.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="34" width="36.140625" collapsed="true"/>
-    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="40.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="32.140625" style="34" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19" style="34" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="36.140625" style="34" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -9780,27 +10321,27 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -9809,27 +10350,27 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -9838,27 +10379,27 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C4" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>393</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>395</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -9867,27 +10408,27 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
@@ -9896,21 +10437,21 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
@@ -9923,27 +10464,27 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="116.25" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="47">
@@ -9952,21 +10493,21 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B8" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>381</v>
-      </c>
       <c r="D8" s="41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F8" s="37" t="s">
         <v>58</v>
@@ -9979,21 +10520,21 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="105.75" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F9" s="37" t="s">
         <v>58</v>
@@ -10006,88 +10547,88 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F10" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="47"/>
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C11" s="42" t="s">
+        <v>402</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="41" t="s">
         <v>404</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>406</v>
       </c>
       <c r="F11" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="47"/>
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C12" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="41" t="s">
         <v>405</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>407</v>
       </c>
       <c r="F12" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="47"/>
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -10100,7 +10641,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -10113,7 +10654,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="150.75" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -10126,7 +10667,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -10139,7 +10680,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
       <c r="B17" s="42"/>
       <c r="C17" s="32"/>
@@ -10152,7 +10693,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -10165,7 +10706,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -10178,7 +10719,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -10191,7 +10732,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -10204,7 +10745,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -10217,7 +10758,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -10230,7 +10771,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -10243,7 +10784,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -10256,7 +10797,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -10269,7 +10810,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -10282,7 +10823,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -10295,7 +10836,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -10310,40 +10851,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="Filter!A1" location="Filter!A1" ref="E9"/>
-    <hyperlink display="'Your Cart'!A1" location="'Your Cart'!A1" ref="E8"/>
-    <hyperlink display="Logout!A1" location="Logout!A1" ref="E6"/>
+    <hyperlink ref="E9" location="Filter!A1" display="Filter!A1"/>
+    <hyperlink ref="E8" location="'Your Cart'!A1" display="'Your Cart'!A1"/>
+    <hyperlink ref="E6" location="Logout!A1" display="Logout!A1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="34" width="40.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="34" width="32.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="34" width="19.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="34" width="55.42578125" collapsed="true"/>
-    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="40.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="32.140625" style="34" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19" style="34" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="55.42578125" style="34" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -10378,7 +10919,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>40</v>
       </c>
@@ -10400,16 +10941,20 @@
       <c r="G2" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="32"/>
+      <c r="H2" s="150" t="s">
+        <v>457</v>
+      </c>
       <c r="I2" s="47">
         <v>0</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="148" t="s">
+        <v>434</v>
+      </c>
+      <c r="K2" s="149" t="s">
         <v>436</v>
       </c>
-      <c r="K2" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>46</v>
       </c>
@@ -10429,18 +10974,22 @@
         <v>51</v>
       </c>
       <c r="G3" s="54" t="s">
-        <v>411</v>
-      </c>
-      <c r="H3" s="32"/>
+        <v>409</v>
+      </c>
+      <c r="H3" s="117" t="s">
+        <v>455</v>
+      </c>
       <c r="I3" s="47">
         <v>0</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="115" t="s">
+        <v>434</v>
+      </c>
+      <c r="K3" s="116" t="s">
         <v>436</v>
       </c>
-      <c r="K3" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>48</v>
       </c>
@@ -10460,18 +11009,22 @@
         <v>49</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>414</v>
-      </c>
-      <c r="H4" s="32"/>
+        <v>412</v>
+      </c>
+      <c r="H4" s="120" t="s">
+        <v>455</v>
+      </c>
       <c r="I4" s="47">
         <v>0</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="118" t="s">
+        <v>434</v>
+      </c>
+      <c r="K4" s="119" t="s">
         <v>436</v>
       </c>
-      <c r="K4" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>50</v>
       </c>
@@ -10491,18 +11044,22 @@
         <v>52</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>415</v>
-      </c>
-      <c r="H5" s="32"/>
+        <v>413</v>
+      </c>
+      <c r="H5" s="153" t="s">
+        <v>455</v>
+      </c>
       <c r="I5" s="47">
         <v>0</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="J5" s="151" t="s">
+        <v>434</v>
+      </c>
+      <c r="K5" s="152" t="s">
         <v>436</v>
       </c>
-      <c r="K5" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>55</v>
       </c>
@@ -10522,18 +11079,22 @@
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>416</v>
-      </c>
-      <c r="H6" s="32"/>
+        <v>414</v>
+      </c>
+      <c r="H6" s="123" t="s">
+        <v>455</v>
+      </c>
       <c r="I6" s="47">
         <v>0</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="121" t="s">
+        <v>434</v>
+      </c>
+      <c r="K6" s="122" t="s">
         <v>436</v>
       </c>
-      <c r="K6" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>59</v>
       </c>
@@ -10553,18 +11114,22 @@
         <v>70</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>417</v>
-      </c>
-      <c r="H7" s="32"/>
+        <v>415</v>
+      </c>
+      <c r="H7" s="156" t="s">
+        <v>455</v>
+      </c>
       <c r="I7" s="47">
         <v>0</v>
       </c>
-      <c r="J7" s="56" t="s">
+      <c r="J7" s="154" t="s">
+        <v>434</v>
+      </c>
+      <c r="K7" s="155" t="s">
         <v>436</v>
       </c>
-      <c r="K7" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>61</v>
       </c>
@@ -10581,21 +11146,25 @@
         <v>69</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="H8" s="32"/>
+        <v>410</v>
+      </c>
+      <c r="H8" s="159" t="s">
+        <v>455</v>
+      </c>
       <c r="I8" s="47">
         <v>0</v>
       </c>
-      <c r="J8" s="56" t="s">
+      <c r="J8" s="157" t="s">
+        <v>434</v>
+      </c>
+      <c r="K8" s="158" t="s">
         <v>436</v>
       </c>
-      <c r="K8" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="105.75" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>64</v>
       </c>
@@ -10603,30 +11172,34 @@
         <v>41</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>77</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>414</v>
-      </c>
-      <c r="H9" s="32"/>
+        <v>412</v>
+      </c>
+      <c r="H9" s="135" t="s">
+        <v>455</v>
+      </c>
       <c r="I9" s="47">
         <v>0</v>
       </c>
-      <c r="J9" s="56" t="s">
+      <c r="J9" s="133" t="s">
+        <v>434</v>
+      </c>
+      <c r="K9" s="134" t="s">
         <v>436</v>
       </c>
-      <c r="K9" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="101.25" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>72</v>
       </c>
@@ -10634,30 +11207,34 @@
         <v>41</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>77</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>414</v>
-      </c>
-      <c r="H10" s="32"/>
+        <v>412</v>
+      </c>
+      <c r="H10" s="144" t="s">
+        <v>455</v>
+      </c>
       <c r="I10" s="47">
         <v>0</v>
       </c>
-      <c r="J10" s="56" t="s">
+      <c r="J10" s="142" t="s">
+        <v>434</v>
+      </c>
+      <c r="K10" s="143" t="s">
         <v>436</v>
       </c>
-      <c r="K10" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>73</v>
       </c>
@@ -10665,7 +11242,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>77</v>
@@ -10674,21 +11251,25 @@
         <v>43</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>414</v>
-      </c>
-      <c r="H11" s="32"/>
+        <v>412</v>
+      </c>
+      <c r="H11" s="138" t="s">
+        <v>455</v>
+      </c>
       <c r="I11" s="47">
         <v>0</v>
       </c>
-      <c r="J11" s="56" t="s">
+      <c r="J11" s="136" t="s">
+        <v>434</v>
+      </c>
+      <c r="K11" s="137" t="s">
         <v>436</v>
       </c>
-      <c r="K11" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="112.5" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>76</v>
       </c>
@@ -10696,7 +11277,7 @@
         <v>41</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D12" s="35" t="s">
         <v>77</v>
@@ -10705,21 +11286,25 @@
         <v>43</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>414</v>
-      </c>
-      <c r="H12" s="55"/>
+        <v>412</v>
+      </c>
+      <c r="H12" s="147" t="s">
+        <v>455</v>
+      </c>
       <c r="I12" s="47">
         <v>0</v>
       </c>
-      <c r="J12" s="56" t="s">
+      <c r="J12" s="145" t="s">
+        <v>434</v>
+      </c>
+      <c r="K12" s="146" t="s">
         <v>436</v>
       </c>
-      <c r="K12" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="175.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>80</v>
       </c>
@@ -10741,16 +11326,20 @@
       <c r="G13" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="32"/>
+      <c r="H13" s="126" t="s">
+        <v>457</v>
+      </c>
       <c r="I13" s="47">
         <v>2</v>
       </c>
-      <c r="J13" s="56" t="s">
+      <c r="J13" s="124" t="s">
+        <v>434</v>
+      </c>
+      <c r="K13" s="125" t="s">
         <v>436</v>
       </c>
-      <c r="K13" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>83</v>
       </c>
@@ -10772,18 +11361,22 @@
       <c r="G14" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="32"/>
+      <c r="H14" s="141" t="s">
+        <v>460</v>
+      </c>
       <c r="I14" s="47">
         <v>2</v>
       </c>
-      <c r="J14" s="56" t="s">
+      <c r="J14" s="139" t="s">
+        <v>434</v>
+      </c>
+      <c r="K14" s="140" t="s">
         <v>436</v>
       </c>
-      <c r="K14" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="150.75" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B15" s="42" t="s">
         <v>41</v>
@@ -10795,32 +11388,36 @@
         <v>77</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F15" s="37" t="s">
         <v>44</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="H15" s="32"/>
+        <v>430</v>
+      </c>
+      <c r="H15" s="129" t="s">
+        <v>455</v>
+      </c>
       <c r="I15" s="47">
         <v>1</v>
       </c>
-      <c r="J15" s="56" t="s">
+      <c r="J15" s="127" t="s">
+        <v>434</v>
+      </c>
+      <c r="K15" s="128" t="s">
         <v>436</v>
       </c>
-      <c r="K15" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B16" s="42" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D16" s="41" t="s">
         <v>77</v>
@@ -10832,20 +11429,24 @@
         <v>44</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>434</v>
-      </c>
-      <c r="H16" s="32"/>
+        <v>432</v>
+      </c>
+      <c r="H16" s="108" t="s">
+        <v>457</v>
+      </c>
       <c r="I16" s="47">
         <v>1</v>
       </c>
-      <c r="J16" s="57" t="s">
-        <v>435</v>
-      </c>
-      <c r="K16" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J16" s="106" t="s">
+        <v>433</v>
+      </c>
+      <c r="K16" s="107" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B17" s="42" t="s">
         <v>41</v>
@@ -10865,18 +11466,22 @@
       <c r="G17" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="32"/>
+      <c r="H17" s="132" t="s">
+        <v>459</v>
+      </c>
       <c r="I17" s="47">
         <v>1</v>
       </c>
-      <c r="J17" s="56" t="s">
+      <c r="J17" s="130" t="s">
+        <v>434</v>
+      </c>
+      <c r="K17" s="131" t="s">
         <v>436</v>
       </c>
-      <c r="K17" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B18" s="42" t="s">
         <v>41</v>
@@ -10896,76 +11501,84 @@
       <c r="G18" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="32"/>
+      <c r="H18" s="114" t="s">
+        <v>458</v>
+      </c>
       <c r="I18" s="47">
         <v>1</v>
       </c>
-      <c r="J18" s="56" t="s">
+      <c r="J18" s="112" t="s">
+        <v>434</v>
+      </c>
+      <c r="K18" s="113" t="s">
         <v>436</v>
       </c>
-      <c r="K18" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="168" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B19" s="42" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>87</v>
+        <v>453</v>
       </c>
       <c r="D19" s="41" t="s">
         <v>77</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="32"/>
+        <v>454</v>
+      </c>
+      <c r="H19" s="111" t="s">
+        <v>455</v>
+      </c>
       <c r="I19" s="47">
         <v>1</v>
       </c>
-      <c r="J19" s="56" t="s">
+      <c r="J19" s="109" t="s">
+        <v>434</v>
+      </c>
+      <c r="K19" s="110" t="s">
         <v>436</v>
       </c>
-      <c r="K19" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B20" s="42" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D20" s="41" t="s">
         <v>77</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F20" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="35" t="s">
         <v>95</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>97</v>
       </c>
       <c r="H20" s="32"/>
       <c r="I20" s="47">
         <v>2</v>
       </c>
-      <c r="J20" s="58"/>
+      <c r="J20" s="55"/>
       <c r="K20" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -10978,7 +11591,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -10991,7 +11604,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -11004,7 +11617,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -11017,7 +11630,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -11030,7 +11643,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -11043,7 +11656,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -11056,7 +11669,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -11069,7 +11682,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -11083,36 +11696,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="34" width="40.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="34" width="34.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="61" width="19.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
-    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="40.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.5703125" style="58" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -11147,160 +11760,176 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="120" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="32"/>
+        <v>92</v>
+      </c>
+      <c r="H2" s="99" t="s">
+        <v>451</v>
+      </c>
       <c r="I2" s="47">
         <v>0</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="J2" s="97" t="s">
+        <v>434</v>
+      </c>
+      <c r="K2" s="98" t="s">
         <v>436</v>
       </c>
-      <c r="K2" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="138" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" s="32"/>
+        <v>104</v>
+      </c>
+      <c r="H3" s="96" t="s">
+        <v>450</v>
+      </c>
       <c r="I3" s="47">
         <v>1</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="94" t="s">
+        <v>434</v>
+      </c>
+      <c r="K3" s="95" t="s">
         <v>436</v>
       </c>
-      <c r="K3" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="136.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="H4" s="32"/>
+        <v>106</v>
+      </c>
+      <c r="H4" s="105" t="s">
+        <v>452</v>
+      </c>
       <c r="I4" s="50">
         <v>0</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="103" t="s">
+        <v>434</v>
+      </c>
+      <c r="K4" s="104" t="s">
         <v>436</v>
       </c>
-      <c r="K4" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="156" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="H5" s="32"/>
+        <v>114</v>
+      </c>
+      <c r="H5" s="102" t="s">
+        <v>452</v>
+      </c>
       <c r="I5" s="50">
         <v>2</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="100" t="s">
+        <v>434</v>
+      </c>
+      <c r="K5" s="101" t="s">
         <v>436</v>
       </c>
-      <c r="K5" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F6" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="35" t="s">
         <v>95</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>97</v>
       </c>
       <c r="H6" s="49"/>
       <c r="I6" s="50">
         <v>2</v>
       </c>
-      <c r="J6" s="58"/>
+      <c r="J6" s="55"/>
       <c r="K6" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -11310,10 +11939,10 @@
       <c r="G7" s="35"/>
       <c r="H7" s="32"/>
       <c r="I7" s="47"/>
-      <c r="J7" s="58"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -11323,10 +11952,10 @@
       <c r="G8" s="35"/>
       <c r="H8" s="32"/>
       <c r="I8" s="47"/>
-      <c r="J8" s="58"/>
+      <c r="J8" s="55"/>
       <c r="K8" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -11336,10 +11965,10 @@
       <c r="G9" s="35"/>
       <c r="H9" s="32"/>
       <c r="I9" s="47"/>
-      <c r="J9" s="58"/>
+      <c r="J9" s="55"/>
       <c r="K9" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -11349,10 +11978,10 @@
       <c r="G10" s="41"/>
       <c r="H10" s="32"/>
       <c r="I10" s="47"/>
-      <c r="J10" s="58"/>
+      <c r="J10" s="55"/>
       <c r="K10" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -11362,10 +11991,10 @@
       <c r="G11" s="41"/>
       <c r="H11" s="32"/>
       <c r="I11" s="47"/>
-      <c r="J11" s="58"/>
+      <c r="J11" s="55"/>
       <c r="K11" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -11375,10 +12004,10 @@
       <c r="G12" s="41"/>
       <c r="H12" s="32"/>
       <c r="I12" s="47"/>
-      <c r="J12" s="58"/>
+      <c r="J12" s="55"/>
       <c r="K12" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -11388,10 +12017,10 @@
       <c r="G13" s="35"/>
       <c r="H13" s="32"/>
       <c r="I13" s="47"/>
-      <c r="J13" s="58"/>
+      <c r="J13" s="55"/>
       <c r="K13" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -11401,10 +12030,10 @@
       <c r="G14" s="35"/>
       <c r="H14" s="32"/>
       <c r="I14" s="47"/>
-      <c r="J14" s="58"/>
+      <c r="J14" s="55"/>
       <c r="K14" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -11414,10 +12043,10 @@
       <c r="G15" s="35"/>
       <c r="H15" s="32"/>
       <c r="I15" s="47"/>
-      <c r="J15" s="58"/>
+      <c r="J15" s="55"/>
       <c r="K15" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -11427,10 +12056,10 @@
       <c r="G16" s="35"/>
       <c r="H16" s="32"/>
       <c r="I16" s="47"/>
-      <c r="J16" s="59"/>
+      <c r="J16" s="56"/>
       <c r="K16" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -11440,10 +12069,10 @@
       <c r="G17" s="35"/>
       <c r="H17" s="32"/>
       <c r="I17" s="47"/>
-      <c r="J17" s="58"/>
+      <c r="J17" s="55"/>
       <c r="K17" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -11453,10 +12082,10 @@
       <c r="G18" s="35"/>
       <c r="H18" s="32"/>
       <c r="I18" s="47"/>
-      <c r="J18" s="58"/>
+      <c r="J18" s="55"/>
       <c r="K18" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -11466,10 +12095,10 @@
       <c r="G19" s="35"/>
       <c r="H19" s="32"/>
       <c r="I19" s="47"/>
-      <c r="J19" s="58"/>
+      <c r="J19" s="55"/>
       <c r="K19" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -11479,10 +12108,10 @@
       <c r="G20" s="35"/>
       <c r="H20" s="32"/>
       <c r="I20" s="47"/>
-      <c r="J20" s="58"/>
+      <c r="J20" s="55"/>
       <c r="K20" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -11492,10 +12121,10 @@
       <c r="G21" s="35"/>
       <c r="H21" s="32"/>
       <c r="I21" s="47"/>
-      <c r="J21" s="60"/>
+      <c r="J21" s="57"/>
       <c r="K21" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -11505,10 +12134,10 @@
       <c r="G22" s="35"/>
       <c r="H22" s="32"/>
       <c r="I22" s="47"/>
-      <c r="J22" s="60"/>
+      <c r="J22" s="57"/>
       <c r="K22" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -11518,10 +12147,10 @@
       <c r="G23" s="35"/>
       <c r="H23" s="32"/>
       <c r="I23" s="47"/>
-      <c r="J23" s="60"/>
+      <c r="J23" s="57"/>
       <c r="K23" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -11531,10 +12160,10 @@
       <c r="G24" s="35"/>
       <c r="H24" s="32"/>
       <c r="I24" s="47"/>
-      <c r="J24" s="60"/>
+      <c r="J24" s="57"/>
       <c r="K24" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -11544,10 +12173,10 @@
       <c r="G25" s="35"/>
       <c r="H25" s="32"/>
       <c r="I25" s="47"/>
-      <c r="J25" s="60"/>
+      <c r="J25" s="57"/>
       <c r="K25" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -11557,10 +12186,10 @@
       <c r="G26" s="35"/>
       <c r="H26" s="32"/>
       <c r="I26" s="47"/>
-      <c r="J26" s="60"/>
+      <c r="J26" s="57"/>
       <c r="K26" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -11570,10 +12199,10 @@
       <c r="G27" s="35"/>
       <c r="H27" s="32"/>
       <c r="I27" s="47"/>
-      <c r="J27" s="60"/>
+      <c r="J27" s="57"/>
       <c r="K27" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -11583,10 +12212,10 @@
       <c r="G28" s="35"/>
       <c r="H28" s="32"/>
       <c r="I28" s="47"/>
-      <c r="J28" s="60"/>
+      <c r="J28" s="57"/>
       <c r="K28" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -11596,40 +12225,40 @@
       <c r="G29" s="35"/>
       <c r="H29" s="32"/>
       <c r="I29" s="47"/>
-      <c r="J29" s="60"/>
+      <c r="J29" s="57"/>
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="34" width="40.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="34" width="32.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
-    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="40.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="32.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -11664,131 +12293,147 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="96.75" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="H2" s="32"/>
+        <v>124</v>
+      </c>
+      <c r="H2" s="84" t="s">
+        <v>448</v>
+      </c>
       <c r="I2" s="47">
         <v>1</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="J2" s="82" t="s">
+        <v>434</v>
+      </c>
+      <c r="K2" s="83" t="s">
         <v>436</v>
       </c>
-      <c r="K2" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="99" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="H3" s="32"/>
+        <v>126</v>
+      </c>
+      <c r="H3" s="87" t="s">
+        <v>449</v>
+      </c>
       <c r="I3" s="47">
         <v>1</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="85" t="s">
+        <v>434</v>
+      </c>
+      <c r="K3" s="86" t="s">
         <v>436</v>
       </c>
-      <c r="K3" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="92.25" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" s="32"/>
+        <v>124</v>
+      </c>
+      <c r="H4" s="90" t="s">
+        <v>448</v>
+      </c>
       <c r="I4" s="47">
-        <v>1</v>
-      </c>
-      <c r="J4" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="88" t="s">
+        <v>434</v>
+      </c>
+      <c r="K4" s="89" t="s">
         <v>436</v>
       </c>
-      <c r="K4" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="111.75" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5" s="32"/>
+        <v>126</v>
+      </c>
+      <c r="H5" s="93" t="s">
+        <v>449</v>
+      </c>
       <c r="I5" s="47">
-        <v>1</v>
-      </c>
-      <c r="J5" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="91" t="s">
+        <v>434</v>
+      </c>
+      <c r="K5" s="92" t="s">
         <v>436</v>
       </c>
-      <c r="K5" s="32"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="44"/>
@@ -11801,7 +12446,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -11814,7 +12459,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -11827,7 +12472,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -11840,7 +12485,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -11853,7 +12498,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -11866,7 +12511,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -11879,7 +12524,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -11892,7 +12537,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -11905,7 +12550,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -11918,7 +12563,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -11931,7 +12576,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -11944,7 +12589,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -11957,7 +12602,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -11970,7 +12615,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -11983,7 +12628,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -11996,7 +12641,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -12009,7 +12654,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -12022,7 +12667,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -12035,7 +12680,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -12048,7 +12693,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -12061,7 +12706,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -12074,7 +12719,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -12087,7 +12732,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -12101,35 +12746,35 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="34" width="40.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="34" width="33.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
-    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="40.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="33.28515625" style="34" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -12164,238 +12809,252 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="96.75" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>439</v>
-      </c>
-      <c r="H2" s="63"/>
+        <v>437</v>
+      </c>
+      <c r="H2" s="72" t="s">
+        <v>445</v>
+      </c>
       <c r="I2" s="47">
         <v>0</v>
       </c>
-      <c r="J2" s="85" t="s">
+      <c r="J2" s="70" t="s">
+        <v>434</v>
+      </c>
+      <c r="K2" s="71" t="s">
         <v>436</v>
       </c>
-      <c r="K2" s="86" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="99" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B3" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>142</v>
-      </c>
       <c r="D3" s="41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="65">
+        <v>139</v>
+      </c>
+      <c r="H3" s="75" t="s">
+        <v>445</v>
+      </c>
+      <c r="I3" s="60">
         <v>0</v>
       </c>
-      <c r="J3" s="87" t="s">
+      <c r="J3" s="73" t="s">
+        <v>434</v>
+      </c>
+      <c r="K3" s="74" t="s">
         <v>436</v>
       </c>
-      <c r="K3" s="88" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="92.25" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="H4" s="32"/>
+        <v>139</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>445</v>
+      </c>
       <c r="I4" s="47">
         <v>0</v>
       </c>
-      <c r="J4" s="83" t="s">
+      <c r="J4" s="67" t="s">
+        <v>434</v>
+      </c>
+      <c r="K4" s="68" t="s">
         <v>436</v>
       </c>
-      <c r="K4" s="84" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="115.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="G5" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>441</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="H5" s="32"/>
+      <c r="H5" s="66" t="s">
+        <v>445</v>
+      </c>
       <c r="I5" s="47">
         <v>0</v>
       </c>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="64" t="s">
+        <v>434</v>
+      </c>
+      <c r="K5" s="65" t="s">
         <v>436</v>
       </c>
-      <c r="K5" s="82" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="139.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>140</v>
-      </c>
       <c r="C6" s="44" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="H6" s="32"/>
+        <v>139</v>
+      </c>
+      <c r="H6" s="63" t="s">
+        <v>445</v>
+      </c>
       <c r="I6" s="47">
         <v>0</v>
       </c>
-      <c r="J6" s="79" t="s">
+      <c r="J6" s="61" t="s">
+        <v>434</v>
+      </c>
+      <c r="K6" s="62" t="s">
         <v>436</v>
       </c>
-      <c r="K6" s="80" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>440</v>
-      </c>
-      <c r="H7" s="32"/>
+        <v>438</v>
+      </c>
+      <c r="H7" s="81" t="s">
+        <v>447</v>
+      </c>
       <c r="I7" s="47">
         <v>1</v>
       </c>
-      <c r="J7" s="93" t="s">
-        <v>435</v>
-      </c>
-      <c r="K7" s="94" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="79" t="s">
+        <v>433</v>
+      </c>
+      <c r="K7" s="80" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F8" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>440</v>
-      </c>
-      <c r="H8" s="32"/>
+        <v>438</v>
+      </c>
+      <c r="H8" s="78" t="s">
+        <v>446</v>
+      </c>
       <c r="I8" s="47">
         <v>1</v>
       </c>
-      <c r="J8" s="89" t="s">
+      <c r="J8" s="76" t="s">
+        <v>434</v>
+      </c>
+      <c r="K8" s="77" t="s">
         <v>436</v>
       </c>
-      <c r="K8" s="90" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -12408,10 +13067,10 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
-      <c r="C10" s="64"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="41"/>
       <c r="E10" s="41"/>
       <c r="F10" s="43"/>
@@ -12421,7 +13080,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -12434,7 +13093,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -12447,7 +13106,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -12460,7 +13119,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -12473,7 +13132,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -12486,7 +13145,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -12499,7 +13158,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -12512,7 +13171,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -12525,7 +13184,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -12538,7 +13197,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -12551,7 +13210,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -12564,7 +13223,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -12577,7 +13236,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -12590,7 +13249,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -12603,7 +13262,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -12616,7 +13275,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -12629,7 +13288,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -12642,7 +13301,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -12655,7 +13314,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -12669,36 +13328,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="34" width="26.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
-    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -12733,27 +13392,27 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="96.75" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -12762,27 +13421,27 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="99" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -12791,27 +13450,27 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="92.25" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -12820,27 +13479,27 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="115.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="44" t="s">
+      <c r="E5" s="35" t="s">
         <v>168</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>170</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
@@ -12849,27 +13508,27 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C6" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="35" t="s">
         <v>171</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>173</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
@@ -12878,7 +13537,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="44"/>
@@ -12891,7 +13550,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -12904,7 +13563,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -12917,7 +13576,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -12930,7 +13589,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -12943,7 +13602,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -12956,7 +13615,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -12969,7 +13628,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -12982,7 +13641,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -12995,7 +13654,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -13008,7 +13667,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -13021,7 +13680,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -13034,7 +13693,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -13047,7 +13706,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -13060,7 +13719,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -13073,7 +13732,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -13086,7 +13745,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -13099,7 +13758,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -13112,7 +13771,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -13125,7 +13784,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -13138,7 +13797,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -13151,7 +13810,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -13164,7 +13823,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -13178,36 +13837,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="34" width="30.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
-    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -13242,27 +13901,27 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="116.25" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -13271,27 +13930,27 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="117.75" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C3" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="35" t="s">
         <v>185</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>187</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -13300,27 +13959,27 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -13329,27 +13988,27 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="142.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>180</v>
-      </c>
       <c r="C5" s="44" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
@@ -13358,27 +14017,27 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>192</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>181</v>
-      </c>
       <c r="E6" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
@@ -13387,7 +14046,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="44"/>
@@ -13400,7 +14059,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -13413,7 +14072,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -13426,7 +14085,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -13439,7 +14098,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -13452,7 +14111,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -13465,7 +14124,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -13478,7 +14137,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -13491,7 +14150,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -13504,7 +14163,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -13517,7 +14176,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -13530,7 +14189,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -13543,7 +14202,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -13556,7 +14215,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -13569,7 +14228,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -13582,7 +14241,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -13595,7 +14254,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -13608,7 +14267,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -13621,7 +14280,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -13634,7 +14293,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -13647,7 +14306,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -13660,7 +14319,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -13673,7 +14332,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -13687,34 +14346,34 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="34" width="32.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
-    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="32.42578125" style="34" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -13749,27 +14408,27 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="116.25" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B2" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="35" t="s">
         <v>202</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>204</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -13778,27 +14437,27 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="117.75" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -13807,27 +14466,27 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -13836,27 +14495,27 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="142.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>202</v>
-      </c>
       <c r="C5" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
@@ -13865,27 +14524,27 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
@@ -13894,27 +14553,27 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C7" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="35" t="s">
         <v>219</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>221</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="47">
@@ -13923,7 +14582,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -13936,7 +14595,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -13949,7 +14608,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -13962,7 +14621,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -13975,7 +14634,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -13988,7 +14647,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -14001,7 +14660,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -14014,7 +14673,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -14027,7 +14686,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -14040,7 +14699,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -14053,7 +14712,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -14066,7 +14725,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -14079,7 +14738,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -14092,7 +14751,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -14105,7 +14764,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -14118,7 +14777,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -14131,7 +14790,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -14144,7 +14803,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -14157,7 +14816,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -14170,7 +14829,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -14183,7 +14842,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -14196,7 +14855,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -14210,36 +14869,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="40" zoomScaleNormal="40">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="34" width="31.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
-    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="31.28515625" style="34" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -14274,18 +14933,18 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="116.25" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>43</v>
@@ -14294,7 +14953,7 @@
         <v>44</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -14303,27 +14962,27 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="117.75" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C3" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="35" t="s">
         <v>233</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>235</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -14332,27 +14991,27 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -14361,27 +15020,27 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="142.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="33" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
@@ -14390,27 +15049,27 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>229</v>
-      </c>
       <c r="C6" s="44" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
@@ -14419,27 +15078,27 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="47">
@@ -14448,27 +15107,27 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F8" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="47">
@@ -14477,27 +15136,27 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="127.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F9" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="47">
@@ -14506,27 +15165,27 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F10" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="47">
@@ -14535,7 +15194,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -14548,7 +15207,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -14561,7 +15220,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -14574,7 +15233,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -14587,7 +15246,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -14600,7 +15259,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -14613,7 +15272,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -14626,7 +15285,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -14639,7 +15298,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -14652,7 +15311,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -14665,7 +15324,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -14678,7 +15337,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -14691,7 +15350,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -14704,7 +15363,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -14717,7 +15376,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -14730,7 +15389,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -14743,7 +15402,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -14756,7 +15415,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -14769,7 +15428,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -14783,7 +15442,7 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/manual/Swag Labs-Test Scenarios.xlsx
+++ b/src/test/manual/Swag Labs-Test Scenarios.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="469">
   <si>
     <t>Project Name</t>
   </si>
@@ -2369,29 +2369,6 @@
     <t xml:space="preserve">1. Open the Application URL, "https://www.saucedemo.com", in any  suported web Browser                                     2. User is logged in                                            3. Entered to the product page                    </t>
   </si>
   <si>
-    <t>1. Compare the actual price with expected result</t>
-  </si>
-  <si>
-    <t>The Price should be $29.99</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The title should be </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Sauce Labs Backpack"</t>
-    </r>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Validate the products </t>
     </r>
@@ -2702,9 +2679,6 @@
       </rPr>
       <t xml:space="preserve"> button                                                                                                          </t>
     </r>
-  </si>
-  <si>
-    <t>1. Compare the product title with expected result</t>
   </si>
   <si>
     <t>TC_AC_01</t>
@@ -5760,13 +5734,61 @@
   </si>
   <si>
     <t>Placeholder exist: true</t>
+  </si>
+  <si>
+    <t>The title should be same as with entered.</t>
+  </si>
+  <si>
+    <t>From Home page: 
+Sauce Labs Backpack
+From product display page: 
+Sauce Labs Backpack</t>
+  </si>
+  <si>
+    <t>1. Click on first product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the Application URL, "https://www.saucedemo.com", in any  suported web Browser                                     2. User is logged in                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the Application URL, "https://www.saucedemo.com", in any  suported web Browser                                                    </t>
+  </si>
+  <si>
+    <t>1. Click on last product</t>
+  </si>
+  <si>
+    <t>From Home page: 
+Test.allTheThings() T-Shirt (Red)
+From product display page: 
+Test.allTheThings() T-Shirt (Red)</t>
+  </si>
+  <si>
+    <t>The price should be same as with entered.</t>
+  </si>
+  <si>
+    <t>TC_PD_06</t>
+  </si>
+  <si>
+    <t>TC_PD_07</t>
+  </si>
+  <si>
+    <t>From Home page: 
+$29.99
+From product display page: 
+$29.99</t>
+  </si>
+  <si>
+    <t>From Home page: 
+$15.99
+From product display page: 
+$15.99</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="128" x14ac:knownFonts="1">
+  <fonts count="140" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6144,66 +6166,6 @@
     </font>
     <font>
       <sz val="72"/>
-      <color indexed="58"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="72"/>
-      <color indexed="58"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="72"/>
-      <color indexed="58"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="72"/>
-      <color indexed="58"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="72"/>
       <color indexed="16"/>
       <name val="Calibri"/>
     </font>
@@ -6472,8 +6434,128 @@
       <color indexed="12"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6535,26 +6617,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
@@ -6667,8 +6729,48 @@
         <fgColor indexed="42"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="43">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -7288,6 +7390,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7295,7 +7457,7 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7768,6 +7930,42 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="127" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="39" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="40" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="41" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="42" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8072,7 +8270,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView topLeftCell="B10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -8096,10 +8294,10 @@
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="161"/>
+      <c r="C2" s="173"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
@@ -8129,10 +8327,10 @@
       <c r="A5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="162" t="s">
+      <c r="B5" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="161"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
@@ -8247,7 +8445,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -8271,7 +8469,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -8292,7 +8490,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -8316,7 +8514,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C20" s="6">
         <v>1</v>
@@ -8331,7 +8529,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C21" s="9">
         <v>1</v>
@@ -8343,7 +8541,7 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -8575,25 +8773,25 @@
     </row>
     <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -8604,25 +8802,25 @@
     </row>
     <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -8633,25 +8831,25 @@
     </row>
     <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -8662,25 +8860,25 @@
     </row>
     <row r="5" spans="1:11" s="33" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
@@ -8691,25 +8889,25 @@
     </row>
     <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
@@ -8720,25 +8918,25 @@
     </row>
     <row r="7" spans="1:11" s="33" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="47">
@@ -8749,25 +8947,25 @@
     </row>
     <row r="8" spans="1:11" s="33" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="47">
@@ -8778,25 +8976,25 @@
     </row>
     <row r="9" spans="1:11" s="33" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="47">
@@ -8807,25 +9005,25 @@
     </row>
     <row r="10" spans="1:11" s="33" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="47">
@@ -8836,25 +9034,25 @@
     </row>
     <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="47">
@@ -8865,25 +9063,25 @@
     </row>
     <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F12" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="47">
@@ -8894,25 +9092,25 @@
     </row>
     <row r="13" spans="1:11" s="33" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="B13" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>257</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>302</v>
-      </c>
       <c r="F13" s="37" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="47">
@@ -8923,25 +9121,25 @@
     </row>
     <row r="14" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="47">
@@ -8952,25 +9150,25 @@
     </row>
     <row r="15" spans="1:11" s="33" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="G15" s="35" t="s">
         <v>307</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>313</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>257</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>311</v>
       </c>
       <c r="H15" s="32"/>
       <c r="I15" s="47">
@@ -8981,25 +9179,25 @@
     </row>
     <row r="16" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="47">
@@ -9010,25 +9208,25 @@
     </row>
     <row r="17" spans="1:11" s="33" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E17" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="F17" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="G17" s="35" t="s">
         <v>312</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>316</v>
       </c>
       <c r="H17" s="32"/>
       <c r="I17" s="47">
@@ -9039,25 +9237,25 @@
     </row>
     <row r="18" spans="1:11" s="33" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H18" s="32"/>
       <c r="I18" s="47">
@@ -9276,25 +9474,25 @@
     </row>
     <row r="2" spans="1:11" s="33" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -9305,25 +9503,25 @@
     </row>
     <row r="3" spans="1:11" s="33" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C3" s="44" t="s">
+        <v>333</v>
+      </c>
+      <c r="D3" s="41" t="s">
         <v>337</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>341</v>
-      </c>
       <c r="E3" s="35" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -9334,25 +9532,25 @@
     </row>
     <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -9363,25 +9561,25 @@
     </row>
     <row r="5" spans="1:11" s="33" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
@@ -9392,25 +9590,25 @@
     </row>
     <row r="6" spans="1:11" s="33" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
@@ -9421,25 +9619,25 @@
     </row>
     <row r="7" spans="1:11" s="33" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="47">
@@ -9450,25 +9648,25 @@
     </row>
     <row r="8" spans="1:11" s="33" customFormat="1" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F8" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="47">
@@ -9479,25 +9677,25 @@
     </row>
     <row r="9" spans="1:11" s="33" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F9" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="47">
@@ -9508,25 +9706,25 @@
     </row>
     <row r="10" spans="1:11" s="33" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F10" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="47">
@@ -9537,25 +9735,25 @@
     </row>
     <row r="11" spans="1:11" s="33" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F11" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="47">
@@ -9865,25 +10063,25 @@
     </row>
     <row r="2" spans="1:11" s="33" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -9894,23 +10092,23 @@
     </row>
     <row r="3" spans="1:11" s="33" customFormat="1" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B3" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>375</v>
-      </c>
       <c r="D3" s="41" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="35" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -10323,25 +10521,25 @@
     </row>
     <row r="2" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -10352,25 +10550,25 @@
     </row>
     <row r="3" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -10381,25 +10579,25 @@
     </row>
     <row r="4" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -10410,25 +10608,25 @@
     </row>
     <row r="5" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B5" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>377</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>381</v>
-      </c>
       <c r="D5" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
@@ -10439,19 +10637,19 @@
     </row>
     <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
@@ -10466,25 +10664,25 @@
     </row>
     <row r="7" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="47">
@@ -10495,19 +10693,19 @@
     </row>
     <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F8" s="37" t="s">
         <v>58</v>
@@ -10522,19 +10720,19 @@
     </row>
     <row r="9" spans="1:11" s="33" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F9" s="37" t="s">
         <v>58</v>
@@ -10549,25 +10747,25 @@
     </row>
     <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F10" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="47"/>
@@ -10576,25 +10774,25 @@
     </row>
     <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="C11" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="B11" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>402</v>
-      </c>
       <c r="D11" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F11" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="47"/>
@@ -10603,25 +10801,25 @@
     </row>
     <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="C12" s="42" t="s">
         <v>399</v>
       </c>
-      <c r="B12" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>403</v>
-      </c>
       <c r="D12" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F12" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="47"/>
@@ -10864,7 +11062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -10941,17 +11139,17 @@
       <c r="G2" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="150" t="s">
-        <v>457</v>
+      <c r="H2" s="138" t="s">
+        <v>453</v>
       </c>
       <c r="I2" s="47">
         <v>0</v>
       </c>
-      <c r="J2" s="148" t="s">
-        <v>434</v>
-      </c>
-      <c r="K2" s="149" t="s">
-        <v>436</v>
+      <c r="J2" s="136" t="s">
+        <v>430</v>
+      </c>
+      <c r="K2" s="137" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10974,19 +11172,19 @@
         <v>51</v>
       </c>
       <c r="G3" s="54" t="s">
-        <v>409</v>
-      </c>
-      <c r="H3" s="117" t="s">
-        <v>455</v>
+        <v>405</v>
+      </c>
+      <c r="H3" s="105" t="s">
+        <v>451</v>
       </c>
       <c r="I3" s="47">
         <v>0</v>
       </c>
-      <c r="J3" s="115" t="s">
-        <v>434</v>
-      </c>
-      <c r="K3" s="116" t="s">
-        <v>436</v>
+      <c r="J3" s="103" t="s">
+        <v>430</v>
+      </c>
+      <c r="K3" s="104" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11009,19 +11207,19 @@
         <v>49</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="H4" s="120" t="s">
-        <v>455</v>
+        <v>408</v>
+      </c>
+      <c r="H4" s="108" t="s">
+        <v>451</v>
       </c>
       <c r="I4" s="47">
         <v>0</v>
       </c>
-      <c r="J4" s="118" t="s">
-        <v>434</v>
-      </c>
-      <c r="K4" s="119" t="s">
-        <v>436</v>
+      <c r="J4" s="106" t="s">
+        <v>430</v>
+      </c>
+      <c r="K4" s="107" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11044,19 +11242,19 @@
         <v>52</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H5" s="153" t="s">
-        <v>455</v>
+        <v>409</v>
+      </c>
+      <c r="H5" s="141" t="s">
+        <v>451</v>
       </c>
       <c r="I5" s="47">
         <v>0</v>
       </c>
-      <c r="J5" s="151" t="s">
-        <v>434</v>
-      </c>
-      <c r="K5" s="152" t="s">
-        <v>436</v>
+      <c r="J5" s="139" t="s">
+        <v>430</v>
+      </c>
+      <c r="K5" s="140" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11079,19 +11277,19 @@
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>414</v>
-      </c>
-      <c r="H6" s="123" t="s">
-        <v>455</v>
+        <v>410</v>
+      </c>
+      <c r="H6" s="111" t="s">
+        <v>451</v>
       </c>
       <c r="I6" s="47">
         <v>0</v>
       </c>
-      <c r="J6" s="121" t="s">
-        <v>434</v>
-      </c>
-      <c r="K6" s="122" t="s">
-        <v>436</v>
+      <c r="J6" s="109" t="s">
+        <v>430</v>
+      </c>
+      <c r="K6" s="110" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11114,19 +11312,19 @@
         <v>70</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>415</v>
-      </c>
-      <c r="H7" s="156" t="s">
-        <v>455</v>
+        <v>411</v>
+      </c>
+      <c r="H7" s="144" t="s">
+        <v>451</v>
       </c>
       <c r="I7" s="47">
         <v>0</v>
       </c>
-      <c r="J7" s="154" t="s">
-        <v>434</v>
-      </c>
-      <c r="K7" s="155" t="s">
-        <v>436</v>
+      <c r="J7" s="142" t="s">
+        <v>430</v>
+      </c>
+      <c r="K7" s="143" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11146,22 +11344,22 @@
         <v>69</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>410</v>
-      </c>
-      <c r="H8" s="159" t="s">
-        <v>455</v>
+        <v>406</v>
+      </c>
+      <c r="H8" s="147" t="s">
+        <v>451</v>
       </c>
       <c r="I8" s="47">
         <v>0</v>
       </c>
-      <c r="J8" s="157" t="s">
-        <v>434</v>
-      </c>
-      <c r="K8" s="158" t="s">
-        <v>436</v>
+      <c r="J8" s="145" t="s">
+        <v>430</v>
+      </c>
+      <c r="K8" s="146" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="33" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11172,31 +11370,31 @@
         <v>41</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>77</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="H9" s="135" t="s">
-        <v>455</v>
+        <v>408</v>
+      </c>
+      <c r="H9" s="123" t="s">
+        <v>451</v>
       </c>
       <c r="I9" s="47">
         <v>0</v>
       </c>
-      <c r="J9" s="133" t="s">
-        <v>434</v>
-      </c>
-      <c r="K9" s="134" t="s">
-        <v>436</v>
+      <c r="J9" s="121" t="s">
+        <v>430</v>
+      </c>
+      <c r="K9" s="122" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="33" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11207,31 +11405,31 @@
         <v>41</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>77</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="H10" s="144" t="s">
-        <v>455</v>
+        <v>408</v>
+      </c>
+      <c r="H10" s="132" t="s">
+        <v>451</v>
       </c>
       <c r="I10" s="47">
         <v>0</v>
       </c>
-      <c r="J10" s="142" t="s">
-        <v>434</v>
-      </c>
-      <c r="K10" s="143" t="s">
-        <v>436</v>
+      <c r="J10" s="130" t="s">
+        <v>430</v>
+      </c>
+      <c r="K10" s="131" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11242,7 +11440,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>77</v>
@@ -11251,22 +11449,22 @@
         <v>43</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="H11" s="138" t="s">
-        <v>455</v>
+        <v>408</v>
+      </c>
+      <c r="H11" s="126" t="s">
+        <v>451</v>
       </c>
       <c r="I11" s="47">
         <v>0</v>
       </c>
-      <c r="J11" s="136" t="s">
-        <v>434</v>
-      </c>
-      <c r="K11" s="137" t="s">
-        <v>436</v>
+      <c r="J11" s="124" t="s">
+        <v>430</v>
+      </c>
+      <c r="K11" s="125" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="33" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11277,7 +11475,7 @@
         <v>41</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D12" s="35" t="s">
         <v>77</v>
@@ -11286,22 +11484,22 @@
         <v>43</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="H12" s="147" t="s">
-        <v>455</v>
+        <v>408</v>
+      </c>
+      <c r="H12" s="135" t="s">
+        <v>451</v>
       </c>
       <c r="I12" s="47">
         <v>0</v>
       </c>
-      <c r="J12" s="145" t="s">
-        <v>434</v>
-      </c>
-      <c r="K12" s="146" t="s">
-        <v>436</v>
+      <c r="J12" s="133" t="s">
+        <v>430</v>
+      </c>
+      <c r="K12" s="134" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="33" customFormat="1" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11326,17 +11524,17 @@
       <c r="G13" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="126" t="s">
-        <v>457</v>
+      <c r="H13" s="114" t="s">
+        <v>453</v>
       </c>
       <c r="I13" s="47">
         <v>2</v>
       </c>
-      <c r="J13" s="124" t="s">
-        <v>434</v>
-      </c>
-      <c r="K13" s="125" t="s">
-        <v>436</v>
+      <c r="J13" s="112" t="s">
+        <v>430</v>
+      </c>
+      <c r="K13" s="113" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11361,17 +11559,17 @@
       <c r="G14" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="141" t="s">
-        <v>460</v>
+      <c r="H14" s="129" t="s">
+        <v>456</v>
       </c>
       <c r="I14" s="47">
         <v>2</v>
       </c>
-      <c r="J14" s="139" t="s">
-        <v>434</v>
-      </c>
-      <c r="K14" s="140" t="s">
-        <v>436</v>
+      <c r="J14" s="127" t="s">
+        <v>430</v>
+      </c>
+      <c r="K14" s="128" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="33" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11388,25 +11586,25 @@
         <v>77</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F15" s="37" t="s">
         <v>44</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>430</v>
-      </c>
-      <c r="H15" s="129" t="s">
-        <v>455</v>
+        <v>426</v>
+      </c>
+      <c r="H15" s="117" t="s">
+        <v>451</v>
       </c>
       <c r="I15" s="47">
         <v>1</v>
       </c>
-      <c r="J15" s="127" t="s">
-        <v>434</v>
-      </c>
-      <c r="K15" s="128" t="s">
-        <v>436</v>
+      <c r="J15" s="115" t="s">
+        <v>430</v>
+      </c>
+      <c r="K15" s="116" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11417,7 +11615,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D16" s="41" t="s">
         <v>77</v>
@@ -11429,24 +11627,24 @@
         <v>44</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="H16" s="108" t="s">
-        <v>457</v>
+        <v>428</v>
+      </c>
+      <c r="H16" s="96" t="s">
+        <v>453</v>
       </c>
       <c r="I16" s="47">
         <v>1</v>
       </c>
-      <c r="J16" s="106" t="s">
-        <v>433</v>
-      </c>
-      <c r="K16" s="107" t="s">
-        <v>456</v>
+      <c r="J16" s="94" t="s">
+        <v>429</v>
+      </c>
+      <c r="K16" s="95" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B17" s="42" t="s">
         <v>41</v>
@@ -11466,22 +11664,22 @@
       <c r="G17" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="132" t="s">
-        <v>459</v>
+      <c r="H17" s="120" t="s">
+        <v>455</v>
       </c>
       <c r="I17" s="47">
         <v>1</v>
       </c>
-      <c r="J17" s="130" t="s">
-        <v>434</v>
-      </c>
-      <c r="K17" s="131" t="s">
-        <v>436</v>
+      <c r="J17" s="118" t="s">
+        <v>430</v>
+      </c>
+      <c r="K17" s="119" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B18" s="42" t="s">
         <v>41</v>
@@ -11501,28 +11699,28 @@
       <c r="G18" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="114" t="s">
-        <v>458</v>
+      <c r="H18" s="102" t="s">
+        <v>454</v>
       </c>
       <c r="I18" s="47">
         <v>1</v>
       </c>
-      <c r="J18" s="112" t="s">
-        <v>434</v>
-      </c>
-      <c r="K18" s="113" t="s">
-        <v>436</v>
+      <c r="J18" s="100" t="s">
+        <v>430</v>
+      </c>
+      <c r="K18" s="101" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="33" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B19" s="42" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D19" s="41" t="s">
         <v>77</v>
@@ -11534,24 +11732,24 @@
         <v>91</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>454</v>
-      </c>
-      <c r="H19" s="111" t="s">
-        <v>455</v>
+        <v>450</v>
+      </c>
+      <c r="H19" s="99" t="s">
+        <v>451</v>
       </c>
       <c r="I19" s="47">
         <v>1</v>
       </c>
-      <c r="J19" s="109" t="s">
-        <v>434</v>
-      </c>
-      <c r="K19" s="110" t="s">
-        <v>436</v>
+      <c r="J19" s="97" t="s">
+        <v>430</v>
+      </c>
+      <c r="K19" s="98" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B20" s="42" t="s">
         <v>41</v>
@@ -11782,17 +11980,17 @@
       <c r="G2" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="99" t="s">
-        <v>451</v>
+      <c r="H2" s="87" t="s">
+        <v>447</v>
       </c>
       <c r="I2" s="47">
         <v>0</v>
       </c>
-      <c r="J2" s="97" t="s">
-        <v>434</v>
-      </c>
-      <c r="K2" s="98" t="s">
-        <v>436</v>
+      <c r="J2" s="85" t="s">
+        <v>430</v>
+      </c>
+      <c r="K2" s="86" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="33" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
@@ -11817,17 +12015,17 @@
       <c r="G3" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="96" t="s">
-        <v>450</v>
+      <c r="H3" s="84" t="s">
+        <v>446</v>
       </c>
       <c r="I3" s="47">
         <v>1</v>
       </c>
-      <c r="J3" s="94" t="s">
-        <v>434</v>
-      </c>
-      <c r="K3" s="95" t="s">
-        <v>436</v>
+      <c r="J3" s="82" t="s">
+        <v>430</v>
+      </c>
+      <c r="K3" s="83" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="33" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11852,17 +12050,17 @@
       <c r="G4" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="105" t="s">
-        <v>452</v>
+      <c r="H4" s="93" t="s">
+        <v>448</v>
       </c>
       <c r="I4" s="50">
         <v>0</v>
       </c>
-      <c r="J4" s="103" t="s">
-        <v>434</v>
-      </c>
-      <c r="K4" s="104" t="s">
-        <v>436</v>
+      <c r="J4" s="91" t="s">
+        <v>430</v>
+      </c>
+      <c r="K4" s="92" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="33" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.25">
@@ -11887,17 +12085,17 @@
       <c r="G5" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="102" t="s">
-        <v>452</v>
+      <c r="H5" s="90" t="s">
+        <v>448</v>
       </c>
       <c r="I5" s="50">
         <v>2</v>
       </c>
-      <c r="J5" s="100" t="s">
-        <v>434</v>
-      </c>
-      <c r="K5" s="101" t="s">
-        <v>436</v>
+      <c r="J5" s="88" t="s">
+        <v>430</v>
+      </c>
+      <c r="K5" s="89" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11908,7 +12106,7 @@
         <v>97</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>108</v>
@@ -12315,17 +12513,17 @@
       <c r="G2" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="84" t="s">
-        <v>448</v>
+      <c r="H2" s="150" t="s">
+        <v>444</v>
       </c>
       <c r="I2" s="47">
         <v>1</v>
       </c>
-      <c r="J2" s="82" t="s">
-        <v>434</v>
-      </c>
-      <c r="K2" s="83" t="s">
-        <v>436</v>
+      <c r="J2" s="148" t="s">
+        <v>430</v>
+      </c>
+      <c r="K2" s="149" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="33" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
@@ -12350,17 +12548,17 @@
       <c r="G3" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="87" t="s">
-        <v>449</v>
+      <c r="H3" s="153" t="s">
+        <v>445</v>
       </c>
       <c r="I3" s="47">
         <v>1</v>
       </c>
-      <c r="J3" s="85" t="s">
-        <v>434</v>
-      </c>
-      <c r="K3" s="86" t="s">
-        <v>436</v>
+      <c r="J3" s="151" t="s">
+        <v>430</v>
+      </c>
+      <c r="K3" s="152" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="33" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12385,17 +12583,17 @@
       <c r="G4" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="90" t="s">
-        <v>448</v>
+      <c r="H4" s="156" t="s">
+        <v>444</v>
       </c>
       <c r="I4" s="47">
         <v>0</v>
       </c>
-      <c r="J4" s="88" t="s">
-        <v>434</v>
-      </c>
-      <c r="K4" s="89" t="s">
-        <v>436</v>
+      <c r="J4" s="154" t="s">
+        <v>430</v>
+      </c>
+      <c r="K4" s="155" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="33" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12420,17 +12618,17 @@
       <c r="G5" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="H5" s="93" t="s">
-        <v>449</v>
+      <c r="H5" s="159" t="s">
+        <v>445</v>
       </c>
       <c r="I5" s="47">
         <v>0</v>
       </c>
-      <c r="J5" s="91" t="s">
-        <v>434</v>
-      </c>
-      <c r="K5" s="92" t="s">
-        <v>436</v>
+      <c r="J5" s="157" t="s">
+        <v>430</v>
+      </c>
+      <c r="K5" s="158" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12829,19 +13027,19 @@
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H2" s="72" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="I2" s="47">
         <v>0</v>
       </c>
       <c r="J2" s="70" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K2" s="71" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="33" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
@@ -12867,16 +13065,16 @@
         <v>139</v>
       </c>
       <c r="H3" s="75" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="I3" s="60">
         <v>0</v>
       </c>
       <c r="J3" s="73" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K3" s="74" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="33" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12902,16 +13100,16 @@
         <v>139</v>
       </c>
       <c r="H4" s="69" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="I4" s="47">
         <v>0</v>
       </c>
       <c r="J4" s="67" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K4" s="68" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="33" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12931,22 +13129,22 @@
         <v>145</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G5" s="35" t="s">
         <v>139</v>
       </c>
       <c r="H5" s="66" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="I5" s="47">
         <v>0</v>
       </c>
       <c r="J5" s="64" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K5" s="65" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="33" customFormat="1" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12966,33 +13164,33 @@
         <v>149</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>139</v>
       </c>
       <c r="H6" s="63" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="I6" s="47">
         <v>0</v>
       </c>
       <c r="J6" s="61" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K6" s="62" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>138</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>109</v>
@@ -13004,30 +13202,30 @@
         <v>58</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H7" s="81" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="I7" s="47">
         <v>1</v>
       </c>
       <c r="J7" s="79" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="K7" s="80" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>138</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>109</v>
@@ -13039,19 +13237,19 @@
         <v>58</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H8" s="78" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="I8" s="47">
         <v>1</v>
       </c>
       <c r="J8" s="76" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K8" s="77" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13338,7 +13536,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
@@ -13350,7 +13548,7 @@
     <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.85546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="51.140625" style="34" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
@@ -13400,26 +13598,32 @@
         <v>151</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>157</v>
+        <v>461</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>172</v>
+        <v>459</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" s="32"/>
+        <v>457</v>
+      </c>
+      <c r="H2" s="162" t="s">
+        <v>458</v>
+      </c>
       <c r="I2" s="47">
         <v>0</v>
       </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="J2" s="160" t="s">
+        <v>430</v>
+      </c>
+      <c r="K2" s="161" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="3" spans="1:11" s="33" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
@@ -13429,26 +13633,32 @@
         <v>151</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>157</v>
+        <v>460</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>158</v>
+        <v>462</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="H3" s="32"/>
+      <c r="G3" s="46" t="s">
+        <v>457</v>
+      </c>
+      <c r="H3" s="165" t="s">
+        <v>463</v>
+      </c>
       <c r="I3" s="47">
         <v>0</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
+      <c r="J3" s="163" t="s">
+        <v>430</v>
+      </c>
+      <c r="K3" s="164" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="4" spans="1:11" s="33" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
@@ -13458,26 +13668,32 @@
         <v>151</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>157</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>163</v>
+        <v>459</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="H4" s="32"/>
+      <c r="G4" s="46" t="s">
+        <v>464</v>
+      </c>
+      <c r="H4" s="168" t="s">
+        <v>467</v>
+      </c>
       <c r="I4" s="47">
-        <v>1</v>
-      </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="166" t="s">
+        <v>430</v>
+      </c>
+      <c r="K4" s="167" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="5" spans="1:11" s="33" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
@@ -13487,26 +13703,32 @@
         <v>151</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>157</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>168</v>
+        <v>459</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="H5" s="32"/>
+      <c r="G5" s="46" t="s">
+        <v>464</v>
+      </c>
+      <c r="H5" s="171" t="s">
+        <v>468</v>
+      </c>
       <c r="I5" s="47">
         <v>0</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
+      <c r="J5" s="169" t="s">
+        <v>430</v>
+      </c>
+      <c r="K5" s="170" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
@@ -13516,19 +13738,19 @@
         <v>151</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>157</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
@@ -13538,28 +13760,60 @@
       <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="35"/>
+      <c r="A7" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>164</v>
+      </c>
       <c r="H7" s="32"/>
-      <c r="I7" s="47"/>
+      <c r="I7" s="47">
+        <v>0</v>
+      </c>
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="35"/>
+      <c r="A8" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>167</v>
+      </c>
       <c r="H8" s="32"/>
-      <c r="I8" s="47"/>
+      <c r="I8" s="47">
+        <v>1</v>
+      </c>
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
@@ -13903,25 +14157,25 @@
     </row>
     <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -13932,25 +14186,25 @@
     </row>
     <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>178</v>
-      </c>
       <c r="C3" s="44" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -13961,25 +14215,25 @@
     </row>
     <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>179</v>
-      </c>
       <c r="E4" s="35" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -13990,25 +14244,25 @@
     </row>
     <row r="5" spans="1:11" s="33" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
@@ -14019,25 +14273,25 @@
     </row>
     <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
@@ -14410,25 +14664,25 @@
     </row>
     <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -14439,25 +14693,25 @@
     </row>
     <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="C3" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>204</v>
-      </c>
       <c r="E3" s="35" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -14468,25 +14722,25 @@
     </row>
     <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -14497,25 +14751,25 @@
     </row>
     <row r="5" spans="1:11" s="33" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
@@ -14526,25 +14780,25 @@
     </row>
     <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
@@ -14555,25 +14809,25 @@
     </row>
     <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="47">
@@ -14935,16 +15189,16 @@
     </row>
     <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>43</v>
@@ -14953,7 +15207,7 @@
         <v>44</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -14964,25 +15218,25 @@
     </row>
     <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B3" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>231</v>
-      </c>
       <c r="D3" s="41" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -14993,25 +15247,25 @@
     </row>
     <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>227</v>
-      </c>
       <c r="C4" s="44" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -15022,25 +15276,25 @@
     </row>
     <row r="5" spans="1:11" s="33" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
@@ -15051,25 +15305,25 @@
     </row>
     <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
@@ -15080,25 +15334,25 @@
     </row>
     <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="47">
@@ -15109,13 +15363,13 @@
     </row>
     <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>109</v>
@@ -15138,25 +15392,25 @@
     </row>
     <row r="9" spans="1:11" s="33" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>248</v>
-      </c>
       <c r="D9" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F9" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="47">
@@ -15167,25 +15421,25 @@
     </row>
     <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F10" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="47">

--- a/src/test/manual/Swag Labs-Test Scenarios.xlsx
+++ b/src/test/manual/Swag Labs-Test Scenarios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="3765" tabRatio="670" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="3765" tabRatio="670"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
@@ -5788,7 +5788,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="140" x14ac:knownFonts="1">
+  <fonts count="137" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6505,11 +6505,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="72"/>
       <color indexed="58"/>
       <name val="Calibri"/>
@@ -6535,18 +6530,8 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="72"/>
       <color indexed="58"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="12"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -7938,34 +7923,25 @@
     <xf numFmtId="0" fontId="129" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="130" fillId="40" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="131" fillId="40" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="132" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="133" fillId="41" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="41" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="135" fillId="42" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="42" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7976,6 +7952,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -8269,8 +8254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -8294,10 +8279,10 @@
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="173"/>
+      <c r="C2" s="170"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
@@ -8327,10 +8312,10 @@
       <c r="A5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="174" t="s">
+      <c r="B5" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="170"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
@@ -11063,7 +11048,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
@@ -13535,8 +13520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
@@ -13612,16 +13597,16 @@
       <c r="G2" s="46" t="s">
         <v>457</v>
       </c>
-      <c r="H2" s="162" t="s">
+      <c r="H2" s="172" t="s">
         <v>458</v>
       </c>
       <c r="I2" s="47">
         <v>0</v>
       </c>
-      <c r="J2" s="160" t="s">
+      <c r="J2" s="165" t="s">
         <v>430</v>
       </c>
-      <c r="K2" s="161" t="s">
+      <c r="K2" s="166" t="s">
         <v>432</v>
       </c>
     </row>
@@ -13647,16 +13632,16 @@
       <c r="G3" s="46" t="s">
         <v>457</v>
       </c>
-      <c r="H3" s="165" t="s">
+      <c r="H3" s="173" t="s">
         <v>463</v>
       </c>
       <c r="I3" s="47">
         <v>0</v>
       </c>
-      <c r="J3" s="163" t="s">
+      <c r="J3" s="167" t="s">
         <v>430</v>
       </c>
-      <c r="K3" s="164" t="s">
+      <c r="K3" s="168" t="s">
         <v>432</v>
       </c>
     </row>
@@ -13682,16 +13667,16 @@
       <c r="G4" s="46" t="s">
         <v>464</v>
       </c>
-      <c r="H4" s="168" t="s">
+      <c r="H4" s="174" t="s">
         <v>467</v>
       </c>
       <c r="I4" s="47">
         <v>0</v>
       </c>
-      <c r="J4" s="166" t="s">
+      <c r="J4" s="160" t="s">
         <v>430</v>
       </c>
-      <c r="K4" s="167" t="s">
+      <c r="K4" s="161" t="s">
         <v>432</v>
       </c>
     </row>
@@ -13717,16 +13702,16 @@
       <c r="G5" s="46" t="s">
         <v>464</v>
       </c>
-      <c r="H5" s="171" t="s">
+      <c r="H5" s="164" t="s">
         <v>468</v>
       </c>
       <c r="I5" s="47">
         <v>0</v>
       </c>
-      <c r="J5" s="169" t="s">
+      <c r="J5" s="162" t="s">
         <v>430</v>
       </c>
-      <c r="K5" s="170" t="s">
+      <c r="K5" s="163" t="s">
         <v>432</v>
       </c>
     </row>

--- a/src/test/manual/Swag Labs-Test Scenarios.xlsx
+++ b/src/test/manual/Swag Labs-Test Scenarios.xlsx
@@ -1,34 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\shelf1\Swag Labs\automation\Swag Labs\SwagLabs\src\test\manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="3765" tabRatio="670"/>
+    <workbookView activeTab="2" tabRatio="670" windowHeight="3765" windowWidth="10215" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
-    <sheet name="Login" sheetId="2" r:id="rId2"/>
-    <sheet name="Logout" sheetId="3" r:id="rId3"/>
-    <sheet name="Filter" sheetId="4" r:id="rId4"/>
-    <sheet name="All Items" sheetId="5" r:id="rId5"/>
-    <sheet name="Product Display" sheetId="6" r:id="rId6"/>
-    <sheet name="Add to Cart" sheetId="7" r:id="rId7"/>
-    <sheet name="Your Cart" sheetId="8" r:id="rId8"/>
-    <sheet name="Home" sheetId="9" r:id="rId9"/>
-    <sheet name="Checkout" sheetId="10" r:id="rId10"/>
-    <sheet name="Overview" sheetId="12" r:id="rId11"/>
-    <sheet name="Compleate" sheetId="11" r:id="rId12"/>
-    <sheet name="Heder,Footer" sheetId="13" r:id="rId13"/>
+    <sheet name="Test Scenarios" r:id="rId1" sheetId="1"/>
+    <sheet name="Login" r:id="rId2" sheetId="2"/>
+    <sheet name="Logout" r:id="rId3" sheetId="3"/>
+    <sheet name="Filter" r:id="rId4" sheetId="4"/>
+    <sheet name="All Items" r:id="rId5" sheetId="5"/>
+    <sheet name="Product Display" r:id="rId6" sheetId="6"/>
+    <sheet name="Add to Cart" r:id="rId7" sheetId="7"/>
+    <sheet name="Your Cart" r:id="rId8" sheetId="8"/>
+    <sheet name="Home" r:id="rId9" sheetId="9"/>
+    <sheet name="Checkout" r:id="rId10" sheetId="10"/>
+    <sheet name="Overview" r:id="rId11" sheetId="12"/>
+    <sheet name="Compleate" r:id="rId12" sheetId="11"/>
+    <sheet name="Heder,Footer" r:id="rId13" sheetId="13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -5703,15 +5703,6 @@
     <t>Products are sorted by descending order : true</t>
   </si>
   <si>
-    <t>Actions done before has preserved : true</t>
-  </si>
-  <si>
-    <t>Login page opened: true</t>
-  </si>
-  <si>
-    <t>User has logged in : true</t>
-  </si>
-  <si>
     <t>Validate Logging into the Application, closing the Browser without logging out and opening the application in the Browser again</t>
   </si>
   <si>
@@ -5782,13 +5773,23 @@
 $15.99
 From product display page: 
 $15.99</t>
+  </si>
+  <si>
+    <t>Actions done before has preserved : true</t>
+  </si>
+  <si>
+    <t>Login page opened: true</t>
+  </si>
+  <si>
+    <t>User has logged in : true</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="137" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="149" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6539,8 +6540,68 @@
       <color indexed="12"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="72.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="72.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="72.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="72.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="43">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6602,26 +6663,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
@@ -6754,8 +6795,40 @@
         <fgColor indexed="42"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="47">
+  <borders count="78">
     <border>
       <left/>
       <right/>
@@ -7376,49 +7449,67 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="8"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="8"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="8"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="8"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="8"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
+      <left style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
       <right style="medium">
         <color indexed="8"/>
       </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
+      <top style="medium"/>
+      <bottom style="medium"/>
     </border>
     <border>
       <left style="medium">
@@ -7427,550 +7518,811 @@
       <right style="medium">
         <color indexed="8"/>
       </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
       <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="22" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="24" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="193">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="4" numFmtId="14" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="4" numFmtId="14" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="2" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="19" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="20" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="20" numFmtId="0" quotePrefix="1" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="21" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="25" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="25" numFmtId="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="26" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="28" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="6" fontId="29" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="30" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="31" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="7" fontId="32" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="33" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="34" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="8" fontId="35" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="36" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="37" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="9" fontId="38" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="13" fillId="0" fontId="39" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="13" fillId="0" fontId="40" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="14" fillId="10" fontId="41" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="14" fillId="0" fontId="42" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="14" fillId="0" fontId="43" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="15" fillId="11" fontId="44" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="15" fillId="0" fontId="45" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="15" fillId="0" fontId="46" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="16" fillId="12" fontId="47" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="16" fillId="0" fontId="48" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="16" fillId="0" fontId="49" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="17" fillId="13" fontId="62" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="17" fillId="0" fontId="63" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="17" fillId="0" fontId="64" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="18" fillId="14" fontId="65" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="66" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="67" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="19" fillId="15" fontId="68" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="19" fillId="0" fontId="69" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="19" fillId="0" fontId="70" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="20" fillId="16" fontId="71" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="20" fillId="0" fontId="72" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="20" fillId="0" fontId="73" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="21" fillId="17" fontId="74" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="21" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="21" fillId="0" fontId="76" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="22" fillId="18" fontId="77" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="22" fillId="0" fontId="78" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="22" fillId="0" fontId="79" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="23" fillId="19" fontId="80" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="23" fillId="0" fontId="81" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="23" fillId="0" fontId="82" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="24" fillId="20" fontId="83" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="24" fillId="0" fontId="84" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="24" fillId="0" fontId="85" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="25" fillId="21" fontId="86" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="25" fillId="0" fontId="87" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="25" fillId="0" fontId="88" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="26" fillId="22" fontId="89" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="26" fillId="0" fontId="90" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="26" fillId="0" fontId="91" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="27" fillId="23" fontId="92" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="27" fillId="0" fontId="93" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="27" fillId="0" fontId="94" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="28" fillId="24" fontId="95" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="28" fillId="0" fontId="96" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="28" fillId="0" fontId="97" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="29" fillId="25" fontId="98" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="29" fillId="0" fontId="99" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="29" fillId="0" fontId="100" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="30" fillId="26" fontId="101" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="30" fillId="0" fontId="102" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="30" fillId="0" fontId="103" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="31" fillId="27" fontId="104" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="31" fillId="0" fontId="105" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="31" fillId="0" fontId="106" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="32" fillId="28" fontId="107" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="32" fillId="0" fontId="108" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="32" fillId="0" fontId="109" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="33" fillId="29" fontId="110" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="33" fillId="0" fontId="111" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="33" fillId="0" fontId="112" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="34" fillId="30" fontId="113" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="34" fillId="0" fontId="114" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="34" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="31" fontId="116" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="35" fillId="0" fontId="117" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="35" fillId="0" fontId="118" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="36" fillId="32" fontId="119" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="36" fillId="0" fontId="120" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="36" fillId="0" fontId="121" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="37" fillId="33" fontId="122" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="37" fillId="0" fontId="123" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="37" fillId="0" fontId="124" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="38" fillId="34" fontId="125" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="38" fillId="0" fontId="126" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="38" fillId="0" fontId="127" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="39" fillId="35" fontId="128" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="39" fillId="0" fontId="129" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="36" fontId="130" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="40" fillId="0" fontId="131" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="40" fillId="0" fontId="132" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="37" fontId="133" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="41" fillId="0" fontId="134" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="42" fillId="38" fontId="135" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="42" fillId="0" fontId="136" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="41" fillId="0" fontId="30" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="42" fillId="0" fontId="30" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="39" fillId="0" fontId="30" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="43" fillId="3" fontId="12" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="44" fillId="2" fontId="25" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="44" fillId="0" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="53" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="54" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="50" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="51" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="59" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="60" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="56" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="57" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="45" fillId="0" fontId="17" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="45" fillId="0" fontId="19" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="44" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="55" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="52" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="61" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="58" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="53" fillId="40" fontId="137" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="true" applyFont="true" borderId="53" fillId="0" fontId="138" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="53" fillId="0" fontId="139" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="61" fillId="42" fontId="140" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="true" applyFont="true" borderId="61" fillId="0" fontId="141" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="61" fillId="0" fontId="142" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="69" fillId="44" fontId="143" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="true" applyFont="true" borderId="69" fillId="0" fontId="144" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="69" fillId="0" fontId="145" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="46" borderId="77" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="26" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="27" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="28" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="29" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="30" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="31" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="32" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="33" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="34" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="119" fillId="36" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="122" fillId="37" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="38" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="128" fillId="39" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="130" fillId="40" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="41" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="135" fillId="42" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="77" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="77" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="3" builtinId="27"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="27" name="Bad" xfId="3"/>
+    <cellStyle builtinId="26" name="Good" xfId="2"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FFFF9393"/>
@@ -7994,10 +8346,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -8032,7 +8384,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -8067,7 +8419,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -8161,21 +8513,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -8192,7 +8544,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -8244,28 +8596,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="B10" workbookViewId="0" zoomScale="175" zoomScaleNormal="175">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="77" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="77.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="24.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -8279,10 +8631,10 @@
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="170"/>
+      <c r="C2" s="160"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
@@ -8312,10 +8664,10 @@
       <c r="A5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="171" t="s">
+      <c r="B5" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="170"/>
+      <c r="C5" s="160"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
@@ -8359,7 +8711,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
@@ -8374,7 +8726,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -8389,7 +8741,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -8404,7 +8756,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -8419,7 +8771,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="16.5" r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -8434,7 +8786,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -8449,7 +8801,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -8464,7 +8816,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -8479,7 +8831,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
@@ -8494,7 +8846,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
@@ -8509,7 +8861,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="16.5" r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
@@ -8524,7 +8876,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>360</v>
       </c>
@@ -8539,133 +8891,133 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
       <c r="D23" s="21"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
       <c r="C24" s="20"/>
       <c r="D24" s="21"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
       <c r="C25" s="20"/>
       <c r="D25" s="21"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20"/>
       <c r="D26" s="21"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="20"/>
       <c r="D27" s="21"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="19"/>
       <c r="C28" s="20"/>
       <c r="D28" s="21"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="19"/>
       <c r="C29" s="20"/>
       <c r="D29" s="21"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="19"/>
       <c r="C30" s="20"/>
       <c r="D30" s="21"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="19"/>
       <c r="C31" s="20"/>
       <c r="D31" s="21"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="19"/>
       <c r="C32" s="20"/>
       <c r="D32" s="21"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="19"/>
       <c r="C33" s="20"/>
       <c r="D33" s="21"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="19"/>
       <c r="C34" s="20"/>
       <c r="D34" s="21"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="19"/>
       <c r="C35" s="20"/>
       <c r="D35" s="21"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
       <c r="D36" s="21"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="19"/>
       <c r="C37" s="20"/>
       <c r="D37" s="21"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
       <c r="D38" s="21"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
       <c r="D39" s="21"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="21"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
@@ -8692,36 +9044,36 @@
     <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="33.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -8756,7 +9108,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="116.25" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>264</v>
       </c>
@@ -8785,7 +9137,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="117.75" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>265</v>
       </c>
@@ -8814,7 +9166,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>266</v>
       </c>
@@ -8843,7 +9195,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="157.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>267</v>
       </c>
@@ -8872,7 +9224,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>268</v>
       </c>
@@ -8901,7 +9253,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="117" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>269</v>
       </c>
@@ -8930,7 +9282,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="107.25" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>270</v>
       </c>
@@ -8959,7 +9311,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="127.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>271</v>
       </c>
@@ -8988,7 +9340,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="124.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>272</v>
       </c>
@@ -9017,7 +9369,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>273</v>
       </c>
@@ -9046,7 +9398,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>289</v>
       </c>
@@ -9075,7 +9427,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="213.75" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>294</v>
       </c>
@@ -9104,7 +9456,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="151.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>302</v>
       </c>
@@ -9133,7 +9485,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="160.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>303</v>
       </c>
@@ -9162,7 +9514,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="151.5" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>315</v>
       </c>
@@ -9191,7 +9543,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="153.75" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>316</v>
       </c>
@@ -9220,7 +9572,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="155.25" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>317</v>
       </c>
@@ -9249,7 +9601,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -9262,7 +9614,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -9275,7 +9627,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -9288,7 +9640,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -9301,7 +9653,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -9314,7 +9666,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -9327,7 +9679,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -9340,7 +9692,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -9353,7 +9705,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -9366,7 +9718,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -9379,7 +9731,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -9393,36 +9745,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="33.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -9457,7 +9809,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="135" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>321</v>
       </c>
@@ -9486,7 +9838,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="135" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>322</v>
       </c>
@@ -9515,7 +9867,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>323</v>
       </c>
@@ -9544,7 +9896,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="157.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>324</v>
       </c>
@@ -9573,7 +9925,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="132.75" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>325</v>
       </c>
@@ -9602,7 +9954,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="150" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>326</v>
       </c>
@@ -9631,7 +9983,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="162.75" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>327</v>
       </c>
@@ -9660,7 +10012,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="153" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>328</v>
       </c>
@@ -9689,7 +10041,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="156.75" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>329</v>
       </c>
@@ -9718,7 +10070,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="159.75" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>330</v>
       </c>
@@ -9747,7 +10099,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -9760,7 +10112,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="213.75" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="44"/>
@@ -9773,7 +10125,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="151.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="44"/>
@@ -9786,7 +10138,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="160.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="44"/>
@@ -9799,7 +10151,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="151.5" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="44"/>
@@ -9812,7 +10164,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="153.75" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="44"/>
@@ -9825,7 +10177,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="155.25" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="44"/>
@@ -9838,7 +10190,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -9851,7 +10203,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -9864,7 +10216,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -9877,7 +10229,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -9890,7 +10242,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -9903,7 +10255,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -9916,7 +10268,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -9929,7 +10281,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -9942,7 +10294,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -9955,7 +10307,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -9968,7 +10320,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -9982,36 +10334,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.42578125" style="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="33.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -10046,7 +10398,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="153" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>366</v>
       </c>
@@ -10075,7 +10427,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="177" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>372</v>
       </c>
@@ -10102,7 +10454,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
       <c r="C4" s="44"/>
@@ -10115,7 +10467,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="157.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
       <c r="B5" s="32"/>
       <c r="C5" s="44"/>
@@ -10128,7 +10480,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="44"/>
@@ -10141,7 +10493,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="117" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="44"/>
@@ -10154,7 +10506,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="107.25" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="44"/>
@@ -10167,7 +10519,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="127.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="44"/>
@@ -10180,7 +10532,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="124.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="44"/>
@@ -10193,7 +10545,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="44"/>
@@ -10206,7 +10558,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -10219,7 +10571,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="213.75" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="44"/>
@@ -10232,7 +10584,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="151.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="44"/>
@@ -10245,7 +10597,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="160.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="44"/>
@@ -10258,7 +10610,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="151.5" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="44"/>
@@ -10271,7 +10623,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="153.75" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="44"/>
@@ -10284,7 +10636,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="155.25" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="44"/>
@@ -10297,7 +10649,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -10310,7 +10662,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -10323,7 +10675,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -10336,7 +10688,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -10349,7 +10701,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -10362,7 +10714,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -10375,7 +10727,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -10388,7 +10740,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -10401,7 +10753,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -10414,7 +10766,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -10427,7 +10779,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -10441,35 +10793,35 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="40.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="32.140625" style="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19" style="34" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="36.140625" style="34" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="40.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="32.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="36.140625" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -10504,7 +10856,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>217</v>
       </c>
@@ -10533,7 +10885,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>218</v>
       </c>
@@ -10562,7 +10914,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>219</v>
       </c>
@@ -10591,7 +10943,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>220</v>
       </c>
@@ -10620,7 +10972,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>221</v>
       </c>
@@ -10633,7 +10985,7 @@
       <c r="D6" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="50" t="s">
         <v>383</v>
       </c>
       <c r="F6" s="37" t="s">
@@ -10647,7 +10999,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="116.25" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>222</v>
       </c>
@@ -10676,7 +11028,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>239</v>
       </c>
@@ -10689,7 +11041,7 @@
       <c r="D8" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="51" t="s">
         <v>381</v>
       </c>
       <c r="F8" s="37" t="s">
@@ -10703,7 +11055,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="105.75" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>240</v>
       </c>
@@ -10716,7 +11068,7 @@
       <c r="D9" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="52" t="s">
         <v>380</v>
       </c>
       <c r="F9" s="37" t="s">
@@ -10730,7 +11082,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>241</v>
       </c>
@@ -10757,7 +11109,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>394</v>
       </c>
@@ -10784,7 +11136,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>395</v>
       </c>
@@ -10811,7 +11163,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -10824,7 +11176,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -10837,7 +11189,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="150.75" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -10850,7 +11202,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -10863,7 +11215,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
       <c r="B17" s="42"/>
       <c r="C17" s="32"/>
@@ -10876,7 +11228,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -10889,7 +11241,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -10902,7 +11254,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -10915,7 +11267,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -10928,7 +11280,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -10941,7 +11293,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -10954,7 +11306,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -10967,7 +11319,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -10980,7 +11332,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -10993,7 +11345,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -11006,7 +11358,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -11019,7 +11371,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -11034,40 +11386,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E9" location="Filter!A1" display="Filter!A1"/>
-    <hyperlink ref="E8" location="'Your Cart'!A1" display="'Your Cart'!A1"/>
-    <hyperlink ref="E6" location="Logout!A1" display="Logout!A1"/>
+    <hyperlink display="Filter!A1" location="Filter!A1" ref="E9"/>
+    <hyperlink display="'Your Cart'!A1" location="'Your Cart'!A1" ref="E8"/>
+    <hyperlink display="Logout!A1" location="Logout!A1" ref="E6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="40.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="32.140625" style="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19" style="34" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="55.42578125" style="34" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="40.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="32.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="55.42578125" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -11102,7 +11454,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>40</v>
       </c>
@@ -11124,20 +11476,20 @@
       <c r="G2" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="138" t="s">
-        <v>453</v>
+      <c r="H2" s="125" t="s">
+        <v>450</v>
       </c>
       <c r="I2" s="47">
         <v>0</v>
       </c>
-      <c r="J2" s="136" t="s">
+      <c r="J2" s="123" t="s">
         <v>430</v>
       </c>
-      <c r="K2" s="137" t="s">
+      <c r="K2" s="124" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>46</v>
       </c>
@@ -11156,23 +11508,23 @@
       <c r="F3" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="53" t="s">
         <v>405</v>
       </c>
-      <c r="H3" s="105" t="s">
-        <v>451</v>
+      <c r="H3" s="92" t="s">
+        <v>448</v>
       </c>
       <c r="I3" s="47">
         <v>0</v>
       </c>
-      <c r="J3" s="103" t="s">
+      <c r="J3" s="90" t="s">
         <v>430</v>
       </c>
-      <c r="K3" s="104" t="s">
+      <c r="K3" s="91" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>48</v>
       </c>
@@ -11194,20 +11546,20 @@
       <c r="G4" s="35" t="s">
         <v>408</v>
       </c>
-      <c r="H4" s="108" t="s">
-        <v>451</v>
+      <c r="H4" s="95" t="s">
+        <v>448</v>
       </c>
       <c r="I4" s="47">
         <v>0</v>
       </c>
-      <c r="J4" s="106" t="s">
+      <c r="J4" s="93" t="s">
         <v>430</v>
       </c>
-      <c r="K4" s="107" t="s">
+      <c r="K4" s="94" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>50</v>
       </c>
@@ -11229,20 +11581,20 @@
       <c r="G5" s="35" t="s">
         <v>409</v>
       </c>
-      <c r="H5" s="141" t="s">
-        <v>451</v>
+      <c r="H5" s="128" t="s">
+        <v>448</v>
       </c>
       <c r="I5" s="47">
         <v>0</v>
       </c>
-      <c r="J5" s="139" t="s">
+      <c r="J5" s="126" t="s">
         <v>430</v>
       </c>
-      <c r="K5" s="140" t="s">
+      <c r="K5" s="127" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>55</v>
       </c>
@@ -11264,20 +11616,20 @@
       <c r="G6" s="35" t="s">
         <v>410</v>
       </c>
-      <c r="H6" s="111" t="s">
-        <v>451</v>
+      <c r="H6" s="98" t="s">
+        <v>448</v>
       </c>
       <c r="I6" s="47">
         <v>0</v>
       </c>
-      <c r="J6" s="109" t="s">
+      <c r="J6" s="96" t="s">
         <v>430</v>
       </c>
-      <c r="K6" s="110" t="s">
+      <c r="K6" s="97" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>59</v>
       </c>
@@ -11299,20 +11651,20 @@
       <c r="G7" s="35" t="s">
         <v>411</v>
       </c>
-      <c r="H7" s="144" t="s">
-        <v>451</v>
+      <c r="H7" s="131" t="s">
+        <v>448</v>
       </c>
       <c r="I7" s="47">
         <v>0</v>
       </c>
-      <c r="J7" s="142" t="s">
+      <c r="J7" s="129" t="s">
         <v>430</v>
       </c>
-      <c r="K7" s="143" t="s">
+      <c r="K7" s="130" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>61</v>
       </c>
@@ -11334,20 +11686,20 @@
       <c r="G8" s="35" t="s">
         <v>406</v>
       </c>
-      <c r="H8" s="147" t="s">
-        <v>451</v>
+      <c r="H8" s="134" t="s">
+        <v>448</v>
       </c>
       <c r="I8" s="47">
         <v>0</v>
       </c>
-      <c r="J8" s="145" t="s">
+      <c r="J8" s="132" t="s">
         <v>430</v>
       </c>
-      <c r="K8" s="146" t="s">
+      <c r="K8" s="133" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="105.75" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>64</v>
       </c>
@@ -11369,20 +11721,20 @@
       <c r="G9" s="35" t="s">
         <v>408</v>
       </c>
-      <c r="H9" s="123" t="s">
-        <v>451</v>
+      <c r="H9" s="110" t="s">
+        <v>448</v>
       </c>
       <c r="I9" s="47">
         <v>0</v>
       </c>
-      <c r="J9" s="121" t="s">
+      <c r="J9" s="108" t="s">
         <v>430</v>
       </c>
-      <c r="K9" s="122" t="s">
+      <c r="K9" s="109" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="101.25" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>72</v>
       </c>
@@ -11404,20 +11756,20 @@
       <c r="G10" s="35" t="s">
         <v>408</v>
       </c>
-      <c r="H10" s="132" t="s">
-        <v>451</v>
+      <c r="H10" s="119" t="s">
+        <v>448</v>
       </c>
       <c r="I10" s="47">
         <v>0</v>
       </c>
-      <c r="J10" s="130" t="s">
+      <c r="J10" s="117" t="s">
         <v>430</v>
       </c>
-      <c r="K10" s="131" t="s">
+      <c r="K10" s="118" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>73</v>
       </c>
@@ -11439,20 +11791,20 @@
       <c r="G11" s="35" t="s">
         <v>408</v>
       </c>
-      <c r="H11" s="126" t="s">
-        <v>451</v>
+      <c r="H11" s="113" t="s">
+        <v>448</v>
       </c>
       <c r="I11" s="47">
         <v>0</v>
       </c>
-      <c r="J11" s="124" t="s">
+      <c r="J11" s="111" t="s">
         <v>430</v>
       </c>
-      <c r="K11" s="125" t="s">
+      <c r="K11" s="112" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="112.5" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>76</v>
       </c>
@@ -11474,20 +11826,20 @@
       <c r="G12" s="35" t="s">
         <v>408</v>
       </c>
-      <c r="H12" s="135" t="s">
-        <v>451</v>
+      <c r="H12" s="122" t="s">
+        <v>448</v>
       </c>
       <c r="I12" s="47">
         <v>0</v>
       </c>
-      <c r="J12" s="133" t="s">
+      <c r="J12" s="120" t="s">
         <v>430</v>
       </c>
-      <c r="K12" s="134" t="s">
+      <c r="K12" s="121" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="175.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>80</v>
       </c>
@@ -11509,20 +11861,20 @@
       <c r="G13" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="114" t="s">
-        <v>453</v>
+      <c r="H13" s="101" t="s">
+        <v>450</v>
       </c>
       <c r="I13" s="47">
         <v>2</v>
       </c>
-      <c r="J13" s="112" t="s">
+      <c r="J13" s="99" t="s">
         <v>430</v>
       </c>
-      <c r="K13" s="113" t="s">
+      <c r="K13" s="100" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>83</v>
       </c>
@@ -11544,20 +11896,20 @@
       <c r="G14" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="129" t="s">
-        <v>456</v>
+      <c r="H14" s="116" t="s">
+        <v>453</v>
       </c>
       <c r="I14" s="47">
         <v>2</v>
       </c>
-      <c r="J14" s="127" t="s">
+      <c r="J14" s="114" t="s">
         <v>430</v>
       </c>
-      <c r="K14" s="128" t="s">
+      <c r="K14" s="115" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="150.75" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>87</v>
       </c>
@@ -11579,20 +11931,20 @@
       <c r="G15" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="H15" s="117" t="s">
-        <v>451</v>
+      <c r="H15" s="104" t="s">
+        <v>448</v>
       </c>
       <c r="I15" s="47">
         <v>1</v>
       </c>
-      <c r="J15" s="115" t="s">
+      <c r="J15" s="102" t="s">
         <v>430</v>
       </c>
-      <c r="K15" s="116" t="s">
+      <c r="K15" s="103" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>88</v>
       </c>
@@ -11614,20 +11966,20 @@
       <c r="G16" s="41" t="s">
         <v>428</v>
       </c>
-      <c r="H16" s="96" t="s">
-        <v>453</v>
+      <c r="H16" s="83" t="s">
+        <v>450</v>
       </c>
       <c r="I16" s="47">
         <v>1</v>
       </c>
-      <c r="J16" s="94" t="s">
+      <c r="J16" s="81" t="s">
         <v>429</v>
       </c>
-      <c r="K16" s="95" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="82" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>413</v>
       </c>
@@ -11649,20 +12001,20 @@
       <c r="G17" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="120" t="s">
-        <v>455</v>
+      <c r="H17" s="107" t="s">
+        <v>452</v>
       </c>
       <c r="I17" s="47">
         <v>1</v>
       </c>
-      <c r="J17" s="118" t="s">
+      <c r="J17" s="105" t="s">
         <v>430</v>
       </c>
-      <c r="K17" s="119" t="s">
+      <c r="K17" s="106" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>414</v>
       </c>
@@ -11684,20 +12036,20 @@
       <c r="G18" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="102" t="s">
-        <v>454</v>
+      <c r="H18" s="89" t="s">
+        <v>451</v>
       </c>
       <c r="I18" s="47">
         <v>1</v>
       </c>
-      <c r="J18" s="100" t="s">
+      <c r="J18" s="87" t="s">
         <v>430</v>
       </c>
-      <c r="K18" s="101" t="s">
+      <c r="K18" s="88" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="168" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>424</v>
       </c>
@@ -11705,7 +12057,7 @@
         <v>41</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D19" s="41" t="s">
         <v>77</v>
@@ -11717,22 +12069,22 @@
         <v>91</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>450</v>
-      </c>
-      <c r="H19" s="99" t="s">
-        <v>451</v>
+        <v>447</v>
+      </c>
+      <c r="H19" s="86" t="s">
+        <v>448</v>
       </c>
       <c r="I19" s="47">
         <v>1</v>
       </c>
-      <c r="J19" s="97" t="s">
+      <c r="J19" s="84" t="s">
         <v>430</v>
       </c>
-      <c r="K19" s="98" t="s">
+      <c r="K19" s="85" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>425</v>
       </c>
@@ -11758,10 +12110,10 @@
       <c r="I20" s="47">
         <v>2</v>
       </c>
-      <c r="J20" s="55"/>
+      <c r="J20" s="54"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -11774,7 +12126,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -11787,7 +12139,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -11800,7 +12152,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -11813,7 +12165,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -11826,7 +12178,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -11839,7 +12191,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -11852,7 +12204,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -11865,7 +12217,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -11879,36 +12231,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="40.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.5703125" style="58" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="40.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="34.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="57" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -11930,20 +12282,20 @@
       <c r="G1" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="162" t="s">
         <v>37</v>
       </c>
       <c r="I1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="162" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="162" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="120" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>98</v>
       </c>
@@ -11962,23 +12314,23 @@
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="173" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="87" t="s">
-        <v>447</v>
-      </c>
-      <c r="I2" s="47">
+      <c r="H2" s="186" t="s">
+        <v>467</v>
+      </c>
+      <c r="I2" s="174">
         <v>0</v>
       </c>
-      <c r="J2" s="85" t="s">
+      <c r="J2" s="184" t="s">
         <v>430</v>
       </c>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="185" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="138" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>99</v>
       </c>
@@ -11997,23 +12349,23 @@
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="173" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="84" t="s">
-        <v>446</v>
-      </c>
-      <c r="I3" s="47">
+      <c r="H3" s="183" t="s">
+        <v>466</v>
+      </c>
+      <c r="I3" s="174">
         <v>1</v>
       </c>
-      <c r="J3" s="82" t="s">
+      <c r="J3" s="181" t="s">
         <v>430</v>
       </c>
-      <c r="K3" s="83" t="s">
+      <c r="K3" s="182" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="136.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>100</v>
       </c>
@@ -12032,23 +12384,23 @@
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="173" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="93" t="s">
-        <v>448</v>
-      </c>
-      <c r="I4" s="50">
+      <c r="H4" s="192" t="s">
+        <v>468</v>
+      </c>
+      <c r="I4" s="175">
         <v>0</v>
       </c>
-      <c r="J4" s="91" t="s">
+      <c r="J4" s="190" t="s">
         <v>430</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="191" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="156" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>101</v>
       </c>
@@ -12067,23 +12419,23 @@
       <c r="F5" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="173" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="90" t="s">
-        <v>448</v>
-      </c>
-      <c r="I5" s="50">
+      <c r="H5" s="189" t="s">
+        <v>468</v>
+      </c>
+      <c r="I5" s="175">
         <v>2</v>
       </c>
-      <c r="J5" s="88" t="s">
+      <c r="J5" s="187" t="s">
         <v>430</v>
       </c>
-      <c r="K5" s="89" t="s">
+      <c r="K5" s="188" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>102</v>
       </c>
@@ -12105,14 +12457,14 @@
       <c r="G6" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="50">
+      <c r="H6" s="176"/>
+      <c r="I6" s="49">
         <v>2</v>
       </c>
-      <c r="J6" s="55"/>
-      <c r="K6" s="32"/>
-    </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="163"/>
+      <c r="K6" s="164"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -12122,10 +12474,10 @@
       <c r="G7" s="35"/>
       <c r="H7" s="32"/>
       <c r="I7" s="47"/>
-      <c r="J7" s="55"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -12135,10 +12487,10 @@
       <c r="G8" s="35"/>
       <c r="H8" s="32"/>
       <c r="I8" s="47"/>
-      <c r="J8" s="55"/>
+      <c r="J8" s="54"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="96" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -12148,10 +12500,10 @@
       <c r="G9" s="35"/>
       <c r="H9" s="32"/>
       <c r="I9" s="47"/>
-      <c r="J9" s="55"/>
+      <c r="J9" s="54"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -12161,10 +12513,10 @@
       <c r="G10" s="41"/>
       <c r="H10" s="32"/>
       <c r="I10" s="47"/>
-      <c r="J10" s="55"/>
+      <c r="J10" s="54"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -12174,10 +12526,10 @@
       <c r="G11" s="41"/>
       <c r="H11" s="32"/>
       <c r="I11" s="47"/>
-      <c r="J11" s="55"/>
+      <c r="J11" s="54"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -12187,10 +12539,10 @@
       <c r="G12" s="41"/>
       <c r="H12" s="32"/>
       <c r="I12" s="47"/>
-      <c r="J12" s="55"/>
+      <c r="J12" s="54"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -12200,10 +12552,10 @@
       <c r="G13" s="35"/>
       <c r="H13" s="32"/>
       <c r="I13" s="47"/>
-      <c r="J13" s="55"/>
+      <c r="J13" s="54"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -12213,10 +12565,10 @@
       <c r="G14" s="35"/>
       <c r="H14" s="32"/>
       <c r="I14" s="47"/>
-      <c r="J14" s="55"/>
+      <c r="J14" s="54"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="111" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -12226,10 +12578,10 @@
       <c r="G15" s="35"/>
       <c r="H15" s="32"/>
       <c r="I15" s="47"/>
-      <c r="J15" s="55"/>
+      <c r="J15" s="54"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="108" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -12239,10 +12591,10 @@
       <c r="G16" s="35"/>
       <c r="H16" s="32"/>
       <c r="I16" s="47"/>
-      <c r="J16" s="56"/>
+      <c r="J16" s="55"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -12252,10 +12604,10 @@
       <c r="G17" s="35"/>
       <c r="H17" s="32"/>
       <c r="I17" s="47"/>
-      <c r="J17" s="55"/>
+      <c r="J17" s="54"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -12265,10 +12617,10 @@
       <c r="G18" s="35"/>
       <c r="H18" s="32"/>
       <c r="I18" s="47"/>
-      <c r="J18" s="55"/>
+      <c r="J18" s="54"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -12278,10 +12630,10 @@
       <c r="G19" s="35"/>
       <c r="H19" s="32"/>
       <c r="I19" s="47"/>
-      <c r="J19" s="55"/>
+      <c r="J19" s="54"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -12291,10 +12643,10 @@
       <c r="G20" s="35"/>
       <c r="H20" s="32"/>
       <c r="I20" s="47"/>
-      <c r="J20" s="55"/>
+      <c r="J20" s="54"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -12304,10 +12656,10 @@
       <c r="G21" s="35"/>
       <c r="H21" s="32"/>
       <c r="I21" s="47"/>
-      <c r="J21" s="57"/>
+      <c r="J21" s="56"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -12317,10 +12669,10 @@
       <c r="G22" s="35"/>
       <c r="H22" s="32"/>
       <c r="I22" s="47"/>
-      <c r="J22" s="57"/>
+      <c r="J22" s="56"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -12330,10 +12682,10 @@
       <c r="G23" s="35"/>
       <c r="H23" s="32"/>
       <c r="I23" s="47"/>
-      <c r="J23" s="57"/>
+      <c r="J23" s="56"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -12343,10 +12695,10 @@
       <c r="G24" s="35"/>
       <c r="H24" s="32"/>
       <c r="I24" s="47"/>
-      <c r="J24" s="57"/>
+      <c r="J24" s="56"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -12356,10 +12708,10 @@
       <c r="G25" s="35"/>
       <c r="H25" s="32"/>
       <c r="I25" s="47"/>
-      <c r="J25" s="57"/>
+      <c r="J25" s="56"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -12369,10 +12721,10 @@
       <c r="G26" s="35"/>
       <c r="H26" s="32"/>
       <c r="I26" s="47"/>
-      <c r="J26" s="57"/>
+      <c r="J26" s="56"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -12382,10 +12734,10 @@
       <c r="G27" s="35"/>
       <c r="H27" s="32"/>
       <c r="I27" s="47"/>
-      <c r="J27" s="57"/>
+      <c r="J27" s="56"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -12395,10 +12747,10 @@
       <c r="G28" s="35"/>
       <c r="H28" s="32"/>
       <c r="I28" s="47"/>
-      <c r="J28" s="57"/>
+      <c r="J28" s="56"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -12408,40 +12760,40 @@
       <c r="G29" s="35"/>
       <c r="H29" s="32"/>
       <c r="I29" s="47"/>
-      <c r="J29" s="57"/>
+      <c r="J29" s="56"/>
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="40.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="32.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="40.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="32.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -12476,7 +12828,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="96.75" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>117</v>
       </c>
@@ -12498,20 +12850,20 @@
       <c r="G2" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="150" t="s">
+      <c r="H2" s="137" t="s">
         <v>444</v>
       </c>
       <c r="I2" s="47">
         <v>1</v>
       </c>
-      <c r="J2" s="148" t="s">
+      <c r="J2" s="135" t="s">
         <v>430</v>
       </c>
-      <c r="K2" s="149" t="s">
+      <c r="K2" s="136" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="99" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>118</v>
       </c>
@@ -12533,20 +12885,20 @@
       <c r="G3" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="153" t="s">
+      <c r="H3" s="140" t="s">
         <v>445</v>
       </c>
       <c r="I3" s="47">
         <v>1</v>
       </c>
-      <c r="J3" s="151" t="s">
+      <c r="J3" s="138" t="s">
         <v>430</v>
       </c>
-      <c r="K3" s="152" t="s">
+      <c r="K3" s="139" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="92.25" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>119</v>
       </c>
@@ -12568,20 +12920,20 @@
       <c r="G4" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="156" t="s">
+      <c r="H4" s="143" t="s">
         <v>444</v>
       </c>
       <c r="I4" s="47">
         <v>0</v>
       </c>
-      <c r="J4" s="154" t="s">
+      <c r="J4" s="141" t="s">
         <v>430</v>
       </c>
-      <c r="K4" s="155" t="s">
+      <c r="K4" s="142" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="111.75" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>120</v>
       </c>
@@ -12603,20 +12955,20 @@
       <c r="G5" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="H5" s="159" t="s">
+      <c r="H5" s="146" t="s">
         <v>445</v>
       </c>
       <c r="I5" s="47">
         <v>0</v>
       </c>
-      <c r="J5" s="157" t="s">
+      <c r="J5" s="144" t="s">
         <v>430</v>
       </c>
-      <c r="K5" s="158" t="s">
+      <c r="K5" s="145" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="44"/>
@@ -12629,7 +12981,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -12642,7 +12994,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -12655,7 +13007,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -12668,7 +13020,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -12681,7 +13033,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -12694,7 +13046,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -12707,7 +13059,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -12720,7 +13072,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -12733,7 +13085,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -12746,7 +13098,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -12759,7 +13111,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -12772,7 +13124,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -12785,7 +13137,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -12798,7 +13150,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -12811,7 +13163,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -12824,7 +13176,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -12837,7 +13189,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -12850,7 +13202,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -12863,7 +13215,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -12876,7 +13228,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -12889,7 +13241,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -12902,7 +13254,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -12915,7 +13267,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -12929,35 +13281,35 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="40.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.28515625" style="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="40.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="33.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -12992,7 +13344,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="96.75" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>133</v>
       </c>
@@ -13014,20 +13366,20 @@
       <c r="G2" s="35" t="s">
         <v>433</v>
       </c>
-      <c r="H2" s="72" t="s">
+      <c r="H2" s="71" t="s">
         <v>441</v>
       </c>
       <c r="I2" s="47">
         <v>0</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="J2" s="69" t="s">
         <v>430</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="70" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="99" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>134</v>
       </c>
@@ -13049,20 +13401,20 @@
       <c r="G3" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="74" t="s">
         <v>441</v>
       </c>
-      <c r="I3" s="60">
+      <c r="I3" s="59">
         <v>0</v>
       </c>
-      <c r="J3" s="73" t="s">
+      <c r="J3" s="72" t="s">
         <v>430</v>
       </c>
-      <c r="K3" s="74" t="s">
+      <c r="K3" s="73" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="92.25" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>135</v>
       </c>
@@ -13084,20 +13436,20 @@
       <c r="G4" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="H4" s="69" t="s">
+      <c r="H4" s="68" t="s">
         <v>441</v>
       </c>
       <c r="I4" s="47">
         <v>0</v>
       </c>
-      <c r="J4" s="67" t="s">
+      <c r="J4" s="66" t="s">
         <v>430</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="67" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="115.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>137</v>
       </c>
@@ -13119,20 +13471,20 @@
       <c r="G5" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="65" t="s">
         <v>441</v>
       </c>
       <c r="I5" s="47">
         <v>0</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="63" t="s">
         <v>430</v>
       </c>
-      <c r="K5" s="65" t="s">
+      <c r="K5" s="64" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="139.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>136</v>
       </c>
@@ -13154,20 +13506,20 @@
       <c r="G6" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="H6" s="63" t="s">
+      <c r="H6" s="62" t="s">
         <v>441</v>
       </c>
       <c r="I6" s="47">
         <v>0</v>
       </c>
-      <c r="J6" s="61" t="s">
+      <c r="J6" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="K6" s="62" t="s">
+      <c r="K6" s="61" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>436</v>
       </c>
@@ -13189,20 +13541,20 @@
       <c r="G7" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="H7" s="81" t="s">
+      <c r="H7" s="80" t="s">
         <v>443</v>
       </c>
       <c r="I7" s="47">
         <v>1</v>
       </c>
-      <c r="J7" s="79" t="s">
+      <c r="J7" s="78" t="s">
         <v>429</v>
       </c>
-      <c r="K7" s="80" t="s">
+      <c r="K7" s="79" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>439</v>
       </c>
@@ -13224,20 +13576,20 @@
       <c r="G8" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="H8" s="78" t="s">
+      <c r="H8" s="77" t="s">
         <v>442</v>
       </c>
       <c r="I8" s="47">
         <v>1</v>
       </c>
-      <c r="J8" s="76" t="s">
+      <c r="J8" s="75" t="s">
         <v>430</v>
       </c>
-      <c r="K8" s="77" t="s">
+      <c r="K8" s="76" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -13250,10 +13602,10 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
-      <c r="C10" s="59"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="41"/>
       <c r="E10" s="41"/>
       <c r="F10" s="43"/>
@@ -13263,7 +13615,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -13276,7 +13628,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -13289,7 +13641,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -13302,7 +13654,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -13315,7 +13667,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -13328,7 +13680,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -13341,7 +13693,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -13354,7 +13706,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -13367,7 +13719,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -13380,7 +13732,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -13393,7 +13745,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -13406,7 +13758,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -13419,7 +13771,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -13432,7 +13784,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -13445,7 +13797,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -13458,7 +13810,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -13471,7 +13823,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -13484,7 +13836,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -13497,7 +13849,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -13511,36 +13863,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="F6" sqref="F6:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="51.140625" style="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="51.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -13575,7 +13927,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="96.75" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>152</v>
       </c>
@@ -13586,31 +13938,31 @@
         <v>159</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>457</v>
-      </c>
-      <c r="H2" s="172" t="s">
-        <v>458</v>
+        <v>454</v>
+      </c>
+      <c r="H2" s="156" t="s">
+        <v>455</v>
       </c>
       <c r="I2" s="47">
         <v>0</v>
       </c>
-      <c r="J2" s="165" t="s">
+      <c r="J2" s="152" t="s">
         <v>430</v>
       </c>
-      <c r="K2" s="166" t="s">
+      <c r="K2" s="153" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="99" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>153</v>
       </c>
@@ -13621,31 +13973,31 @@
         <v>159</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>457</v>
-      </c>
-      <c r="H3" s="173" t="s">
-        <v>463</v>
+        <v>454</v>
+      </c>
+      <c r="H3" s="157" t="s">
+        <v>460</v>
       </c>
       <c r="I3" s="47">
         <v>0</v>
       </c>
-      <c r="J3" s="167" t="s">
+      <c r="J3" s="154" t="s">
         <v>430</v>
       </c>
-      <c r="K3" s="168" t="s">
+      <c r="K3" s="155" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="92.25" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>154</v>
       </c>
@@ -13659,28 +14011,28 @@
         <v>157</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="46" t="s">
+        <v>461</v>
+      </c>
+      <c r="H4" s="158" t="s">
         <v>464</v>
-      </c>
-      <c r="H4" s="174" t="s">
-        <v>467</v>
       </c>
       <c r="I4" s="47">
         <v>0</v>
       </c>
-      <c r="J4" s="160" t="s">
+      <c r="J4" s="147" t="s">
         <v>430</v>
       </c>
-      <c r="K4" s="161" t="s">
+      <c r="K4" s="148" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="115.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>155</v>
       </c>
@@ -13694,28 +14046,28 @@
         <v>157</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>464</v>
-      </c>
-      <c r="H5" s="164" t="s">
-        <v>468</v>
+        <v>461</v>
+      </c>
+      <c r="H5" s="151" t="s">
+        <v>465</v>
       </c>
       <c r="I5" s="47">
         <v>0</v>
       </c>
-      <c r="J5" s="162" t="s">
+      <c r="J5" s="149" t="s">
         <v>430</v>
       </c>
-      <c r="K5" s="163" t="s">
+      <c r="K5" s="150" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>156</v>
       </c>
@@ -13744,9 +14096,9 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>151</v>
@@ -13773,9 +14125,9 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>151</v>
@@ -13802,7 +14154,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -13815,7 +14167,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -13828,7 +14180,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -13841,7 +14193,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -13854,7 +14206,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -13867,7 +14219,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -13880,7 +14232,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -13893,7 +14245,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -13906,7 +14258,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -13919,7 +14271,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -13932,7 +14284,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -13945,7 +14297,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -13958,7 +14310,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -13971,7 +14323,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -13984,7 +14336,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -13997,7 +14349,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -14010,7 +14362,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -14023,7 +14375,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -14036,7 +14388,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -14049,7 +14401,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -14062,7 +14414,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -14076,36 +14428,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="30.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -14140,7 +14492,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="116.25" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>169</v>
       </c>
@@ -14169,7 +14521,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="117.75" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>170</v>
       </c>
@@ -14198,7 +14550,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>171</v>
       </c>
@@ -14227,7 +14579,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="142.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>172</v>
       </c>
@@ -14256,7 +14608,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>173</v>
       </c>
@@ -14285,7 +14637,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="44"/>
@@ -14298,7 +14650,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -14311,7 +14663,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -14324,7 +14676,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -14337,7 +14689,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -14350,7 +14702,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -14363,7 +14715,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -14376,7 +14728,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -14389,7 +14741,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -14402,7 +14754,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -14415,7 +14767,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -14428,7 +14780,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -14441,7 +14793,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -14454,7 +14806,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -14467,7 +14819,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -14480,7 +14832,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -14493,7 +14845,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -14506,7 +14858,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -14519,7 +14871,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -14532,7 +14884,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -14545,7 +14897,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -14558,7 +14910,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -14571,7 +14923,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -14585,34 +14937,34 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="32.42578125" style="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="32.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -14647,7 +14999,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="116.25" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>191</v>
       </c>
@@ -14676,7 +15028,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="117.75" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>192</v>
       </c>
@@ -14705,7 +15057,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>193</v>
       </c>
@@ -14734,7 +15086,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="142.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>194</v>
       </c>
@@ -14763,7 +15115,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>195</v>
       </c>
@@ -14792,7 +15144,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>208</v>
       </c>
@@ -14821,7 +15173,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -14834,7 +15186,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -14847,7 +15199,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="42"/>
@@ -14860,7 +15212,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -14873,7 +15225,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -14886,7 +15238,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -14899,7 +15251,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -14912,7 +15264,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -14925,7 +15277,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -14938,7 +15290,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -14951,7 +15303,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -14964,7 +15316,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -14977,7 +15329,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -14990,7 +15342,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -15003,7 +15355,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -15016,7 +15368,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -15029,7 +15381,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -15042,7 +15394,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -15055,7 +15407,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -15068,7 +15420,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -15081,7 +15433,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -15094,7 +15446,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -15108,36 +15460,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="40" zoomScaleNormal="40">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="31.28515625" style="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="31.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -15172,7 +15524,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="116.25" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>217</v>
       </c>
@@ -15201,7 +15553,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="117.75" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>218</v>
       </c>
@@ -15230,7 +15582,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>219</v>
       </c>
@@ -15259,7 +15611,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="142.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>220</v>
       </c>
@@ -15288,7 +15640,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>221</v>
       </c>
@@ -15317,7 +15669,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>222</v>
       </c>
@@ -15346,7 +15698,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>239</v>
       </c>
@@ -15375,7 +15727,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="127.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>240</v>
       </c>
@@ -15404,7 +15756,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>241</v>
       </c>
@@ -15433,7 +15785,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="42"/>
@@ -15446,7 +15798,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -15459,7 +15811,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -15472,7 +15824,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -15485,7 +15837,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="184.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -15498,7 +15850,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -15511,7 +15863,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -15524,7 +15876,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
@@ -15537,7 +15889,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -15550,7 +15902,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -15563,7 +15915,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -15576,7 +15928,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -15589,7 +15941,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -15602,7 +15954,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -15615,7 +15967,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -15628,7 +15980,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -15641,7 +15993,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -15654,7 +16006,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -15667,7 +16019,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -15681,7 +16033,7 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/manual/Swag Labs-Test Scenarios.xlsx
+++ b/src/test/manual/Swag Labs-Test Scenarios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="2" tabRatio="670" windowHeight="3765" windowWidth="10215" xWindow="0" yWindow="0"/>
+    <workbookView tabRatio="670" windowHeight="3765" windowWidth="10215" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" r:id="rId1" sheetId="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="466">
   <si>
     <t>Project Name</t>
   </si>
@@ -2345,9 +2345,6 @@
     </r>
   </si>
   <si>
-    <t>Validate the Product Display Page functionality for the different Products</t>
-  </si>
-  <si>
     <t>TS_005 Product Display Functionality</t>
   </si>
   <si>
@@ -2416,108 +2413,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Right Click </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">on the picture                                                2. Click on "Open image in new tab"                             3. Hold </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ctrl </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>key</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>button                                                              4. Press "1" key button</t>
-    </r>
-  </si>
-  <si>
-    <t>1. The new tab should be openend                                           2. The Picture should excist</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Validate the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>picture</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> excistance</t>
     </r>
   </si>
   <si>
@@ -5739,49 +5634,73 @@
     <t>1. Click on first product</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Open the Application URL, "https://www.saucedemo.com", in any  suported web Browser                                     2. User is logged in                                                            </t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Open the Application URL, "https://www.saucedemo.com", in any  suported web Browser                                                    </t>
   </si>
   <si>
-    <t>1. Click on last product</t>
+    <t>The price should be same as with entered.</t>
   </si>
   <si>
     <t>From Home page: 
-Test.allTheThings() T-Shirt (Red)
+$15.99
 From product display page: 
-Test.allTheThings() T-Shirt (Red)</t>
-  </si>
-  <si>
-    <t>The price should be same as with entered.</t>
-  </si>
-  <si>
-    <t>TC_PD_06</t>
-  </si>
-  <si>
-    <t>TC_PD_07</t>
+$15.99</t>
+  </si>
+  <si>
+    <t>Actions done before has preserved : true</t>
+  </si>
+  <si>
+    <t>Login page opened: true</t>
+  </si>
+  <si>
+    <t>User has logged in : true</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validate the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>picture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> clickable functionality</t>
+    </r>
+  </si>
+  <si>
+    <t>Product image exist: 
+true</t>
+  </si>
+  <si>
+    <t>Image should be exist.</t>
+  </si>
+  <si>
+    <t>Item added to Cart: 
+true</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the Product Display Page functionality </t>
   </si>
   <si>
     <t>From Home page: 
 $29.99
 From product display page: 
 $29.99</t>
-  </si>
-  <si>
-    <t>From Home page: 
-$15.99
-From product display page: 
-$15.99</t>
-  </si>
-  <si>
-    <t>Actions done before has preserved : true</t>
-  </si>
-  <si>
-    <t>Login page opened: true</t>
-  </si>
-  <si>
-    <t>User has logged in : true</t>
   </si>
 </sst>
 </file>
@@ -5789,7 +5708,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="149" x14ac:knownFonts="1">
+  <fonts count="172" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6107,7 +6026,7 @@
     </font>
     <font>
       <sz val="72"/>
-      <color indexed="58"/>
+      <color indexed="16"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -6167,7 +6086,7 @@
     </font>
     <font>
       <sz val="72"/>
-      <color indexed="16"/>
+      <color indexed="58"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -6461,11 +6380,21 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color indexed="12"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="72"/>
       <color indexed="58"/>
       <name val="Calibri"/>
@@ -6506,6 +6435,11 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="72"/>
       <color indexed="58"/>
       <name val="Calibri"/>
@@ -6531,6 +6465,11 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="72"/>
       <color indexed="58"/>
       <name val="Calibri"/>
@@ -6541,6 +6480,11 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <sz val="72.0"/>
       <color indexed="58"/>
@@ -6548,7 +6492,82 @@
     <font>
       <name val="Calibri"/>
       <sz val="14.0"/>
-      <color indexed="12"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="72.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="72.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="72.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="72.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="72.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -6563,7 +6582,7 @@
     <font>
       <name val="Calibri"/>
       <sz val="14.0"/>
-      <color indexed="12"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -6578,7 +6597,7 @@
     <font>
       <name val="Calibri"/>
       <sz val="14.0"/>
-      <color indexed="12"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -6593,15 +6612,30 @@
     <font>
       <name val="Calibri"/>
       <sz val="14.0"/>
-      <color indexed="12"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="14.0"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="72.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="47">
+  <fills count="64">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6796,6 +6830,79 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid"/>
     </fill>
     <fill>
@@ -6828,7 +6935,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="78">
+  <borders count="131">
     <border>
       <left/>
       <right/>
@@ -6950,36 +7057,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7486,6 +7563,111 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium"/>
     </border>
     <border>
@@ -7733,6 +7915,378 @@
         <color indexed="8"/>
       </bottom>
     </border>
+    <border>
+      <left style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7740,7 +8294,7 @@
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="22" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="24" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="221">
     <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7978,238 +8532,325 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="16" fillId="0" fontId="49" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="17" fillId="13" fontId="62" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="17" fillId="13" fontId="50" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="17" fillId="0" fontId="63" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="17" fillId="0" fontId="51" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="17" fillId="0" fontId="64" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="17" fillId="0" fontId="52" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="18" fillId="14" fontId="65" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="18" fillId="14" fontId="53" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="66" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="54" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="67" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="55" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="19" fillId="15" fontId="68" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="19" fillId="15" fontId="56" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="19" fillId="0" fontId="69" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="19" fillId="0" fontId="57" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="19" fillId="0" fontId="70" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="19" fillId="0" fontId="58" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="20" fillId="16" fontId="71" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="20" fillId="16" fontId="59" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="20" fillId="0" fontId="72" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="20" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="20" fillId="0" fontId="73" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="20" fillId="0" fontId="61" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="21" fillId="17" fontId="74" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="21" fillId="17" fontId="62" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="21" fillId="0" fontId="75" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="21" fillId="0" fontId="63" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="21" fillId="0" fontId="76" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="21" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="22" fillId="18" fontId="77" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="22" fillId="18" fontId="65" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="22" fillId="0" fontId="78" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="22" fillId="0" fontId="66" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="22" fillId="0" fontId="79" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="22" fillId="0" fontId="67" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="23" fillId="19" fontId="80" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="23" fillId="19" fontId="68" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="23" fillId="0" fontId="81" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="23" fillId="0" fontId="69" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="23" fillId="0" fontId="82" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="23" fillId="0" fontId="70" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="24" fillId="20" fontId="83" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="24" fillId="20" fontId="71" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="24" fillId="0" fontId="84" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="24" fillId="0" fontId="72" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="24" fillId="0" fontId="85" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="24" fillId="0" fontId="73" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="25" fillId="21" fontId="86" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="25" fillId="21" fontId="74" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="25" fillId="0" fontId="87" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="25" fillId="0" fontId="75" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="25" fillId="0" fontId="88" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="25" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="26" fillId="22" fontId="89" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="26" fillId="22" fontId="77" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="26" fillId="0" fontId="90" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="26" fillId="0" fontId="78" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="26" fillId="0" fontId="91" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="26" fillId="0" fontId="79" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="27" fillId="23" fontId="92" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="27" fillId="23" fontId="80" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="27" fillId="0" fontId="93" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="27" fillId="0" fontId="81" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="27" fillId="0" fontId="94" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="27" fillId="0" fontId="82" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="28" fillId="24" fontId="95" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="28" fillId="24" fontId="83" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="28" fillId="0" fontId="96" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="28" fillId="0" fontId="84" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="28" fillId="0" fontId="97" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="28" fillId="0" fontId="85" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="29" fillId="25" fontId="98" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="29" fillId="25" fontId="86" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="29" fillId="0" fontId="99" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="29" fillId="0" fontId="87" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="29" fillId="0" fontId="100" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="29" fillId="0" fontId="88" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="30" fillId="26" fontId="101" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="30" fillId="26" fontId="89" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="30" fillId="0" fontId="102" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="30" fillId="0" fontId="90" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="30" fillId="0" fontId="103" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="30" fillId="0" fontId="91" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="31" fillId="27" fontId="104" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="31" fillId="27" fontId="92" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="31" fillId="0" fontId="105" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="31" fillId="0" fontId="93" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="31" fillId="0" fontId="106" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="31" fillId="0" fontId="94" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="32" fillId="28" fontId="107" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="32" fillId="28" fontId="95" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="32" fillId="0" fontId="108" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="32" fillId="0" fontId="96" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="32" fillId="0" fontId="109" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="32" fillId="0" fontId="97" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="33" fillId="29" fontId="110" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="33" fillId="29" fontId="98" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="33" fillId="0" fontId="111" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="33" fillId="0" fontId="99" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="33" fillId="0" fontId="112" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="33" fillId="0" fontId="100" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="34" fillId="30" fontId="113" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="34" fillId="30" fontId="101" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="34" fillId="0" fontId="114" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="34" fillId="0" fontId="102" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="34" fillId="0" fontId="115" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="34" fillId="0" fontId="103" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="31" fontId="116" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="31" fontId="104" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="35" fillId="0" fontId="117" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="35" fillId="0" fontId="105" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="35" fillId="0" fontId="118" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="35" fillId="0" fontId="106" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="36" fillId="32" fontId="119" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="36" fillId="32" fontId="107" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="36" fillId="0" fontId="120" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="36" fillId="0" fontId="108" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="36" fillId="0" fontId="121" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="36" fillId="0" fontId="109" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="37" fillId="33" fontId="122" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="37" fillId="33" fontId="110" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="37" fillId="0" fontId="123" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="37" fillId="0" fontId="111" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="37" fillId="0" fontId="124" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="37" fillId="0" fontId="112" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="38" fillId="34" fontId="125" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="38" fillId="34" fontId="113" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="38" fillId="0" fontId="126" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="38" fillId="0" fontId="114" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="38" fillId="0" fontId="127" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="38" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="39" fillId="35" fontId="128" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="39" fillId="35" fontId="116" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="39" fillId="0" fontId="129" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="39" fillId="0" fontId="117" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="36" fontId="130" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="39" fillId="0" fontId="118" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="36" fontId="119" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="40" fillId="0" fontId="131" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="40" fillId="0" fontId="120" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="40" fillId="0" fontId="132" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="40" fillId="0" fontId="30" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="37" fontId="133" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="3" fontId="12" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="42" fillId="2" fontId="25" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="42" fillId="0" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="43" fillId="0" fontId="17" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="43" fillId="0" fontId="19" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="42" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="44" fillId="37" fontId="121" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="41" fillId="0" fontId="134" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="44" fillId="0" fontId="122" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="42" fillId="38" fontId="135" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="44" fillId="0" fontId="123" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="45" fillId="38" fontId="124" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="42" fillId="0" fontId="136" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="45" fillId="0" fontId="125" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="41" fillId="0" fontId="30" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="45" fillId="0" fontId="126" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="42" fillId="0" fontId="30" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="46" fillId="39" fontId="127" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="46" fillId="0" fontId="128" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="39" fillId="0" fontId="30" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="46" fillId="0" fontId="129" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="47" fillId="40" fontId="130" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="47" fillId="0" fontId="131" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="47" fillId="0" fontId="132" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="48" fillId="41" fontId="133" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="48" fillId="0" fontId="134" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="48" fillId="0" fontId="135" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="41" fillId="0" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="2" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="41" fillId="0" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="41" fillId="0" fontId="11" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="41" fillId="0" fontId="17" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="49" fillId="42" fontId="136" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="49" fillId="0" fontId="137" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="49" fillId="0" fontId="138" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="50" fillId="43" fontId="139" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="50" fillId="0" fontId="140" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="50" fillId="0" fontId="141" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="1">
@@ -8221,97 +8862,94 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="43" fillId="3" fontId="12" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="44" fillId="2" fontId="25" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="44" fillId="0" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="53" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="45" fontId="142" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="54" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="50" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFont="true" borderId="58" fillId="0" fontId="143" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="58" fillId="0" fontId="144" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="47" fontId="145" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="51" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="59" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFont="true" borderId="66" fillId="0" fontId="146" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="66" fillId="0" fontId="147" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="49" fontId="148" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="60" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="56" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFont="true" borderId="74" fillId="0" fontId="149" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="74" fillId="0" fontId="150" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="51" fontId="151" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="57" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="45" fillId="0" fontId="17" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="45" fillId="0" fontId="19" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="44" fillId="0" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="55" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="52" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="61" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="58" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="53" fillId="40" fontId="137" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFont="true" borderId="82" fillId="0" fontId="152" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="82" fillId="0" fontId="153" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="53" fontId="154" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFont="true" borderId="53" fillId="0" fontId="138" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFont="true" borderId="90" fillId="0" fontId="155" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFont="true" borderId="53" fillId="0" fontId="139" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFont="true" borderId="90" fillId="0" fontId="156" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="61" fillId="42" fontId="140" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="55" fontId="157" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFont="true" borderId="61" fillId="0" fontId="141" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFont="true" borderId="98" fillId="0" fontId="158" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFont="true" borderId="61" fillId="0" fontId="142" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFont="true" borderId="98" fillId="0" fontId="159" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="69" fillId="44" fontId="143" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="57" fontId="160" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFont="true" borderId="69" fillId="0" fontId="144" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFont="true" borderId="106" fillId="0" fontId="161" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFont="true" borderId="69" fillId="0" fontId="145" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFont="true" borderId="106" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="46" borderId="77" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="59" fontId="163" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="77" xfId="0" applyFont="true" applyBorder="true">
+    <xf applyBorder="true" applyFont="true" borderId="114" fillId="0" fontId="164" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="77" xfId="0" applyFont="true" applyBorder="true">
+    <xf applyBorder="true" applyFont="true" borderId="114" fillId="0" fontId="165" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="61" fontId="166" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="122" fillId="0" fontId="167" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="122" fillId="0" fontId="168" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="63" borderId="130" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="130" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="130" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -8606,8 +9244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0" zoomScale="175" zoomScaleNormal="175">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0" zoomScale="175" zoomScaleNormal="175">
+      <selection activeCell="E15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -8631,10 +9269,10 @@
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="188" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="160"/>
+      <c r="C2" s="189"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
@@ -8664,10 +9302,10 @@
       <c r="A5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="161" t="s">
+      <c r="B5" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="160"/>
+      <c r="C5" s="189"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
@@ -8776,13 +9414,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>150</v>
+        <v>464</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -8806,7 +9444,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -8827,7 +9465,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -8851,7 +9489,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C20" s="6">
         <v>1</v>
@@ -8866,7 +9504,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C21" s="9">
         <v>1</v>
@@ -8878,7 +9516,7 @@
     </row>
     <row ht="15.75" r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -9110,25 +9748,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="116.25" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -9139,25 +9777,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="117.75" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -9168,25 +9806,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -9197,25 +9835,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="157.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
@@ -9226,25 +9864,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
@@ -9255,25 +9893,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="117" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="47">
@@ -9284,25 +9922,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="107.25" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="47">
@@ -9313,25 +9951,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="127.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="47">
@@ -9342,25 +9980,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="124.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="47">
@@ -9371,25 +10009,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="47">
@@ -9400,25 +10038,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F12" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="47">
@@ -9429,25 +10067,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="213.75" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="E13" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="B13" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>253</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>298</v>
-      </c>
       <c r="F13" s="37" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="47">
@@ -9458,25 +10096,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="151.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="47">
@@ -9487,25 +10125,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="160.5" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="G15" s="35" t="s">
         <v>303</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>309</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>253</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>304</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>307</v>
       </c>
       <c r="H15" s="32"/>
       <c r="I15" s="47">
@@ -9516,25 +10154,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="151.5" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="47">
@@ -9545,25 +10183,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="153.75" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E17" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="F17" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="G17" s="35" t="s">
         <v>308</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>312</v>
       </c>
       <c r="H17" s="32"/>
       <c r="I17" s="47">
@@ -9574,25 +10212,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="155.25" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H18" s="32"/>
       <c r="I18" s="47">
@@ -9811,25 +10449,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="135" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -9840,25 +10478,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="135" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C3" s="44" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" s="41" t="s">
         <v>333</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>337</v>
-      </c>
       <c r="E3" s="35" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -9869,25 +10507,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -9898,25 +10536,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="157.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
@@ -9927,25 +10565,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="132.75" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
@@ -9956,25 +10594,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="150" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="47">
@@ -9985,25 +10623,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="162.75" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F8" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="47">
@@ -10014,25 +10652,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="153" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F9" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="47">
@@ -10043,25 +10681,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="156.75" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F10" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="47">
@@ -10072,25 +10710,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="159.75" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F11" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="47">
@@ -10400,25 +11038,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="153" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -10429,23 +11067,23 @@
     </row>
     <row customFormat="1" customHeight="1" ht="177" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B3" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>367</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>371</v>
-      </c>
       <c r="D3" s="41" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="35" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -10858,25 +11496,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="103.5" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -10887,25 +11525,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="103.5" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -10916,25 +11554,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="103.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -10945,25 +11583,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="103.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B5" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>373</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>377</v>
-      </c>
       <c r="D5" s="41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
@@ -10974,19 +11612,19 @@
     </row>
     <row customFormat="1" customHeight="1" ht="103.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
@@ -11001,25 +11639,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="116.25" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="47">
@@ -11030,19 +11668,19 @@
     </row>
     <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F8" s="37" t="s">
         <v>58</v>
@@ -11057,19 +11695,19 @@
     </row>
     <row customFormat="1" customHeight="1" ht="105.75" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F9" s="37" t="s">
         <v>58</v>
@@ -11084,25 +11722,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F10" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="47"/>
@@ -11111,25 +11749,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="C11" s="42" t="s">
         <v>394</v>
       </c>
-      <c r="B11" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>398</v>
-      </c>
       <c r="D11" s="41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F11" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="47"/>
@@ -11138,25 +11776,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="C12" s="42" t="s">
         <v>395</v>
       </c>
-      <c r="B12" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>399</v>
-      </c>
       <c r="D12" s="41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F12" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="47"/>
@@ -11477,16 +12115,16 @@
         <v>45</v>
       </c>
       <c r="H2" s="125" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="I2" s="47">
         <v>0</v>
       </c>
       <c r="J2" s="123" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K2" s="124" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="103.5" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -11509,19 +12147,19 @@
         <v>51</v>
       </c>
       <c r="G3" s="53" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H3" s="92" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="I3" s="47">
         <v>0</v>
       </c>
       <c r="J3" s="90" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K3" s="91" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="103.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -11544,19 +12182,19 @@
         <v>49</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H4" s="95" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="I4" s="47">
         <v>0</v>
       </c>
       <c r="J4" s="93" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K4" s="94" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="103.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -11579,19 +12217,19 @@
         <v>52</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H5" s="128" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="I5" s="47">
         <v>0</v>
       </c>
       <c r="J5" s="126" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K5" s="127" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="103.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -11614,19 +12252,19 @@
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H6" s="98" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="I6" s="47">
         <v>0</v>
       </c>
       <c r="J6" s="96" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K6" s="97" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -11649,19 +12287,19 @@
         <v>70</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H7" s="131" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="I7" s="47">
         <v>0</v>
       </c>
       <c r="J7" s="129" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K7" s="130" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -11681,22 +12319,22 @@
         <v>69</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H8" s="134" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="I8" s="47">
         <v>0</v>
       </c>
       <c r="J8" s="132" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K8" s="133" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="105.75" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -11707,31 +12345,31 @@
         <v>41</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>77</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H9" s="110" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="I9" s="47">
         <v>0</v>
       </c>
       <c r="J9" s="108" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K9" s="109" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="101.25" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -11742,31 +12380,31 @@
         <v>41</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>77</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H10" s="119" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="I10" s="47">
         <v>0</v>
       </c>
       <c r="J10" s="117" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K10" s="118" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -11777,7 +12415,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>77</v>
@@ -11786,22 +12424,22 @@
         <v>43</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H11" s="113" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="I11" s="47">
         <v>0</v>
       </c>
       <c r="J11" s="111" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K11" s="112" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="112.5" r="12" s="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -11812,7 +12450,7 @@
         <v>41</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D12" s="35" t="s">
         <v>77</v>
@@ -11821,22 +12459,22 @@
         <v>43</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H12" s="122" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="I12" s="47">
         <v>0</v>
       </c>
       <c r="J12" s="120" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K12" s="121" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="175.5" r="13" s="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -11862,16 +12500,16 @@
         <v>66</v>
       </c>
       <c r="H13" s="101" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="I13" s="47">
         <v>2</v>
       </c>
       <c r="J13" s="99" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K13" s="100" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="103.5" r="14" s="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -11897,16 +12535,16 @@
         <v>71</v>
       </c>
       <c r="H14" s="116" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="I14" s="47">
         <v>2</v>
       </c>
       <c r="J14" s="114" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K14" s="115" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="150.75" r="15" s="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -11923,25 +12561,25 @@
         <v>77</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F15" s="37" t="s">
         <v>44</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H15" s="104" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="I15" s="47">
         <v>1</v>
       </c>
       <c r="J15" s="102" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K15" s="103" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="147.75" r="16" s="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -11952,7 +12590,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D16" s="41" t="s">
         <v>77</v>
@@ -11964,24 +12602,24 @@
         <v>44</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H16" s="83" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="I16" s="47">
         <v>1</v>
       </c>
       <c r="J16" s="81" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="K16" s="82" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="103.5" r="17" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B17" s="42" t="s">
         <v>41</v>
@@ -12002,21 +12640,21 @@
         <v>82</v>
       </c>
       <c r="H17" s="107" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I17" s="47">
         <v>1</v>
       </c>
       <c r="J17" s="105" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K17" s="106" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="103.5" r="18" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B18" s="42" t="s">
         <v>41</v>
@@ -12037,27 +12675,27 @@
         <v>86</v>
       </c>
       <c r="H18" s="89" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="I18" s="47">
         <v>1</v>
       </c>
       <c r="J18" s="87" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K18" s="88" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="168" r="19" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B19" s="42" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D19" s="41" t="s">
         <v>77</v>
@@ -12069,24 +12707,24 @@
         <v>91</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H19" s="86" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="I19" s="47">
         <v>1</v>
       </c>
       <c r="J19" s="84" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K19" s="85" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B20" s="42" t="s">
         <v>41</v>
@@ -12240,7 +12878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
+    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -12282,16 +12920,16 @@
       <c r="G1" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="162" t="s">
+      <c r="H1" s="153" t="s">
         <v>37</v>
       </c>
       <c r="I1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="162" t="s">
+      <c r="J1" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="162" t="s">
+      <c r="K1" s="153" t="s">
         <v>39</v>
       </c>
     </row>
@@ -12314,20 +12952,20 @@
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="173" t="s">
+      <c r="G2" s="156" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="186" t="s">
-        <v>467</v>
-      </c>
-      <c r="I2" s="174">
+      <c r="H2" s="165" t="s">
+        <v>457</v>
+      </c>
+      <c r="I2" s="157">
         <v>0</v>
       </c>
-      <c r="J2" s="184" t="s">
-        <v>430</v>
-      </c>
-      <c r="K2" s="185" t="s">
-        <v>432</v>
+      <c r="J2" s="163" t="s">
+        <v>426</v>
+      </c>
+      <c r="K2" s="164" t="s">
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="138" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -12349,20 +12987,20 @@
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="173" t="s">
+      <c r="G3" s="156" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="183" t="s">
-        <v>466</v>
-      </c>
-      <c r="I3" s="174">
+      <c r="H3" s="162" t="s">
+        <v>456</v>
+      </c>
+      <c r="I3" s="157">
         <v>1</v>
       </c>
-      <c r="J3" s="181" t="s">
-        <v>430</v>
-      </c>
-      <c r="K3" s="182" t="s">
-        <v>432</v>
+      <c r="J3" s="160" t="s">
+        <v>426</v>
+      </c>
+      <c r="K3" s="161" t="s">
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="136.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -12384,20 +13022,20 @@
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="173" t="s">
+      <c r="G4" s="156" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="192" t="s">
-        <v>468</v>
-      </c>
-      <c r="I4" s="175">
+      <c r="H4" s="171" t="s">
+        <v>458</v>
+      </c>
+      <c r="I4" s="158">
         <v>0</v>
       </c>
-      <c r="J4" s="190" t="s">
-        <v>430</v>
-      </c>
-      <c r="K4" s="191" t="s">
-        <v>432</v>
+      <c r="J4" s="169" t="s">
+        <v>426</v>
+      </c>
+      <c r="K4" s="170" t="s">
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="156" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -12419,20 +13057,20 @@
       <c r="F5" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="173" t="s">
+      <c r="G5" s="156" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="189" t="s">
-        <v>468</v>
-      </c>
-      <c r="I5" s="175">
+      <c r="H5" s="168" t="s">
+        <v>458</v>
+      </c>
+      <c r="I5" s="158">
         <v>2</v>
       </c>
-      <c r="J5" s="187" t="s">
-        <v>430</v>
-      </c>
-      <c r="K5" s="188" t="s">
-        <v>432</v>
+      <c r="J5" s="166" t="s">
+        <v>426</v>
+      </c>
+      <c r="K5" s="167" t="s">
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="103.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -12443,7 +13081,7 @@
         <v>97</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>108</v>
@@ -12457,12 +13095,12 @@
       <c r="G6" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="176"/>
+      <c r="H6" s="159"/>
       <c r="I6" s="49">
         <v>2</v>
       </c>
-      <c r="J6" s="163"/>
-      <c r="K6" s="164"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="155"/>
     </row>
     <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
@@ -12851,16 +13489,16 @@
         <v>124</v>
       </c>
       <c r="H2" s="137" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="I2" s="47">
         <v>1</v>
       </c>
       <c r="J2" s="135" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K2" s="136" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="99" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -12886,16 +13524,16 @@
         <v>126</v>
       </c>
       <c r="H3" s="140" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="I3" s="47">
         <v>1</v>
       </c>
       <c r="J3" s="138" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K3" s="139" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="92.25" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -12921,16 +13559,16 @@
         <v>124</v>
       </c>
       <c r="H4" s="143" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="I4" s="47">
         <v>0</v>
       </c>
       <c r="J4" s="141" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K4" s="142" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="111.75" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -12956,16 +13594,16 @@
         <v>126</v>
       </c>
       <c r="H5" s="146" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="I5" s="47">
         <v>0</v>
       </c>
       <c r="J5" s="144" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K5" s="145" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="103.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -13364,19 +14002,19 @@
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H2" s="71" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I2" s="47">
         <v>0</v>
       </c>
       <c r="J2" s="69" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K2" s="70" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="99" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -13402,16 +14040,16 @@
         <v>139</v>
       </c>
       <c r="H3" s="74" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I3" s="59">
         <v>0</v>
       </c>
       <c r="J3" s="72" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K3" s="73" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="92.25" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -13437,16 +14075,16 @@
         <v>139</v>
       </c>
       <c r="H4" s="68" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I4" s="47">
         <v>0</v>
       </c>
       <c r="J4" s="66" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K4" s="67" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="115.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -13466,22 +14104,22 @@
         <v>145</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G5" s="35" t="s">
         <v>139</v>
       </c>
       <c r="H5" s="65" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I5" s="47">
         <v>0</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K5" s="64" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="139.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -13501,33 +14139,33 @@
         <v>149</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>139</v>
       </c>
       <c r="H6" s="62" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I6" s="47">
         <v>0</v>
       </c>
       <c r="J6" s="60" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K6" s="61" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>138</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>109</v>
@@ -13539,30 +14177,30 @@
         <v>58</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H7" s="80" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I7" s="47">
         <v>1</v>
       </c>
       <c r="J7" s="78" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="K7" s="79" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>138</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>109</v>
@@ -13574,19 +14212,19 @@
         <v>58</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H8" s="77" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="I8" s="47">
         <v>1</v>
       </c>
       <c r="J8" s="75" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K8" s="76" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -13873,7 +14511,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="F6" sqref="F6:H8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
@@ -13927,56 +14565,56 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="96.75" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="96.75" r="2" s="33" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>454</v>
-      </c>
-      <c r="H2" s="156" t="s">
-        <v>455</v>
+        <v>450</v>
+      </c>
+      <c r="H2" s="220" t="s">
+        <v>451</v>
       </c>
       <c r="I2" s="47">
         <v>0</v>
       </c>
-      <c r="J2" s="152" t="s">
-        <v>430</v>
-      </c>
-      <c r="K2" s="153" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="99" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="218" t="s">
+        <v>426</v>
+      </c>
+      <c r="K2" s="219" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="99" r="3" s="33" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>457</v>
+        <v>156</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
@@ -13984,175 +14622,149 @@
       <c r="G3" s="46" t="s">
         <v>454</v>
       </c>
-      <c r="H3" s="157" t="s">
-        <v>460</v>
+      <c r="H3" s="217" t="s">
+        <v>465</v>
       </c>
       <c r="I3" s="47">
         <v>0</v>
       </c>
-      <c r="J3" s="154" t="s">
-        <v>430</v>
-      </c>
-      <c r="K3" s="155" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="92.25" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" s="215" t="s">
+        <v>426</v>
+      </c>
+      <c r="K3" s="216" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="92.25" r="4" s="33" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>158</v>
+        <v>459</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>456</v>
+        <v>156</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>58</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="35" t="s">
         <v>461</v>
       </c>
-      <c r="H4" s="158" t="s">
-        <v>464</v>
+      <c r="H4" s="214" t="s">
+        <v>460</v>
       </c>
       <c r="I4" s="47">
-        <v>0</v>
-      </c>
-      <c r="J4" s="147" t="s">
-        <v>430</v>
-      </c>
-      <c r="K4" s="148" t="s">
-        <v>432</v>
+        <v>1</v>
+      </c>
+      <c r="J4" s="212" t="s">
+        <v>426</v>
+      </c>
+      <c r="K4" s="213" t="s">
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="115.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>456</v>
+        <v>161</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="46" t="s">
-        <v>461</v>
-      </c>
-      <c r="H5" s="151" t="s">
-        <v>465</v>
+      <c r="G5" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" s="208" t="s">
+        <v>462</v>
       </c>
       <c r="I5" s="47">
         <v>0</v>
       </c>
-      <c r="J5" s="149" t="s">
-        <v>430</v>
-      </c>
-      <c r="K5" s="150" t="s">
-        <v>432</v>
+      <c r="J5" s="206" t="s">
+        <v>426</v>
+      </c>
+      <c r="K5" s="207" t="s">
+        <v>428</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="103.5" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="175" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="175" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="176" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="177" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" s="37" t="s">
+      <c r="E6" s="178" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="179" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="47">
+      <c r="G6" s="178" t="s">
+        <v>163</v>
+      </c>
+      <c r="H6" s="211" t="s">
+        <v>463</v>
+      </c>
+      <c r="I6" s="180">
         <v>1</v>
       </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
+      <c r="J6" s="209" t="s">
+        <v>426</v>
+      </c>
+      <c r="K6" s="210" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>462</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="47">
-        <v>0</v>
-      </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
+      <c r="A7" s="181"/>
+      <c r="B7" s="181"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="181"/>
+      <c r="J7" s="181"/>
+      <c r="K7" s="181"/>
     </row>
     <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>463</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="47">
-        <v>1</v>
-      </c>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
+      <c r="A8" s="181"/>
+      <c r="B8" s="181"/>
+      <c r="C8" s="181"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="181"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="181"/>
+      <c r="K8" s="181"/>
     </row>
     <row customFormat="1" customHeight="1" ht="169.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
@@ -14494,25 +15106,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="116.25" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -14523,25 +15135,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="117.75" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>174</v>
-      </c>
       <c r="C3" s="44" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -14552,25 +15164,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>175</v>
-      </c>
       <c r="E4" s="35" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -14581,25 +15193,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="142.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
@@ -14610,25 +15222,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
@@ -15001,25 +15613,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="116.25" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -15030,25 +15642,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="117.75" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="C3" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>200</v>
-      </c>
       <c r="E3" s="35" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -15059,25 +15671,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -15088,25 +15700,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="142.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
@@ -15117,25 +15729,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
@@ -15146,25 +15758,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="47">
@@ -15526,16 +16138,16 @@
     </row>
     <row customFormat="1" customHeight="1" ht="116.25" r="2" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>43</v>
@@ -15544,7 +16156,7 @@
         <v>44</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -15555,25 +16167,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="117.75" r="3" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B3" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>227</v>
-      </c>
       <c r="D3" s="41" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -15584,25 +16196,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>223</v>
-      </c>
       <c r="C4" s="44" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -15613,25 +16225,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="142.5" r="5" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
@@ -15642,25 +16254,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
@@ -15671,25 +16283,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="103.5" r="7" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="47">
@@ -15700,13 +16312,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="103.5" r="8" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>109</v>
@@ -15729,25 +16341,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="127.5" r="9" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>244</v>
-      </c>
       <c r="D9" s="41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F9" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="47">
@@ -15758,25 +16370,25 @@
     </row>
     <row customFormat="1" customHeight="1" ht="103.5" r="10" s="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F10" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="47">

--- a/src/test/manual/Swag Labs-Test Scenarios.xlsx
+++ b/src/test/manual/Swag Labs-Test Scenarios.xlsx
@@ -1,34 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\shelf1\Swag Labs\automation\Swag Labs\SwagLabs\src\test\manual\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="3765" tabRatio="670" activeTab="6"/>
+    <workbookView activeTab="6" tabRatio="670" windowHeight="3765" windowWidth="10215" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
-    <sheet name="Login" sheetId="2" r:id="rId2"/>
-    <sheet name="Logout" sheetId="3" r:id="rId3"/>
-    <sheet name="Filter" sheetId="4" r:id="rId4"/>
-    <sheet name="All Items" sheetId="5" r:id="rId5"/>
-    <sheet name="Product Display" sheetId="6" r:id="rId6"/>
-    <sheet name="Add to Cart" sheetId="7" r:id="rId7"/>
-    <sheet name="Your Cart" sheetId="8" r:id="rId8"/>
-    <sheet name="Home" sheetId="9" r:id="rId9"/>
-    <sheet name="Checkout" sheetId="10" r:id="rId10"/>
-    <sheet name="Overview" sheetId="12" r:id="rId11"/>
-    <sheet name="Compleate" sheetId="11" r:id="rId12"/>
-    <sheet name="Heder,Footer" sheetId="13" r:id="rId13"/>
+    <sheet name="Test Scenarios" r:id="rId1" sheetId="1"/>
+    <sheet name="Login" r:id="rId2" sheetId="2"/>
+    <sheet name="Logout" r:id="rId3" sheetId="3"/>
+    <sheet name="Filter" r:id="rId4" sheetId="4"/>
+    <sheet name="All Items" r:id="rId5" sheetId="5"/>
+    <sheet name="Product Display" r:id="rId6" sheetId="6"/>
+    <sheet name="Add to Cart" r:id="rId7" sheetId="7"/>
+    <sheet name="Your Cart" r:id="rId8" sheetId="8"/>
+    <sheet name="Home" r:id="rId9" sheetId="9"/>
+    <sheet name="Checkout" r:id="rId10" sheetId="10"/>
+    <sheet name="Overview" r:id="rId11" sheetId="12"/>
+    <sheet name="Compleate" r:id="rId12" sheetId="11"/>
+    <sheet name="Heder,Footer" r:id="rId13" sheetId="13"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="489">
   <si>
     <t>Project Name</t>
   </si>
@@ -2610,33 +2605,6 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"Add to cart"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                           2. The basket icon should be changed                                                       3. The product should be disappeared from the Basket page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. The button text should be changed to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>"remove"</t>
     </r>
     <r>
@@ -2762,8 +2730,29 @@
     <t>TS_007 Your  Cart Functionality</t>
   </si>
   <si>
-    <r>
-      <t>Validate the "</t>
+    <t xml:space="preserve">1. Click on "Your cart" (Basket) button                                                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be moved to the Your Cart page                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the Application URL, "https://www.saucedemo.com", in any  suported web Browser                                          2. User is logged in                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on the "Add to Cart" batton from the arbitrary product                                                                      2. Click on "Your cart" (Basket) batton                             3. Click on the product's title                                                                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the Application URL, "https://www.saucedemo.com", in any  suported web Browser                                          2. User is logged in                                             3. User entered to the Your Cart page               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on the "continue shopping" button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be moved to the All Products page                                                         </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validate the </t>
     </r>
     <r>
       <rPr>
@@ -2772,8 +2761,9 @@
         <color theme="1"/>
         <rFont val="Verdana"/>
         <family val="2"/>
-      </rPr>
-      <t>Your cart</t>
+        <charset val="204"/>
+      </rPr>
+      <t>continue shopping</t>
     </r>
     <r>
       <rPr>
@@ -2782,29 +2772,8 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>" button from the Home page</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Click on "Your cart" (Basket) button                                                                                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">User should be moved to the Your Cart page                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open the Application URL, "https://www.saucedemo.com", in any  suported web Browser                                          2. User is logged in                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Click on the "Add to Cart" batton from the arbitrary product                                                                      2. Click on "Your cart" (Basket) batton                             3. Click on the product's title                                                                                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open the Application URL, "https://www.saucedemo.com", in any  suported web Browser                                          2. User is logged in                                             3. User entered to the Your Cart page               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Click on the "continue shopping" button </t>
-  </si>
-  <si>
-    <t xml:space="preserve">User should be moved to the All Products page                                                         </t>
+      <t xml:space="preserve"> functionality  </t>
+    </r>
   </si>
   <si>
     <r>
@@ -2819,7 +2788,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>continue shopping</t>
+      <t>checkout</t>
     </r>
     <r>
       <rPr>
@@ -2832,31 +2801,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Validate the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>checkout</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> functionality  </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">1. Click on the "checkout" button </t>
   </si>
   <si>
@@ -2866,59 +2810,13 @@
     <t xml:space="preserve">User should be moved to the "Checkout: Your Information" page                                                         </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Validate the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>remove</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">1. Click on "Add to cart" button from an arbitrary product                                                                                      2. Click on "Your Cart" button                                                 3. Click on "Remove" button                                                                                                              </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Validate the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>product</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> functionality</t>
-    </r>
-  </si>
-  <si>
-    <t>Validate the Your Cart icon efficiency</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Open the Application URL, "https://www.saucedemo.com", in any  suported web Browser                                          2. User is logged in                                                          </t>
   </si>
   <si>
     <t>1. Click on the "Add to cart" button on 1st item      2. Click on the "Add to cart" button on 2nd item      3. Click on the "remove" button on 2nd item</t>
-  </si>
-  <si>
-    <t>2. Your Cart icon should be changed every time, by adding or removing items          2. Icon shoould show the count of items in the Basket</t>
   </si>
   <si>
     <t>TC_HF_01</t>
@@ -5705,33 +5603,144 @@
     <t>Validate the adding to cart functionality</t>
   </si>
   <si>
+    <t>The product should be appeared in the Basket page</t>
+  </si>
+  <si>
+    <t>TC_AC_08</t>
+  </si>
+  <si>
+    <t>TC_AC_09</t>
+  </si>
+  <si>
+    <t>Validate the "Add to cart" button variation from Product page</t>
+  </si>
+  <si>
+    <t>Validate the Basket icon variation from Product page</t>
+  </si>
+  <si>
+    <t>Validate the adding to cart functionality from Product page</t>
+  </si>
+  <si>
+    <r>
+      <t>Validate the "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Your cart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>" button functionality from the Home page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validate the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>product button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> functionality</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validate the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">remove button </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>functionality</t>
+    </r>
+  </si>
+  <si>
+    <t>Validate the Your Cart icon variation functionality</t>
+  </si>
+  <si>
+    <t>Icon shoould show the count of items in the Basket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your Cart icon should be changed every time, by adding or removing items          </t>
+  </si>
+  <si>
+    <t>Validate the Your Cart icon variation excistance</t>
+  </si>
+  <si>
+    <t>TC_YC_07</t>
+  </si>
+  <si>
+    <t>The product should be disappeared from the Basket page</t>
+  </si>
+  <si>
     <t>Product added to cart: 
-Sauce Labs Bolt T-Shirt</t>
-  </si>
-  <si>
-    <t>The product should be appeared in the Basket page</t>
-  </si>
-  <si>
-    <t>TC_AC_08</t>
-  </si>
-  <si>
-    <t>TC_AC_09</t>
-  </si>
-  <si>
-    <t>Validate the "Add to cart" button variation from Product page</t>
-  </si>
-  <si>
-    <t>Validate the Basket icon variation from Product page</t>
-  </si>
-  <si>
-    <t>Validate the adding to cart functionality from Product page</t>
+true</t>
+  </si>
+  <si>
+    <t>Product added to cart: 
+Sauce Labs Backpack</t>
+  </si>
+  <si>
+    <t>Product removed from cart: 
+false</t>
+  </si>
+  <si>
+    <t>Product removed from cart: 
+true</t>
+  </si>
+  <si>
+    <t>Product remove from cart: 
+true</t>
+  </si>
+  <si>
+    <t>~Product doesn't removed.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="151" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="178">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6744,60 +6753,179 @@
       <sz val="72"/>
       <color indexed="58"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="17"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="12"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="72"/>
       <color indexed="58"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="17"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="12"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="72"/>
       <color indexed="58"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="17"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="72.0"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="72.0"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="72.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7017,22 +7145,10 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
+      <patternFill patternType="solid"/>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -7780,19 +7896,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
+      <left style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
       <right style="medium">
         <color indexed="8"/>
       </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
+      <top style="medium"/>
+      <bottom style="medium"/>
     </border>
     <border>
       <left style="medium">
@@ -7801,625 +7928,724 @@
       <right style="medium">
         <color indexed="8"/>
       </right>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
       <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="22" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="24" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="226">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="4" numFmtId="14" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="4" numFmtId="14" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="2" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="19" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="20" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="20" numFmtId="0" quotePrefix="1" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="21" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="25" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="25" numFmtId="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="26" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="28" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="6" fontId="29" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="30" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="31" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="7" fontId="32" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="33" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="8" fontId="35" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="36" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="37" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="9" fontId="38" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="13" fillId="0" fontId="39" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="13" fillId="0" fontId="40" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="14" fillId="10" fontId="41" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="14" fillId="0" fontId="42" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="14" fillId="0" fontId="43" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="15" fillId="11" fontId="44" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="15" fillId="0" fontId="45" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="15" fillId="0" fontId="46" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="16" fillId="12" fontId="47" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="16" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="16" fillId="0" fontId="49" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="17" fillId="13" fontId="50" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="17" fillId="0" fontId="51" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="17" fillId="0" fontId="52" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="18" fillId="14" fontId="53" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="54" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="55" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="19" fillId="15" fontId="56" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="19" fillId="0" fontId="57" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="19" fillId="0" fontId="58" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="20" fillId="16" fontId="59" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="20" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="20" fillId="0" fontId="61" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="21" fillId="17" fontId="62" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="21" fillId="0" fontId="63" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="21" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="22" fillId="18" fontId="65" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="22" fillId="0" fontId="66" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="22" fillId="0" fontId="67" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="23" fillId="19" fontId="68" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="23" fillId="0" fontId="69" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="23" fillId="0" fontId="70" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="24" fillId="20" fontId="71" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="24" fillId="0" fontId="72" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="24" fillId="0" fontId="73" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="25" fillId="21" fontId="74" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="25" fillId="0" fontId="75" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="25" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="26" fillId="22" fontId="77" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="26" fillId="0" fontId="78" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="26" fillId="0" fontId="79" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="27" fillId="23" fontId="80" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="27" fillId="0" fontId="81" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="27" fillId="0" fontId="82" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="28" fillId="24" fontId="83" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="28" fillId="0" fontId="84" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="28" fillId="0" fontId="85" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="29" fillId="25" fontId="86" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="29" fillId="0" fontId="87" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="29" fillId="0" fontId="88" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="26" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="30" fillId="26" fontId="89" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="30" fillId="0" fontId="90" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="30" fillId="0" fontId="91" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="27" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="31" fillId="27" fontId="92" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="31" fillId="0" fontId="93" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="31" fillId="0" fontId="94" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="28" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="32" fillId="28" fontId="95" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="32" fillId="0" fontId="96" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="32" fillId="0" fontId="97" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="29" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="33" fillId="29" fontId="98" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="33" fillId="0" fontId="99" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="33" fillId="0" fontId="100" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="30" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="34" fillId="30" fontId="101" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="34" fillId="0" fontId="102" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="34" fillId="0" fontId="103" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="31" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="31" fontId="104" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="35" fillId="0" fontId="105" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="35" fillId="0" fontId="106" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="32" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="36" fillId="32" fontId="107" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="36" fillId="0" fontId="108" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="36" fillId="0" fontId="109" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="33" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="37" fillId="33" fontId="110" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="37" fillId="0" fontId="111" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="37" fillId="0" fontId="112" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="34" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="38" fillId="34" fontId="113" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="38" fillId="0" fontId="114" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="38" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="39" fillId="3" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="2" fontId="25" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="40" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="41" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="41" fillId="0" fontId="19" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="40" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="42" fillId="35" fontId="116" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="42" fillId="0" fontId="117" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="42" fillId="0" fontId="118" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="36" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="43" fillId="36" fontId="119" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="43" fillId="0" fontId="120" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="43" fillId="0" fontId="121" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="37" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="44" fillId="37" fontId="122" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="44" fillId="0" fontId="123" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="44" fillId="0" fontId="124" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="38" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="45" fillId="38" fontId="125" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="45" fillId="0" fontId="126" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="45" fillId="0" fontId="127" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="39" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="39" fillId="2" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="39" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="39" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="39" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="39" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="46" fillId="39" fontId="128" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="46" fillId="0" fontId="129" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="46" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="40" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="47" fillId="40" fontId="131" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="47" fillId="0" fontId="132" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="47" fillId="0" fontId="133" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="41" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="48" fillId="41" fontId="134" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="48" fillId="0" fontId="135" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="48" fillId="0" fontId="136" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="42" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="49" fillId="42" fontId="137" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="49" fillId="0" fontId="138" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="49" fillId="0" fontId="139" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="43" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="50" fillId="43" fontId="140" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="50" fillId="0" fontId="141" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="50" fillId="0" fontId="142" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="44" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="51" fillId="6" fontId="143" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="51" fillId="0" fontId="144" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="51" fillId="0" fontId="145" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="45" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="51" fillId="6" fontId="146" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="51" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="51" fillId="0" fontId="148" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="46" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="51" fillId="6" fontId="149" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="51" fillId="0" fontId="150" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="51" fillId="0" fontId="151" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="51" fillId="6" fontId="152" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="51" fillId="0" fontId="153" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="51" fillId="0" fontId="154" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="51" fillId="6" fontId="155" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="51" fillId="0" fontId="156" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="51" fillId="0" fontId="157" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="51" fillId="6" fontId="158" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="51" fillId="0" fontId="159" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="51" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="51" fillId="6" fontId="161" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="51" fillId="0" fontId="162" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="51" fillId="0" fontId="163" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="51" fillId="6" fontId="164" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="51" fillId="0" fontId="165" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="51" fillId="0" fontId="166" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="51" fillId="6" fontId="167" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="51" fillId="0" fontId="168" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="59" fillId="12" fontId="169" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="59" fillId="0" fontId="170" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="59" fillId="0" fontId="171" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="59" fillId="12" fontId="172" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="59" fillId="0" fontId="173" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="59" fillId="0" fontId="174" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="6" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="59" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="59" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="3" builtinId="27"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="27" name="Bad" xfId="3"/>
+    <cellStyle builtinId="26" name="Good" xfId="2"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FFFF9393"/>
@@ -8443,10 +8669,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -8481,7 +8707,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -8516,7 +8742,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -8610,21 +8836,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -8641,7 +8867,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -8693,49 +8919,49 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D16" sqref="B16:D16"/>
+    <sheetView topLeftCell="B10" workbookViewId="0" zoomScale="175" zoomScaleNormal="175">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="77" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="77.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="24.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="197" t="s">
+      <c r="B2" s="214" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="198"/>
+      <c r="C2" s="215"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
@@ -8746,7 +8972,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
@@ -8757,43 +8983,43 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="199" t="s">
+      <c r="B5" s="216" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="198"/>
+      <c r="C5" s="215"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="26" t="s">
         <v>3</v>
       </c>
@@ -8808,7 +9034,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="11" spans="1:5">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
@@ -8823,7 +9049,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="12" spans="1:5">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -8838,7 +9064,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="13" spans="1:5">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -8853,7 +9079,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="14" spans="1:5">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -8868,12 +9094,12 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="16.5" r="15" spans="1:5">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -8883,7 +9109,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="16" spans="1:5">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -8894,16 +9120,16 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="17" spans="1:5">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -8913,7 +9139,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="18" spans="1:5">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -8924,11 +9150,11 @@
         <v>1</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="19" spans="1:5">
       <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
@@ -8943,12 +9169,12 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="20" spans="1:5">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C20" s="6">
         <v>1</v>
@@ -8958,12 +9184,12 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="16.5" r="21" spans="1:5">
       <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C21" s="9">
         <v>1</v>
@@ -8973,9 +9199,9 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="22" spans="1:5">
       <c r="A22" s="12" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -8988,147 +9214,147 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="23" spans="1:5">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
       <c r="D23" s="21"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="24" spans="1:5">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
       <c r="C24" s="20"/>
       <c r="D24" s="21"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="25" spans="1:5">
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
       <c r="C25" s="20"/>
       <c r="D25" s="21"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="26" spans="1:5">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20"/>
       <c r="D26" s="21"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="27" spans="1:5">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="20"/>
       <c r="D27" s="21"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="28" spans="1:5">
       <c r="A28" s="18"/>
       <c r="B28" s="19"/>
       <c r="C28" s="20"/>
       <c r="D28" s="21"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="29" spans="1:5">
       <c r="A29" s="18"/>
       <c r="B29" s="19"/>
       <c r="C29" s="20"/>
       <c r="D29" s="21"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="30" spans="1:5">
       <c r="A30" s="18"/>
       <c r="B30" s="19"/>
       <c r="C30" s="20"/>
       <c r="D30" s="21"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="31" spans="1:5">
       <c r="A31" s="18"/>
       <c r="B31" s="19"/>
       <c r="C31" s="20"/>
       <c r="D31" s="21"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="32" spans="1:5">
       <c r="A32" s="18"/>
       <c r="B32" s="19"/>
       <c r="C32" s="20"/>
       <c r="D32" s="21"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="33" spans="1:5">
       <c r="A33" s="18"/>
       <c r="B33" s="19"/>
       <c r="C33" s="20"/>
       <c r="D33" s="21"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="34" spans="1:5">
       <c r="A34" s="18"/>
       <c r="B34" s="19"/>
       <c r="C34" s="20"/>
       <c r="D34" s="21"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="35" spans="1:5">
       <c r="A35" s="18"/>
       <c r="B35" s="19"/>
       <c r="C35" s="20"/>
       <c r="D35" s="21"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="36" spans="1:5">
       <c r="A36" s="18"/>
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
       <c r="D36" s="21"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="37" spans="1:5">
       <c r="A37" s="18"/>
       <c r="B37" s="19"/>
       <c r="C37" s="20"/>
       <c r="D37" s="21"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="38" spans="1:5">
       <c r="A38" s="18"/>
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
       <c r="D38" s="21"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="39" spans="1:5">
       <c r="A39" s="18"/>
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
       <c r="D39" s="21"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="40" spans="1:5">
       <c r="A40" s="18"/>
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="21"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="41" spans="1:5">
       <c r="A41" s="18"/>
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="21"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -9141,36 +9367,36 @@
     <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
+  <sheetFormatPr defaultRowHeight="90.75"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="33.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -9205,27 +9431,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="116.25" r="2" s="33" spans="1:11">
       <c r="A2" s="32" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -9234,27 +9460,27 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="117.75" r="3" s="33" spans="1:11">
       <c r="A3" s="32" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -9263,27 +9489,27 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11">
       <c r="A4" s="32" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -9292,27 +9518,27 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="157.5" r="5" s="33" spans="1:11">
       <c r="A5" s="32" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D5" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="E5" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>252</v>
-      </c>
       <c r="G5" s="35" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
@@ -9321,27 +9547,27 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11">
       <c r="A6" s="32" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
@@ -9350,27 +9576,27 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="117" r="7" s="33" spans="1:11">
       <c r="A7" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="F7" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>267</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>268</v>
-      </c>
       <c r="G7" s="35" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="47">
@@ -9379,27 +9605,27 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="107.25" r="8" s="33" spans="1:11">
       <c r="A8" s="32" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="47">
@@ -9408,27 +9634,27 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="127.5" r="9" s="33" spans="1:11">
       <c r="A9" s="32" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>171</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="47">
@@ -9437,27 +9663,27 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="124.5" r="10" s="33" spans="1:11">
       <c r="A10" s="32" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>171</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="47">
@@ -9466,27 +9692,27 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11">
       <c r="A11" s="32" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>171</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="47">
@@ -9495,27 +9721,27 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11">
       <c r="A12" s="32" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F12" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="47">
@@ -9524,27 +9750,27 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="213.75" r="13" s="33" spans="1:11">
       <c r="A13" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" s="35" t="s">
         <v>287</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>286</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>293</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="47">
@@ -9553,27 +9779,27 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="151.5" r="14" s="33" spans="1:11">
       <c r="A14" s="32" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="47">
@@ -9582,27 +9808,27 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="160.5" r="15" s="33" spans="1:11">
       <c r="A15" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>302</v>
-      </c>
       <c r="D15" s="41" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H15" s="32"/>
       <c r="I15" s="47">
@@ -9611,27 +9837,27 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="151.5" r="16" s="33" spans="1:11">
       <c r="A16" s="32" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E16" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="F16" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="F16" s="37" t="s">
-        <v>303</v>
-      </c>
       <c r="G16" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="47">
@@ -9640,27 +9866,27 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="153.75" r="17" s="33" spans="1:11">
       <c r="A17" s="32" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H17" s="32"/>
       <c r="I17" s="47">
@@ -9669,27 +9895,27 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="155.25" r="18" s="33" spans="1:11">
       <c r="A18" s="32" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H18" s="32"/>
       <c r="I18" s="47">
@@ -9698,7 +9924,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11">
       <c r="A19" s="32"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -9711,7 +9937,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -9724,7 +9950,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -9737,7 +9963,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -9750,7 +9976,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -9763,7 +9989,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -9776,7 +10002,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -9789,7 +10015,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -9802,7 +10028,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -9815,7 +10041,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -9828,7 +10054,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -9842,36 +10068,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
+  <sheetFormatPr defaultRowHeight="90.75"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="33.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -9906,27 +10132,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="135" r="2" s="33" spans="1:11">
       <c r="A2" s="32" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C2" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>331</v>
-      </c>
       <c r="E2" s="35" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -9935,27 +10161,27 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="135" r="3" s="33" spans="1:11">
       <c r="A3" s="32" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -9964,27 +10190,27 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11">
       <c r="A4" s="32" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="47">
@@ -9993,27 +10219,27 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="157.5" r="5" s="33" spans="1:11">
       <c r="A5" s="32" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="47">
@@ -10022,27 +10248,27 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="132.75" r="6" s="33" spans="1:11">
       <c r="A6" s="32" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="47">
@@ -10051,27 +10277,27 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="150" r="7" s="33" spans="1:11">
       <c r="A7" s="32" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="47">
@@ -10080,27 +10306,27 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="162.75" r="8" s="33" spans="1:11">
       <c r="A8" s="32" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C8" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="E8" s="35" t="s">
         <v>345</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>346</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>351</v>
       </c>
       <c r="F8" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="47">
@@ -10109,27 +10335,27 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="153" r="9" s="33" spans="1:11">
       <c r="A9" s="32" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F9" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="47">
@@ -10138,27 +10364,27 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="156.75" r="10" s="33" spans="1:11">
       <c r="A10" s="32" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F10" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="47">
@@ -10167,27 +10393,27 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="159.75" r="11" s="33" spans="1:11">
       <c r="A11" s="32" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F11" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="47">
@@ -10196,7 +10422,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -10209,7 +10435,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="213.75" r="13" s="33" spans="1:11">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="44"/>
@@ -10222,7 +10448,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="151.5" r="14" s="33" spans="1:11">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="44"/>
@@ -10235,7 +10461,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="160.5" r="15" s="33" spans="1:11">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="44"/>
@@ -10248,7 +10474,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="151.5" r="16" s="33" spans="1:11">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="44"/>
@@ -10261,7 +10487,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="153.75" r="17" s="33" spans="1:11">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="44"/>
@@ -10274,7 +10500,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="155.25" r="18" s="33" spans="1:11">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="44"/>
@@ -10287,7 +10513,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11">
       <c r="A19" s="32"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -10300,7 +10526,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -10313,7 +10539,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -10326,7 +10552,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -10339,7 +10565,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -10352,7 +10578,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -10365,7 +10591,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -10378,7 +10604,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -10391,7 +10617,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -10404,7 +10630,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -10417,7 +10643,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -10431,36 +10657,36 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
+  <sheetFormatPr defaultRowHeight="90.75"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.42578125" style="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="41.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="33.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="46.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -10495,27 +10721,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="153" r="2" s="33" spans="1:11">
       <c r="A2" s="32" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="47">
@@ -10524,25 +10750,25 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="177" r="3" s="33" spans="1:11">
       <c r="A3" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="35" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="47">
@@ -10551,7 +10777,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="133.5" r="4" s="33" spans="1:11">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
       <c r="C4" s="44"/>
@@ -10564,7 +10790,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="157.5" r="5" s="33" spans="1:11">
       <c r="A5" s="32"/>
       <c r="B5" s="32"/>
       <c r="C5" s="44"/>
@@ -10577,7 +10803,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="129" r="6" s="33" spans="1:11">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="44"/>
@@ -10590,7 +10816,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="117" r="7" s="33" spans="1:11">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="44"/>
@@ -10603,7 +10829,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="107.25" r="8" s="33" spans="1:11">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="44"/>
@@ -10616,7 +10842,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="127.5" r="9" s="33" spans="1:11">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="44"/>
@@ -10629,7 +10855,7 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="124.5" r="10" s="33" spans="1:11">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="44"/>
@@ -10642,7 +10868,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="122.25" r="11" s="33" spans="1:11">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="44"/>
@@ -10655,7 +10881,7 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="140.25" r="12" s="33" spans="1:11">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="42"/>
@@ -10668,7 +10894,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="213.75" r="13" s="33" spans="1:11">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="44"/>
@@ -10681,7 +10907,7 @@
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="151.5" r="14" s="33" spans="1:11">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="44"/>
@@ -10694,7 +10920,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="160.5" r="15" s="33" spans="1:11">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="44"/>
@@ -10707,7 +10933,7 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="151.5" r="16" s="33" spans="1:11">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="44"/>
@@ -10720,7 +10946,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="153.75" r="17" s="33" spans="1:11">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="44"/>
@@ -10733,7 +10959,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" s="33" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="155.25" r="18" s="33" spans="1:11">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="44"/>
@@ -10746,7 +10972,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="19" s="33" spans="1:11">
       <c r="A19" s="32"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
@@ -10759,7 +10985,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="20" s="33" spans="1:11">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="32"/>
@@ -10772,7 +10998,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="21" s="33" spans="1:11">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -10785,7 +11011,7 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="22" s="33" spans="1:11">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -10798,7 +11024,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
-    <row r="23" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="23" s="33" spans="1:11">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -10811,7 +11037,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="24" s="33" spans="1:11">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -10824,7 +11050,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="25" s="33" spans="1:11">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -10837,7 +11063,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="26" s="33" spans="1:11">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -10850,7 +11076,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="27" s="33" spans="1:11">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -10863,7 +11089,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="28" s="33" spans="1:11">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -10876,7 +11102,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="29" s="33" spans="1:11">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -10890,35 +11116,35 @@
       <c r="K29" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
+  <sheetFormatPr defaultRowHeight="90.75"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="40.85546875" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.42578125" style="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="32.140625" style="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17" style="48" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19" style="34" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="36.140625" style="34" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="34" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="40.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="36" width="47.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="36" width="56.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="34" width="38.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="36" width="33.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="34" width="32.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="48" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="34" width="19.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="34" width="36.140625" collapsed="true"/>
+    <col min="12" max="16384" style="34" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.5" r="1" spans="1:11">
       <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
@@ -10953,27 +11179,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="103.5" r="2" s="33" spans="1:11">
       <c r="A2" s="32" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B2" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>366</v>
-      </c>
-      <c r="C2" s